--- a/BackTest/2019-10-14 BackTest BTG.xlsx
+++ b/BackTest/2019-10-14 BackTest BTG.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>255</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-47.82608695652174</v>
+      </c>
       <c r="L12" t="n">
         <v>9259.5</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>270</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-51.02040816326531</v>
+      </c>
       <c r="L13" t="n">
         <v>9247</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>310</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-57.89473684210527</v>
+      </c>
       <c r="L14" t="n">
         <v>9230.5</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>440</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-8.433734939759036</v>
+      </c>
       <c r="L15" t="n">
         <v>9227</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>585</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-20.83333333333334</v>
+      </c>
       <c r="L16" t="n">
         <v>9209</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>665</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1.886792452830189</v>
+      </c>
       <c r="L17" t="n">
         <v>9207</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>670</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>9207.5</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>680</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-13.4020618556701</v>
+      </c>
       <c r="L19" t="n">
         <v>9206.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>705</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-7.84313725490196</v>
+      </c>
       <c r="L20" t="n">
         <v>9202.5</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>710</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>3.296703296703297</v>
+      </c>
       <c r="L21" t="n">
         <v>9198</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>735</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1.075268817204301</v>
+      </c>
       <c r="L22" t="n">
         <v>9197</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>745</v>
       </c>
       <c r="K23" t="n">
-        <v>-15.27777777777778</v>
+        <v>12.64367816091954</v>
       </c>
       <c r="L23" t="n">
         <v>9198.5</v>
@@ -1466,7 +1488,7 @@
         <v>750</v>
       </c>
       <c r="K24" t="n">
-        <v>-14.48275862068966</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L24" t="n">
         <v>9204.5</v>
@@ -1515,7 +1537,7 @@
         <v>755</v>
       </c>
       <c r="K25" t="n">
-        <v>-15.06849315068493</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L25" t="n">
         <v>9197</v>
@@ -1564,7 +1586,7 @@
         <v>755</v>
       </c>
       <c r="K26" t="n">
-        <v>-15.06849315068493</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L26" t="n">
         <v>9204</v>
@@ -1613,7 +1635,7 @@
         <v>755</v>
       </c>
       <c r="K27" t="n">
-        <v>-4.615384615384616</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L27" t="n">
         <v>9203</v>
@@ -1662,7 +1684,7 @@
         <v>755</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L28" t="n">
         <v>9202.5</v>
@@ -1711,7 +1733,7 @@
         <v>755</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.8130081300813009</v>
+        <v>-40</v>
       </c>
       <c r="L29" t="n">
         <v>9203</v>
@@ -1760,7 +1782,7 @@
         <v>760</v>
       </c>
       <c r="K30" t="n">
-        <v>-11.50442477876106</v>
+        <v>-40</v>
       </c>
       <c r="L30" t="n">
         <v>9200.5</v>
@@ -1809,7 +1831,7 @@
         <v>800</v>
       </c>
       <c r="K31" t="n">
-        <v>-4.132231404958678</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L31" t="n">
         <v>9202.5</v>
@@ -1860,7 +1882,7 @@
         <v>805</v>
       </c>
       <c r="K32" t="n">
-        <v>7.272727272727272</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L32" t="n">
         <v>9207.5</v>
@@ -1911,7 +1933,7 @@
         <v>810</v>
       </c>
       <c r="K33" t="n">
-        <v>11.11111111111111</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L33" t="n">
         <v>9212</v>
@@ -1962,7 +1984,7 @@
         <v>845</v>
       </c>
       <c r="K34" t="n">
-        <v>25.23364485981308</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="L34" t="n">
         <v>9219.5</v>
@@ -2013,7 +2035,7 @@
         <v>855</v>
       </c>
       <c r="K35" t="n">
-        <v>-1.204819277108434</v>
+        <v>70</v>
       </c>
       <c r="L35" t="n">
         <v>9226.5</v>
@@ -2064,7 +2086,7 @@
         <v>855</v>
       </c>
       <c r="K36" t="n">
-        <v>51.85185185185185</v>
+        <v>70</v>
       </c>
       <c r="L36" t="n">
         <v>9233.5</v>
@@ -2115,7 +2137,7 @@
         <v>855</v>
       </c>
       <c r="K37" t="n">
-        <v>31.57894736842105</v>
+        <v>70</v>
       </c>
       <c r="L37" t="n">
         <v>9240.5</v>
@@ -2166,7 +2188,7 @@
         <v>920</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L38" t="n">
         <v>9241</v>
@@ -2217,7 +2239,7 @@
         <v>985</v>
       </c>
       <c r="K39" t="n">
-        <v>24.59016393442623</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>9248</v>
@@ -2268,7 +2290,7 @@
         <v>985</v>
       </c>
       <c r="K40" t="n">
-        <v>17.85714285714286</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L40" t="n">
         <v>9255.5</v>
@@ -2319,7 +2341,7 @@
         <v>985</v>
       </c>
       <c r="K41" t="n">
-        <v>20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L41" t="n">
         <v>9259</v>
@@ -2370,7 +2392,7 @@
         <v>1050</v>
       </c>
       <c r="K42" t="n">
-        <v>4.761904761904762</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L42" t="n">
         <v>9255.5</v>
@@ -2421,7 +2443,7 @@
         <v>1135</v>
       </c>
       <c r="K43" t="n">
-        <v>23.07692307692308</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L43" t="n">
         <v>9260</v>
@@ -2472,7 +2494,7 @@
         <v>1225</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.052631578947368</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L44" t="n">
         <v>9252</v>
@@ -2523,7 +2545,7 @@
         <v>1315</v>
       </c>
       <c r="K45" t="n">
-        <v>16.07142857142857</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L45" t="n">
         <v>9254</v>
@@ -2574,7 +2596,7 @@
         <v>1315</v>
       </c>
       <c r="K46" t="n">
-        <v>16.07142857142857</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L46" t="n">
         <v>9256</v>
@@ -2625,7 +2647,7 @@
         <v>1415</v>
       </c>
       <c r="K47" t="n">
-        <v>-1.515151515151515</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L47" t="n">
         <v>9248</v>
@@ -2676,7 +2698,7 @@
         <v>1415</v>
       </c>
       <c r="K48" t="n">
-        <v>-1.515151515151515</v>
+        <v>-18.6046511627907</v>
       </c>
       <c r="L48" t="n">
         <v>9246.5</v>
@@ -2727,7 +2749,7 @@
         <v>1495</v>
       </c>
       <c r="K49" t="n">
-        <v>9.45945945945946</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>9246.5</v>
@@ -2778,7 +2800,7 @@
         <v>1520</v>
       </c>
       <c r="K50" t="n">
-        <v>13.1578947368421</v>
+        <v>4.672897196261682</v>
       </c>
       <c r="L50" t="n">
         <v>9249</v>
@@ -2829,7 +2851,7 @@
         <v>1525</v>
       </c>
       <c r="K51" t="n">
-        <v>7.586206896551724</v>
+        <v>17.89473684210526</v>
       </c>
       <c r="L51" t="n">
         <v>9251</v>
@@ -2880,7 +2902,7 @@
         <v>1525</v>
       </c>
       <c r="K52" t="n">
-        <v>6.944444444444445</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>9259.5</v>
@@ -2931,7 +2953,7 @@
         <v>1625</v>
       </c>
       <c r="K53" t="n">
-        <v>-6.748466257668712</v>
+        <v>-2.5</v>
       </c>
       <c r="L53" t="n">
         <v>9249.5</v>
@@ -2982,7 +3004,7 @@
         <v>1625</v>
       </c>
       <c r="K54" t="n">
-        <v>-11.53846153846154</v>
+        <v>-32.25806451612903</v>
       </c>
       <c r="L54" t="n">
         <v>9248.5</v>
@@ -3033,7 +3055,7 @@
         <v>1710</v>
       </c>
       <c r="K55" t="n">
-        <v>0.5847953216374269</v>
+        <v>-3.79746835443038</v>
       </c>
       <c r="L55" t="n">
         <v>9247</v>
@@ -3084,7 +3106,7 @@
         <v>1715</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L56" t="n">
         <v>9245</v>
@@ -3135,7 +3157,7 @@
         <v>1720</v>
       </c>
       <c r="K57" t="n">
-        <v>0.5780346820809248</v>
+        <v>27.86885245901639</v>
       </c>
       <c r="L57" t="n">
         <v>9253.5</v>
@@ -3186,7 +3208,7 @@
         <v>1725</v>
       </c>
       <c r="K58" t="n">
-        <v>8.074534161490684</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>9261.5</v>
@@ -3237,7 +3259,7 @@
         <v>1725</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>-12.19512195121951</v>
       </c>
       <c r="L59" t="n">
         <v>9261.5</v>
@@ -3288,7 +3310,7 @@
         <v>1730</v>
       </c>
       <c r="K60" t="n">
-        <v>0.6711409395973155</v>
+        <v>-7.317073170731707</v>
       </c>
       <c r="L60" t="n">
         <v>9259.5</v>
@@ -3339,7 +3361,7 @@
         <v>1730</v>
       </c>
       <c r="K61" t="n">
-        <v>0.6711409395973155</v>
+        <v>-7.317073170731707</v>
       </c>
       <c r="L61" t="n">
         <v>9258</v>
@@ -3390,7 +3412,7 @@
         <v>1730</v>
       </c>
       <c r="K62" t="n">
-        <v>10.29411764705882</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="L62" t="n">
         <v>9256.5</v>
@@ -3441,7 +3463,7 @@
         <v>1815</v>
       </c>
       <c r="K63" t="n">
-        <v>-14.70588235294118</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>9256.5</v>
@@ -3492,7 +3514,7 @@
         <v>1830</v>
       </c>
       <c r="K64" t="n">
-        <v>0.8264462809917356</v>
+        <v>-58.33333333333334</v>
       </c>
       <c r="L64" t="n">
         <v>9258</v>
@@ -3549,7 +3571,7 @@
         <v>1865</v>
       </c>
       <c r="K65" t="n">
-        <v>-21.81818181818182</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L65" t="n">
         <v>9247.5</v>
@@ -3610,7 +3632,7 @@
         <v>1940</v>
       </c>
       <c r="K66" t="n">
-        <v>-7.199999999999999</v>
+        <v>-13.63636363636363</v>
       </c>
       <c r="L66" t="n">
         <v>9245</v>
@@ -3671,7 +3693,7 @@
         <v>1955</v>
       </c>
       <c r="K67" t="n">
-        <v>12.96296296296296</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L67" t="n">
         <v>9243.5</v>
@@ -3732,7 +3754,7 @@
         <v>2075</v>
       </c>
       <c r="K68" t="n">
-        <v>-7.575757575757576</v>
+        <v>-37.14285714285715</v>
       </c>
       <c r="L68" t="n">
         <v>9230.5</v>
@@ -3793,7 +3815,7 @@
         <v>2080</v>
       </c>
       <c r="K69" t="n">
-        <v>-21.36752136752137</v>
+        <v>-37.14285714285715</v>
       </c>
       <c r="L69" t="n">
         <v>9218</v>
@@ -3852,7 +3874,7 @@
         <v>2150</v>
       </c>
       <c r="K70" t="n">
-        <v>-12.6984126984127</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L70" t="n">
         <v>9212</v>
@@ -3915,7 +3937,7 @@
         <v>2225</v>
       </c>
       <c r="K71" t="n">
-        <v>-21.42857142857143</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L71" t="n">
         <v>9198.5</v>
@@ -3978,7 +4000,7 @@
         <v>2295</v>
       </c>
       <c r="K72" t="n">
-        <v>-10.38961038961039</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="L72" t="n">
         <v>9192</v>
@@ -4041,7 +4063,7 @@
         <v>2335</v>
       </c>
       <c r="K73" t="n">
-        <v>8.450704225352112</v>
+        <v>8.91089108910891</v>
       </c>
       <c r="L73" t="n">
         <v>9198</v>
@@ -4104,7 +4126,7 @@
         <v>2360</v>
       </c>
       <c r="K74" t="n">
-        <v>11.56462585034014</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L74" t="n">
         <v>9205</v>
@@ -4167,7 +4189,7 @@
         <v>2365</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.7633587786259541</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L75" t="n">
         <v>9215</v>
@@ -4230,7 +4252,7 @@
         <v>2370</v>
       </c>
       <c r="K76" t="n">
-        <v>0.7633587786259541</v>
+        <v>3.614457831325301</v>
       </c>
       <c r="L76" t="n">
         <v>9218</v>
@@ -4293,7 +4315,7 @@
         <v>2430</v>
       </c>
       <c r="K77" t="n">
-        <v>-8.450704225352112</v>
+        <v>21.12676056338028</v>
       </c>
       <c r="L77" t="n">
         <v>9213.5</v>
@@ -4356,7 +4378,7 @@
         <v>2485</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>30.8641975308642</v>
       </c>
       <c r="L78" t="n">
         <v>9226.5</v>
@@ -4417,7 +4439,7 @@
         <v>2490</v>
       </c>
       <c r="K79" t="n">
-        <v>0.6535947712418301</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L79" t="n">
         <v>9239.5</v>
@@ -4476,7 +4498,7 @@
         <v>2495</v>
       </c>
       <c r="K80" t="n">
-        <v>0.6535947712418301</v>
+        <v>51.85185185185185</v>
       </c>
       <c r="L80" t="n">
         <v>9246</v>
@@ -4537,7 +4559,7 @@
         <v>2500</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="L81" t="n">
         <v>9259.5</v>
@@ -4598,7 +4620,7 @@
         <v>2500</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L82" t="n">
         <v>9266</v>
@@ -4659,7 +4681,7 @@
         <v>2500</v>
       </c>
       <c r="K83" t="n">
-        <v>12.40875912408759</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>9268.5</v>
@@ -4716,7 +4738,7 @@
         <v>2500</v>
       </c>
       <c r="K84" t="n">
-        <v>10.44776119402985</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L84" t="n">
         <v>9268.5</v>
@@ -4773,7 +4795,7 @@
         <v>2505</v>
       </c>
       <c r="K85" t="n">
-        <v>17.1875</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L85" t="n">
         <v>9269.5</v>
@@ -4830,7 +4852,7 @@
         <v>2505</v>
       </c>
       <c r="K86" t="n">
-        <v>6.194690265486726</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L86" t="n">
         <v>9270</v>
@@ -4887,7 +4909,7 @@
         <v>2505</v>
       </c>
       <c r="K87" t="n">
-        <v>3.636363636363636</v>
+        <v>50</v>
       </c>
       <c r="L87" t="n">
         <v>9276.5</v>
@@ -4944,7 +4966,7 @@
         <v>2510</v>
       </c>
       <c r="K88" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L88" t="n">
         <v>9278</v>
@@ -5001,7 +5023,7 @@
         <v>2510</v>
       </c>
       <c r="K89" t="n">
-        <v>32.55813953488372</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>9279</v>
@@ -5052,7 +5074,7 @@
         <v>2510</v>
       </c>
       <c r="K90" t="n">
-        <v>19.44444444444445</v>
+        <v>100</v>
       </c>
       <c r="L90" t="n">
         <v>9279.5</v>
@@ -5103,7 +5125,7 @@
         <v>2515</v>
       </c>
       <c r="K91" t="n">
-        <v>48.27586206896552</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L91" t="n">
         <v>9280</v>
@@ -5154,7 +5176,7 @@
         <v>2605</v>
       </c>
       <c r="K92" t="n">
-        <v>-6.451612903225806</v>
+        <v>-80.95238095238095</v>
       </c>
       <c r="L92" t="n">
         <v>9271.5</v>
@@ -5205,7 +5227,7 @@
         <v>2630</v>
       </c>
       <c r="K93" t="n">
-        <v>-11.86440677966102</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L93" t="n">
         <v>9265.5</v>
@@ -5256,7 +5278,7 @@
         <v>2670</v>
       </c>
       <c r="K94" t="n">
-        <v>-6.451612903225806</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L94" t="n">
         <v>9263.5</v>
@@ -5307,7 +5329,7 @@
         <v>2705</v>
       </c>
       <c r="K95" t="n">
-        <v>-14.70588235294118</v>
+        <v>-30</v>
       </c>
       <c r="L95" t="n">
         <v>9257.5</v>
@@ -5358,7 +5380,7 @@
         <v>2705</v>
       </c>
       <c r="K96" t="n">
-        <v>-16.41791044776119</v>
+        <v>-30</v>
       </c>
       <c r="L96" t="n">
         <v>9251.5</v>
@@ -5409,7 +5431,7 @@
         <v>2735</v>
       </c>
       <c r="K97" t="n">
-        <v>11.47540983606557</v>
+        <v>-15.55555555555556</v>
       </c>
       <c r="L97" t="n">
         <v>9248.5</v>
@@ -5460,7 +5482,7 @@
         <v>2765</v>
       </c>
       <c r="K98" t="n">
-        <v>-17.85714285714286</v>
+        <v>-25.49019607843137</v>
       </c>
       <c r="L98" t="n">
         <v>9242</v>
@@ -5511,7 +5533,7 @@
         <v>2790</v>
       </c>
       <c r="K99" t="n">
-        <v>-10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L99" t="n">
         <v>9238</v>
@@ -5613,7 +5635,7 @@
         <v>2850</v>
       </c>
       <c r="K101" t="n">
-        <v>-5.714285714285714</v>
+        <v>26.53061224489796</v>
       </c>
       <c r="L101" t="n">
         <v>9235</v>
@@ -5664,7 +5686,7 @@
         <v>2860</v>
       </c>
       <c r="K102" t="n">
-        <v>-8.333333333333332</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L102" t="n">
         <v>9240.5</v>
@@ -5715,7 +5737,7 @@
         <v>2860</v>
       </c>
       <c r="K103" t="n">
-        <v>-8.333333333333332</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L103" t="n">
         <v>9243.5</v>
@@ -5766,7 +5788,7 @@
         <v>2895</v>
       </c>
       <c r="K104" t="n">
-        <v>1.265822784810127</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L104" t="n">
         <v>9246</v>
@@ -5817,7 +5839,7 @@
         <v>2905</v>
       </c>
       <c r="K105" t="n">
-        <v>-2.5</v>
+        <v>25</v>
       </c>
       <c r="L105" t="n">
         <v>9251</v>
@@ -5868,7 +5890,7 @@
         <v>2915</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L106" t="n">
         <v>9257</v>
@@ -5919,7 +5941,7 @@
         <v>2940</v>
       </c>
       <c r="K107" t="n">
-        <v>-5.747126436781609</v>
+        <v>20</v>
       </c>
       <c r="L107" t="n">
         <v>9257.5</v>
@@ -5970,7 +5992,7 @@
         <v>2960</v>
       </c>
       <c r="K108" t="n">
-        <v>-2.222222222222222</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L108" t="n">
         <v>9263</v>
@@ -6021,7 +6043,7 @@
         <v>2975</v>
       </c>
       <c r="K109" t="n">
-        <v>-5.376344086021505</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>9264.5</v>
@@ -6072,7 +6094,7 @@
         <v>2975</v>
       </c>
       <c r="K110" t="n">
-        <v>-5.376344086021505</v>
+        <v>4</v>
       </c>
       <c r="L110" t="n">
         <v>9262.5</v>
@@ -6123,7 +6145,7 @@
         <v>2995</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L111" t="n">
         <v>9265</v>
@@ -6174,7 +6196,7 @@
         <v>3010</v>
       </c>
       <c r="K112" t="n">
-        <v>18.51851851851852</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L112" t="n">
         <v>9267</v>
@@ -6225,7 +6247,7 @@
         <v>3020</v>
       </c>
       <c r="K113" t="n">
-        <v>10.25641025641026</v>
+        <v>-20</v>
       </c>
       <c r="L113" t="n">
         <v>9268</v>
@@ -6276,7 +6298,7 @@
         <v>3075</v>
       </c>
       <c r="K114" t="n">
-        <v>-13.58024691358025</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L114" t="n">
         <v>9260</v>
@@ -6327,7 +6349,7 @@
         <v>3105</v>
       </c>
       <c r="K115" t="n">
-        <v>2.5</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L115" t="n">
         <v>9256</v>
@@ -6378,7 +6400,7 @@
         <v>3115</v>
       </c>
       <c r="K116" t="n">
-        <v>4.878048780487805</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L116" t="n">
         <v>9252</v>
@@ -6429,7 +6451,7 @@
         <v>3145</v>
       </c>
       <c r="K117" t="n">
-        <v>4.878048780487805</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L117" t="n">
         <v>9253.5</v>
@@ -6480,7 +6502,7 @@
         <v>3145</v>
       </c>
       <c r="K118" t="n">
-        <v>13.1578947368421</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L118" t="n">
         <v>9253</v>
@@ -6531,7 +6553,7 @@
         <v>3150</v>
       </c>
       <c r="K119" t="n">
-        <v>8.333333333333332</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L119" t="n">
         <v>9254.5</v>
@@ -6582,7 +6604,7 @@
         <v>3205</v>
       </c>
       <c r="K120" t="n">
-        <v>-15.78947368421053</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L120" t="n">
         <v>9250.5</v>
@@ -6633,7 +6655,7 @@
         <v>3215</v>
       </c>
       <c r="K121" t="n">
-        <v>-12.32876712328767</v>
+        <v>-26.82926829268293</v>
       </c>
       <c r="L121" t="n">
         <v>9243.5</v>
@@ -6684,7 +6706,7 @@
         <v>3290</v>
       </c>
       <c r="K122" t="n">
-        <v>9.302325581395349</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L122" t="n">
         <v>9245.5</v>
@@ -6735,7 +6757,7 @@
         <v>3290</v>
       </c>
       <c r="K123" t="n">
-        <v>9.302325581395349</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="L123" t="n">
         <v>9248.5</v>
@@ -6786,7 +6808,7 @@
         <v>3300</v>
       </c>
       <c r="K124" t="n">
-        <v>3.703703703703703</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L124" t="n">
         <v>9258</v>
@@ -6837,7 +6859,7 @@
         <v>3300</v>
       </c>
       <c r="K125" t="n">
-        <v>6.329113924050633</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L125" t="n">
         <v>9264.5</v>
@@ -6888,7 +6910,7 @@
         <v>3300</v>
       </c>
       <c r="K126" t="n">
-        <v>3.896103896103896</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L126" t="n">
         <v>9270</v>
@@ -6939,7 +6961,7 @@
         <v>3305</v>
       </c>
       <c r="K127" t="n">
-        <v>12.32876712328767</v>
+        <v>18.75</v>
       </c>
       <c r="L127" t="n">
         <v>9273</v>
@@ -6990,7 +7012,7 @@
         <v>3305</v>
       </c>
       <c r="K128" t="n">
-        <v>7.246376811594203</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L128" t="n">
         <v>9276</v>
@@ -7041,7 +7063,7 @@
         <v>3315</v>
       </c>
       <c r="K129" t="n">
-        <v>8.823529411764707</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L129" t="n">
         <v>9277.5</v>
@@ -7092,7 +7114,7 @@
         <v>3325</v>
       </c>
       <c r="K130" t="n">
-        <v>11.42857142857143</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L130" t="n">
         <v>9285.5</v>
@@ -7143,7 +7165,7 @@
         <v>3335</v>
       </c>
       <c r="K131" t="n">
-        <v>2.941176470588235</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L131" t="n">
         <v>9293.5</v>
@@ -7194,7 +7216,7 @@
         <v>3340</v>
       </c>
       <c r="K132" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L132" t="n">
         <v>9294.5</v>
@@ -7245,7 +7267,7 @@
         <v>3350</v>
       </c>
       <c r="K133" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L133" t="n">
         <v>9294.5</v>
@@ -7296,7 +7318,7 @@
         <v>3350</v>
       </c>
       <c r="K134" t="n">
-        <v>30.90909090909091</v>
+        <v>-20</v>
       </c>
       <c r="L134" t="n">
         <v>9293.5</v>
@@ -7347,7 +7369,7 @@
         <v>3495</v>
       </c>
       <c r="K135" t="n">
-        <v>-23.07692307692308</v>
+        <v>-79.48717948717949</v>
       </c>
       <c r="L135" t="n">
         <v>9278</v>
@@ -7398,7 +7420,7 @@
         <v>3620</v>
       </c>
       <c r="K136" t="n">
-        <v>4.95049504950495</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L136" t="n">
         <v>9275</v>
@@ -7449,7 +7471,7 @@
         <v>3745</v>
       </c>
       <c r="K137" t="n">
-        <v>-21.66666666666667</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L137" t="n">
         <v>9259</v>
@@ -7500,7 +7522,7 @@
         <v>3865</v>
       </c>
       <c r="K138" t="n">
-        <v>-1.388888888888889</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L138" t="n">
         <v>9255</v>
@@ -7551,7 +7573,7 @@
         <v>3870</v>
       </c>
       <c r="K139" t="n">
-        <v>-1.388888888888889</v>
+        <v>-6.422018348623854</v>
       </c>
       <c r="L139" t="n">
         <v>9252.5</v>
@@ -7602,7 +7624,7 @@
         <v>3870</v>
       </c>
       <c r="K140" t="n">
-        <v>6.766917293233083</v>
+        <v>-4.672897196261682</v>
       </c>
       <c r="L140" t="n">
         <v>9249</v>
@@ -7653,7 +7675,7 @@
         <v>3880</v>
       </c>
       <c r="K141" t="n">
-        <v>6.766917293233083</v>
+        <v>-7.407407407407407</v>
       </c>
       <c r="L141" t="n">
         <v>9245.5</v>
@@ -7704,7 +7726,7 @@
         <v>3885</v>
       </c>
       <c r="K142" t="n">
-        <v>-5.88235294117647</v>
+        <v>-6.542056074766355</v>
       </c>
       <c r="L142" t="n">
         <v>9241</v>
@@ -7755,7 +7777,7 @@
         <v>3890</v>
       </c>
       <c r="K143" t="n">
-        <v>-5</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L143" t="n">
         <v>9238</v>
@@ -7806,7 +7828,7 @@
         <v>3895</v>
       </c>
       <c r="K144" t="n">
-        <v>-5.88235294117647</v>
+        <v>30</v>
       </c>
       <c r="L144" t="n">
         <v>9235.5</v>
@@ -7857,7 +7879,7 @@
         <v>3900</v>
       </c>
       <c r="K145" t="n">
-        <v>-6.666666666666667</v>
+        <v>-3.571428571428571</v>
       </c>
       <c r="L145" t="n">
         <v>9247</v>
@@ -7908,7 +7930,7 @@
         <v>3970</v>
       </c>
       <c r="K146" t="n">
-        <v>-16.41791044776119</v>
+        <v>20</v>
       </c>
       <c r="L146" t="n">
         <v>9239</v>
@@ -7959,7 +7981,7 @@
         <v>4035</v>
       </c>
       <c r="K147" t="n">
-        <v>-6.849315068493151</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L147" t="n">
         <v>9250</v>
@@ -8010,7 +8032,7 @@
         <v>4035</v>
       </c>
       <c r="K148" t="n">
-        <v>-6.849315068493151</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L148" t="n">
         <v>9249</v>
@@ -8061,7 +8083,7 @@
         <v>4040</v>
       </c>
       <c r="K149" t="n">
-        <v>-4.827586206896552</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L149" t="n">
         <v>9248</v>
@@ -8112,7 +8134,7 @@
         <v>4045</v>
       </c>
       <c r="K150" t="n">
-        <v>-6.944444444444445</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L150" t="n">
         <v>9246.5</v>
@@ -8163,7 +8185,7 @@
         <v>4060</v>
       </c>
       <c r="K151" t="n">
-        <v>-3.448275862068965</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L151" t="n">
         <v>9247.5</v>
@@ -8214,7 +8236,7 @@
         <v>4060</v>
       </c>
       <c r="K152" t="n">
-        <v>-4.166666666666666</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L152" t="n">
         <v>9249</v>
@@ -8265,7 +8287,7 @@
         <v>4060</v>
       </c>
       <c r="K153" t="n">
-        <v>-2.816901408450704</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L153" t="n">
         <v>9250</v>
@@ -8316,7 +8338,7 @@
         <v>4130</v>
       </c>
       <c r="K154" t="n">
-        <v>-11.53846153846154</v>
+        <v>-26.08695652173913</v>
       </c>
       <c r="L154" t="n">
         <v>9243.5</v>
@@ -8367,7 +8389,7 @@
         <v>4200</v>
       </c>
       <c r="K155" t="n">
-        <v>17.73049645390071</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="L155" t="n">
         <v>9244.5</v>
@@ -8418,7 +8440,7 @@
         <v>4270</v>
       </c>
       <c r="K156" t="n">
-        <v>-10.76923076923077</v>
+        <v>-23.40425531914894</v>
       </c>
       <c r="L156" t="n">
         <v>9245.5</v>
@@ -8469,7 +8491,7 @@
         <v>4340</v>
       </c>
       <c r="K157" t="n">
-        <v>21.00840336134454</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="L157" t="n">
         <v>9247</v>
@@ -8520,7 +8542,7 @@
         <v>4420</v>
       </c>
       <c r="K158" t="n">
-        <v>-13.51351351351351</v>
+        <v>-18.42105263157895</v>
       </c>
       <c r="L158" t="n">
         <v>9240.5</v>
@@ -8571,7 +8593,7 @@
         <v>4420</v>
       </c>
       <c r="K159" t="n">
-        <v>-14.54545454545454</v>
+        <v>-17.33333333333334</v>
       </c>
       <c r="L159" t="n">
         <v>9233.5</v>
@@ -8622,7 +8644,7 @@
         <v>4490</v>
       </c>
       <c r="K160" t="n">
-        <v>-1.612903225806452</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L160" t="n">
         <v>9234</v>
@@ -8673,7 +8695,7 @@
         <v>4490</v>
       </c>
       <c r="K161" t="n">
-        <v>0</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L161" t="n">
         <v>9233</v>
@@ -8724,7 +8746,7 @@
         <v>4500</v>
       </c>
       <c r="K162" t="n">
-        <v>2.439024390243902</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>9233</v>
@@ -8775,7 +8797,7 @@
         <v>4500</v>
       </c>
       <c r="K163" t="n">
-        <v>1.639344262295082</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L163" t="n">
         <v>9233</v>
@@ -8826,7 +8848,7 @@
         <v>4500</v>
       </c>
       <c r="K164" t="n">
-        <v>0.8264462809917356</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>9240</v>
@@ -8877,7 +8899,7 @@
         <v>4500</v>
       </c>
       <c r="K165" t="n">
-        <v>1.666666666666667</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L165" t="n">
         <v>9240</v>
@@ -8928,7 +8950,7 @@
         <v>4500</v>
       </c>
       <c r="K166" t="n">
-        <v>15.09433962264151</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>9247</v>
@@ -8979,7 +9001,7 @@
         <v>4530</v>
       </c>
       <c r="K167" t="n">
-        <v>9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L167" t="n">
         <v>9250</v>
@@ -9030,7 +9052,7 @@
         <v>4535</v>
       </c>
       <c r="K168" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L168" t="n">
         <v>9261.5</v>
@@ -9081,7 +9103,7 @@
         <v>4535</v>
       </c>
       <c r="K169" t="n">
-        <v>9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L169" t="n">
         <v>9273</v>
@@ -9132,7 +9154,7 @@
         <v>4535</v>
       </c>
       <c r="K170" t="n">
-        <v>10.20408163265306</v>
+        <v>100</v>
       </c>
       <c r="L170" t="n">
         <v>9277.5</v>
@@ -9183,7 +9205,7 @@
         <v>4535</v>
       </c>
       <c r="K171" t="n">
-        <v>7.368421052631578</v>
+        <v>100</v>
       </c>
       <c r="L171" t="n">
         <v>9282</v>
@@ -9234,7 +9256,7 @@
         <v>4535</v>
       </c>
       <c r="K172" t="n">
-        <v>7.368421052631578</v>
+        <v>100</v>
       </c>
       <c r="L172" t="n">
         <v>9285.5</v>
@@ -9285,7 +9307,7 @@
         <v>4555</v>
       </c>
       <c r="K173" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L173" t="n">
         <v>9291</v>
@@ -9336,7 +9358,7 @@
         <v>4555</v>
       </c>
       <c r="K174" t="n">
-        <v>29.41176470588236</v>
+        <v>100</v>
       </c>
       <c r="L174" t="n">
         <v>9296.5</v>
@@ -9387,7 +9409,7 @@
         <v>4660</v>
       </c>
       <c r="K175" t="n">
-        <v>-10.8695652173913</v>
+        <v>-31.25</v>
       </c>
       <c r="L175" t="n">
         <v>9291.5</v>
@@ -9438,7 +9460,7 @@
         <v>4775</v>
       </c>
       <c r="K176" t="n">
-        <v>26.73267326732674</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L176" t="n">
         <v>9298</v>
@@ -9489,7 +9511,7 @@
         <v>4775</v>
       </c>
       <c r="K177" t="n">
-        <v>14.94252873563219</v>
+        <v>12.5</v>
       </c>
       <c r="L177" t="n">
         <v>9301.5</v>
@@ -9540,7 +9562,7 @@
         <v>4835</v>
       </c>
       <c r="K178" t="n">
-        <v>20.48192771084337</v>
+        <v>-10</v>
       </c>
       <c r="L178" t="n">
         <v>9298.5</v>
@@ -9591,7 +9613,7 @@
         <v>4910</v>
       </c>
       <c r="K179" t="n">
-        <v>32.6530612244898</v>
+        <v>12</v>
       </c>
       <c r="L179" t="n">
         <v>9303</v>
@@ -9642,7 +9664,7 @@
         <v>4910</v>
       </c>
       <c r="K180" t="n">
-        <v>21.42857142857143</v>
+        <v>12</v>
       </c>
       <c r="L180" t="n">
         <v>9307.5</v>
@@ -9693,7 +9715,7 @@
         <v>4910</v>
       </c>
       <c r="K181" t="n">
-        <v>21.42857142857143</v>
+        <v>12</v>
       </c>
       <c r="L181" t="n">
         <v>9312</v>
@@ -9744,7 +9766,7 @@
         <v>4975</v>
       </c>
       <c r="K182" t="n">
-        <v>3.157894736842105</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L182" t="n">
         <v>9310</v>
@@ -9795,7 +9817,7 @@
         <v>5015</v>
       </c>
       <c r="K183" t="n">
-        <v>10.67961165048544</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>9310</v>
@@ -9846,7 +9868,7 @@
         <v>5025</v>
       </c>
       <c r="K184" t="n">
-        <v>8.571428571428571</v>
+        <v>26.02739726027397</v>
       </c>
       <c r="L184" t="n">
         <v>9309</v>
@@ -9897,7 +9919,7 @@
         <v>5070</v>
       </c>
       <c r="K185" t="n">
-        <v>0</v>
+        <v>-22.03389830508474</v>
       </c>
       <c r="L185" t="n">
         <v>9314</v>
@@ -9948,7 +9970,7 @@
         <v>5095</v>
       </c>
       <c r="K186" t="n">
-        <v>-4.201680672268908</v>
+        <v>-28.125</v>
       </c>
       <c r="L186" t="n">
         <v>9305</v>
@@ -9999,7 +10021,7 @@
         <v>5150</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>7.936507936507936</v>
       </c>
       <c r="L187" t="n">
         <v>9301.5</v>
@@ -10050,7 +10072,7 @@
         <v>5155</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>-18.36734693877551</v>
       </c>
       <c r="L188" t="n">
         <v>9304.5</v>
@@ -10101,7 +10123,7 @@
         <v>5205</v>
       </c>
       <c r="K189" t="n">
-        <v>-7.462686567164178</v>
+        <v>-32.20338983050847</v>
       </c>
       <c r="L189" t="n">
         <v>9295</v>
@@ -10152,7 +10174,7 @@
         <v>5205</v>
       </c>
       <c r="K190" t="n">
-        <v>-7.462686567164178</v>
+        <v>-32.20338983050847</v>
       </c>
       <c r="L190" t="n">
         <v>9285.5</v>
@@ -10203,7 +10225,7 @@
         <v>5255</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L191" t="n">
         <v>9281</v>
@@ -10254,7 +10276,7 @@
         <v>5305</v>
       </c>
       <c r="K192" t="n">
-        <v>-6.493506493506493</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L192" t="n">
         <v>9278</v>
@@ -10305,7 +10327,7 @@
         <v>5305</v>
       </c>
       <c r="K193" t="n">
-        <v>-9.333333333333334</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L193" t="n">
         <v>9271</v>
@@ -10356,7 +10378,7 @@
         <v>5345</v>
       </c>
       <c r="K194" t="n">
-        <v>-3.79746835443038</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L194" t="n">
         <v>9269</v>
@@ -10407,7 +10429,7 @@
         <v>5345</v>
       </c>
       <c r="K195" t="n">
-        <v>10.94890510948905</v>
+        <v>20</v>
       </c>
       <c r="L195" t="n">
         <v>9271.5</v>
@@ -10458,7 +10480,7 @@
         <v>5345</v>
       </c>
       <c r="K196" t="n">
-        <v>-7.017543859649122</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L196" t="n">
         <v>9276.5</v>
@@ -10509,7 +10531,7 @@
         <v>5345</v>
       </c>
       <c r="K197" t="n">
-        <v>-7.017543859649122</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L197" t="n">
         <v>9276</v>
@@ -10560,7 +10582,7 @@
         <v>5355</v>
       </c>
       <c r="K198" t="n">
-        <v>5.769230769230769</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L198" t="n">
         <v>9276</v>
@@ -10611,7 +10633,7 @@
         <v>5355</v>
       </c>
       <c r="K199" t="n">
-        <v>-10.1123595505618</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L199" t="n">
         <v>9281</v>

--- a/BackTest/2019-10-14 BackTest BTG.xlsx
+++ b/BackTest/2019-10-14 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S199"/>
+  <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J7" t="n">
-        <v>105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-85</v>
-      </c>
-      <c r="J8" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-80</v>
-      </c>
-      <c r="J9" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J10" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J11" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>9268</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-85</v>
-      </c>
-      <c r="J12" t="n">
-        <v>255</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-47.82608695652174</v>
-      </c>
-      <c r="L12" t="n">
-        <v>9259.5</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J13" t="n">
-        <v>270</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-51.02040816326531</v>
-      </c>
-      <c r="L13" t="n">
-        <v>9247</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-140</v>
-      </c>
-      <c r="J14" t="n">
-        <v>310</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-57.89473684210527</v>
-      </c>
-      <c r="L14" t="n">
-        <v>9230.5</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>440</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-8.433734939759036</v>
-      </c>
-      <c r="L15" t="n">
-        <v>9227</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-155</v>
-      </c>
-      <c r="J16" t="n">
-        <v>585</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-20.83333333333334</v>
-      </c>
-      <c r="L16" t="n">
-        <v>9209</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-75</v>
-      </c>
-      <c r="J17" t="n">
-        <v>665</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.886792452830189</v>
-      </c>
-      <c r="L17" t="n">
-        <v>9207</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,27 +1011,21 @@
         <v>9197.333333333334</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>670</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>9207.5</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>9135</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,27 +1052,21 @@
         <v>9198.333333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>680</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-13.4020618556701</v>
-      </c>
-      <c r="L19" t="n">
-        <v>9206.5</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>9195</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,27 +1093,21 @@
         <v>9198.5</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>705</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-7.84313725490196</v>
-      </c>
-      <c r="L20" t="n">
-        <v>9202.5</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>9215</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,29 +1134,21 @@
         <v>9200</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>710</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.296703296703297</v>
-      </c>
-      <c r="L21" t="n">
-        <v>9198</v>
+        <v>9210</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>9233</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,29 +1175,21 @@
         <v>9199.833333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>735</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.075268817204301</v>
-      </c>
-      <c r="L22" t="n">
-        <v>9197</v>
+        <v>9135</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>9228.25</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1430,29 +1216,21 @@
         <v>9200.333333333334</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>-85</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>745</v>
-      </c>
-      <c r="K23" t="n">
-        <v>12.64367816091954</v>
-      </c>
-      <c r="L23" t="n">
-        <v>9198.5</v>
+        <v>9200</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>9222.75</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,29 +1257,21 @@
         <v>9200.916666666666</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>750</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-22.58064516129032</v>
-      </c>
-      <c r="L24" t="n">
-        <v>9204.5</v>
+        <v>9205</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>9217.5</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,29 +1298,21 @@
         <v>9201.416666666666</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-85</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>755</v>
-      </c>
-      <c r="K25" t="n">
-        <v>41.17647058823529</v>
-      </c>
-      <c r="L25" t="n">
-        <v>9197</v>
+        <v>9200</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>9212</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,29 +1339,21 @@
         <v>9201.916666666666</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-85</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>755</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L26" t="n">
-        <v>9204</v>
+        <v>9200</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>9206.5</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,29 +1380,21 @@
         <v>9202.416666666666</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>-85</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>755</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L27" t="n">
-        <v>9203</v>
+        <v>9200</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>9205</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,29 +1421,21 @@
         <v>9202.916666666666</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>-85</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>755</v>
-      </c>
-      <c r="K28" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L28" t="n">
-        <v>9202.5</v>
+        <v>9200</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>9205</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,29 +1462,21 @@
         <v>9203.416666666666</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-85</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>755</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L29" t="n">
-        <v>9203</v>
+        <v>9200</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>9204.75</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1773,29 +1503,21 @@
         <v>9203.916666666666</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>760</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L30" t="n">
-        <v>9200.5</v>
+        <v>9195</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>9201.5</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,31 +1544,21 @@
         <v>9205.083333333334</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>800</v>
-      </c>
-      <c r="K31" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L31" t="n">
-        <v>9202.5</v>
+        <v>9195</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>9200.25</v>
-      </c>
-      <c r="N31" t="n">
-        <v>9222.833333333334</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,31 +1585,21 @@
         <v>9206.666666666666</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>805</v>
-      </c>
-      <c r="K32" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L32" t="n">
-        <v>9207.5</v>
+        <v>9240</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>9202.25</v>
-      </c>
-      <c r="N32" t="n">
-        <v>9221.333333333334</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,31 +1626,21 @@
         <v>9208.333333333334</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>810</v>
-      </c>
-      <c r="K33" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L33" t="n">
-        <v>9212</v>
+        <v>9245</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>9205.25</v>
-      </c>
-      <c r="N33" t="n">
-        <v>9219.166666666666</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1975,31 +1667,21 @@
         <v>9210.583333333334</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>845</v>
-      </c>
-      <c r="K34" t="n">
-        <v>88.88888888888889</v>
-      </c>
-      <c r="L34" t="n">
-        <v>9219.5</v>
+        <v>9245</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>9212</v>
-      </c>
-      <c r="N34" t="n">
-        <v>9218.166666666666</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1711,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J35" t="n">
-        <v>855</v>
-      </c>
-      <c r="K35" t="n">
-        <v>70</v>
-      </c>
-      <c r="L35" t="n">
-        <v>9226.5</v>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>9211.75</v>
-      </c>
-      <c r="N35" t="n">
-        <v>9216.833333333334</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1750,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J36" t="n">
-        <v>855</v>
-      </c>
-      <c r="K36" t="n">
-        <v>70</v>
-      </c>
-      <c r="L36" t="n">
-        <v>9233.5</v>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>9218.75</v>
-      </c>
-      <c r="N36" t="n">
-        <v>9215.5</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1789,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>855</v>
-      </c>
-      <c r="K37" t="n">
-        <v>70</v>
-      </c>
-      <c r="L37" t="n">
-        <v>9240.5</v>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>9221.75</v>
-      </c>
-      <c r="N37" t="n">
-        <v>9216.833333333334</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1828,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-80</v>
-      </c>
-      <c r="J38" t="n">
-        <v>920</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="L38" t="n">
-        <v>9241</v>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>9221.75</v>
-      </c>
-      <c r="N38" t="n">
-        <v>9217</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1867,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J39" t="n">
-        <v>985</v>
-      </c>
-      <c r="K39" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L39" t="n">
-        <v>9248</v>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>9225.5</v>
-      </c>
-      <c r="N39" t="n">
-        <v>9219.166666666666</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1906,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J40" t="n">
-        <v>985</v>
-      </c>
-      <c r="K40" t="n">
-        <v>18.91891891891892</v>
-      </c>
-      <c r="L40" t="n">
-        <v>9255.5</v>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>9228</v>
-      </c>
-      <c r="N40" t="n">
-        <v>9219.5</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1945,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J41" t="n">
-        <v>985</v>
-      </c>
-      <c r="K41" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L41" t="n">
-        <v>9259</v>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>9230.75</v>
-      </c>
-      <c r="N41" t="n">
-        <v>9219.833333333334</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1984,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-80</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1050</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L42" t="n">
-        <v>9255.5</v>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>9231.5</v>
-      </c>
-      <c r="N42" t="n">
-        <v>9220</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +2023,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1135</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.448275862068965</v>
-      </c>
-      <c r="L43" t="n">
-        <v>9260</v>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>9236</v>
-      </c>
-      <c r="N43" t="n">
-        <v>9223.5</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2062,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-85</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1225</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-18.91891891891892</v>
-      </c>
-      <c r="L44" t="n">
-        <v>9252</v>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>9235.75</v>
-      </c>
-      <c r="N44" t="n">
-        <v>9225.333333333334</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2101,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1315</v>
-      </c>
-      <c r="K45" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="L45" t="n">
-        <v>9254</v>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>9240.25</v>
-      </c>
-      <c r="N45" t="n">
-        <v>9225.833333333334</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2140,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1315</v>
-      </c>
-      <c r="K46" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="L46" t="n">
-        <v>9256</v>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>9244.75</v>
-      </c>
-      <c r="N46" t="n">
-        <v>9231.166666666666</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2179,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-95</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1415</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-3.03030303030303</v>
-      </c>
-      <c r="L47" t="n">
-        <v>9248</v>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>9244.25</v>
-      </c>
-      <c r="N47" t="n">
-        <v>9230.5</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2218,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-95</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1415</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-18.6046511627907</v>
-      </c>
-      <c r="L48" t="n">
-        <v>9246.5</v>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>9243.75</v>
-      </c>
-      <c r="N48" t="n">
-        <v>9230</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2257,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1495</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>9246.5</v>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>9247.25</v>
-      </c>
-      <c r="N49" t="n">
-        <v>9232.5</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2296,16 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>10</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1520</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4.672897196261682</v>
-      </c>
-      <c r="L50" t="n">
-        <v>9249</v>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>9252.25</v>
-      </c>
-      <c r="N50" t="n">
-        <v>9235</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2335,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1525</v>
-      </c>
-      <c r="K51" t="n">
-        <v>17.89473684210526</v>
-      </c>
-      <c r="L51" t="n">
-        <v>9251</v>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>9255</v>
-      </c>
-      <c r="N51" t="n">
-        <v>9237.5</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2374,16 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1525</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>9259.5</v>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>9257.5</v>
-      </c>
-      <c r="N52" t="n">
-        <v>9240.833333333334</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2413,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-95</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1625</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="L53" t="n">
-        <v>9249.5</v>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>9254.75</v>
-      </c>
-      <c r="N53" t="n">
-        <v>9240.5</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2452,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-95</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1625</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-32.25806451612903</v>
-      </c>
-      <c r="L54" t="n">
-        <v>9248.5</v>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>9250.25</v>
-      </c>
-      <c r="N54" t="n">
-        <v>9240</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2491,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1710</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-3.79746835443038</v>
-      </c>
-      <c r="L55" t="n">
-        <v>9247</v>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>9250.5</v>
-      </c>
-      <c r="N55" t="n">
-        <v>9242.5</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2530,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1715</v>
-      </c>
-      <c r="K56" t="n">
-        <v>26.66666666666667</v>
-      </c>
-      <c r="L56" t="n">
-        <v>9245</v>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>9250.5</v>
-      </c>
-      <c r="N56" t="n">
-        <v>9244.833333333334</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2569,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1720</v>
-      </c>
-      <c r="K57" t="n">
-        <v>27.86885245901639</v>
-      </c>
-      <c r="L57" t="n">
-        <v>9253.5</v>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>9250.75</v>
-      </c>
-      <c r="N57" t="n">
-        <v>9247.333333333334</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2608,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1725</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>9261.5</v>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>9254</v>
-      </c>
-      <c r="N58" t="n">
-        <v>9249.666666666666</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2647,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1725</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-12.19512195121951</v>
-      </c>
-      <c r="L59" t="n">
-        <v>9261.5</v>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>9254</v>
-      </c>
-      <c r="N59" t="n">
-        <v>9252</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2686,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1730</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-7.317073170731707</v>
-      </c>
-      <c r="L60" t="n">
-        <v>9259.5</v>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>9254.25</v>
-      </c>
-      <c r="N60" t="n">
-        <v>9254.666666666666</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2725,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1730</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-7.317073170731707</v>
-      </c>
-      <c r="L61" t="n">
-        <v>9258</v>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>9254.5</v>
-      </c>
-      <c r="N61" t="n">
-        <v>9256</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2764,16 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1730</v>
-      </c>
-      <c r="K62" t="n">
-        <v>80.95238095238095</v>
-      </c>
-      <c r="L62" t="n">
-        <v>9256.5</v>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>9258</v>
-      </c>
-      <c r="N62" t="n">
-        <v>9257.166666666666</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2803,16 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-95</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1815</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>9256.5</v>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>9253</v>
-      </c>
-      <c r="N63" t="n">
-        <v>9255.333333333334</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3505,37 +2839,19 @@
         <v>9235.5</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-80</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1830</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-58.33333333333334</v>
-      </c>
-      <c r="L64" t="n">
-        <v>9258</v>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>9253.25</v>
-      </c>
-      <c r="N64" t="n">
-        <v>9252.833333333334</v>
-      </c>
-      <c r="O64" t="n">
-        <v>9190</v>
-      </c>
-      <c r="P64" t="n">
-        <v>9510</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>9190</v>
-      </c>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,41 +2878,19 @@
         <v>9233.166666666666</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-115</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1865</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L65" t="n">
-        <v>9247.5</v>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>9247.25</v>
-      </c>
-      <c r="N65" t="n">
-        <v>9249.5</v>
-      </c>
-      <c r="O65" t="n">
-        <v>9205</v>
-      </c>
-      <c r="P65" t="n">
-        <v>9525</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>9190</v>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3623,41 +2917,19 @@
         <v>9232.083333333334</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1940</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-13.63636363636363</v>
-      </c>
-      <c r="L66" t="n">
-        <v>9245</v>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>9245</v>
-      </c>
-      <c r="N66" t="n">
-        <v>9248.666666666666</v>
-      </c>
-      <c r="O66" t="n">
-        <v>9170</v>
-      </c>
-      <c r="P66" t="n">
-        <v>9490</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>9190</v>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,41 +2956,19 @@
         <v>9232.583333333334</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1955</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L67" t="n">
-        <v>9243.5</v>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>9248.5</v>
-      </c>
-      <c r="N67" t="n">
-        <v>9248.333333333334</v>
-      </c>
-      <c r="O67" t="n">
-        <v>9245</v>
-      </c>
-      <c r="P67" t="n">
-        <v>9565</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>9190</v>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3745,41 +2995,19 @@
         <v>9231.583333333334</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-145</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2075</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-37.14285714285715</v>
-      </c>
-      <c r="L68" t="n">
-        <v>9230.5</v>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>9246</v>
-      </c>
-      <c r="N68" t="n">
-        <v>9246.166666666666</v>
-      </c>
-      <c r="O68" t="n">
-        <v>9260</v>
-      </c>
-      <c r="P68" t="n">
-        <v>9580</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>9190</v>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3806,39 +3034,19 @@
         <v>9230.583333333334</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-140</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2080</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-37.14285714285715</v>
-      </c>
-      <c r="L69" t="n">
-        <v>9218</v>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>9239.75</v>
-      </c>
-      <c r="N69" t="n">
-        <v>9242</v>
-      </c>
-      <c r="O69" t="n">
-        <v>9140</v>
-      </c>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="n">
-        <v>9190</v>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3868,40 +3076,18 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2150</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L70" t="n">
-        <v>9212</v>
+        <v>9145</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>9235.75</v>
-      </c>
-      <c r="N70" t="n">
-        <v>9240.166666666666</v>
-      </c>
-      <c r="O70" t="n">
-        <v>9145</v>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q70" t="n">
-        <v>9190</v>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,40 +3117,18 @@
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>-145</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2225</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L71" t="n">
-        <v>9198.5</v>
+        <v>9150</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>9228.25</v>
-      </c>
-      <c r="N71" t="n">
-        <v>9235.833333333334</v>
-      </c>
-      <c r="O71" t="n">
-        <v>9215</v>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q71" t="n">
-        <v>9190</v>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3994,40 +3158,18 @@
         <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2295</v>
-      </c>
-      <c r="K72" t="n">
-        <v>4.166666666666666</v>
-      </c>
-      <c r="L72" t="n">
-        <v>9192</v>
+        <v>9140</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>9224.25</v>
-      </c>
-      <c r="N72" t="n">
-        <v>9236</v>
-      </c>
-      <c r="O72" t="n">
-        <v>9140</v>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q72" t="n">
-        <v>9190</v>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4057,40 +3199,18 @@
         <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2335</v>
-      </c>
-      <c r="K73" t="n">
-        <v>8.91089108910891</v>
-      </c>
-      <c r="L73" t="n">
-        <v>9198</v>
+        <v>9200</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>9227.25</v>
-      </c>
-      <c r="N73" t="n">
-        <v>9234.666666666666</v>
-      </c>
-      <c r="O73" t="n">
-        <v>9210</v>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q73" t="n">
-        <v>9190</v>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,40 +3240,18 @@
         <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2360</v>
-      </c>
-      <c r="K74" t="n">
-        <v>21.21212121212121</v>
-      </c>
-      <c r="L74" t="n">
-        <v>9205</v>
+        <v>9245</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>9231.5</v>
-      </c>
-      <c r="N74" t="n">
-        <v>9237.166666666666</v>
-      </c>
-      <c r="O74" t="n">
-        <v>9250</v>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q74" t="n">
-        <v>9190</v>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4183,40 +3281,18 @@
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2365</v>
-      </c>
-      <c r="K75" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L75" t="n">
-        <v>9215</v>
+        <v>9265</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>9231.25</v>
-      </c>
-      <c r="N75" t="n">
-        <v>9236.5</v>
-      </c>
-      <c r="O75" t="n">
-        <v>9275</v>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q75" t="n">
-        <v>9190</v>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4243,43 +3319,19 @@
         <v>9233.583333333334</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2370</v>
-      </c>
-      <c r="K76" t="n">
-        <v>3.614457831325301</v>
-      </c>
-      <c r="L76" t="n">
-        <v>9218</v>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>9231.5</v>
-      </c>
-      <c r="N76" t="n">
-        <v>9236</v>
-      </c>
-      <c r="O76" t="n">
-        <v>9270</v>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q76" t="n">
-        <v>9190</v>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4306,43 +3358,19 @@
         <v>9233.666666666666</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J77" t="n">
-        <v>2430</v>
-      </c>
-      <c r="K77" t="n">
-        <v>21.12676056338028</v>
-      </c>
-      <c r="L77" t="n">
-        <v>9213.5</v>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>9228.5</v>
-      </c>
-      <c r="N77" t="n">
-        <v>9236.833333333334</v>
-      </c>
-      <c r="O77" t="n">
-        <v>9275</v>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q77" t="n">
-        <v>9190</v>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,38 +3400,16 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2485</v>
-      </c>
-      <c r="K78" t="n">
-        <v>30.8641975308642</v>
-      </c>
-      <c r="L78" t="n">
-        <v>9226.5</v>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>9228.5</v>
-      </c>
-      <c r="N78" t="n">
-        <v>9239.5</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q78" t="n">
-        <v>9190</v>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4430,39 +3436,19 @@
         <v>9236.083333333334</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J79" t="n">
-        <v>2490</v>
-      </c>
-      <c r="K79" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L79" t="n">
-        <v>9239.5</v>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>9228.75</v>
-      </c>
-      <c r="N79" t="n">
-        <v>9239.666666666666</v>
-      </c>
-      <c r="O79" t="n">
-        <v>9270</v>
-      </c>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="n">
-        <v>9190</v>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4492,38 +3478,16 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2495</v>
-      </c>
-      <c r="K80" t="n">
-        <v>51.85185185185185</v>
-      </c>
-      <c r="L80" t="n">
-        <v>9246</v>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>9229</v>
-      </c>
-      <c r="N80" t="n">
-        <v>9239.166666666666</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q80" t="n">
-        <v>9190</v>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4553,38 +3517,16 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K81" t="n">
-        <v>31.70731707317073</v>
-      </c>
-      <c r="L81" t="n">
-        <v>9259.5</v>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>9229</v>
-      </c>
-      <c r="N81" t="n">
-        <v>9238.666666666666</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q81" t="n">
-        <v>9190</v>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4614,39 +3556,17 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K82" t="n">
-        <v>15.15151515151515</v>
-      </c>
-      <c r="L82" t="n">
-        <v>9266</v>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>9229</v>
-      </c>
-      <c r="N82" t="n">
-        <v>9238.166666666666</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q82" t="n">
-        <v>9190</v>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>이탈 완료</t>
-        </is>
-      </c>
-      <c r="S82" t="n">
-        <v>1.004249183895539</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -4675,34 +3595,16 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>9268.5</v>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>9233.25</v>
-      </c>
-      <c r="N83" t="n">
-        <v>9241</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q83" t="n">
-        <v>9270</v>
-      </c>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,34 +3634,16 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K84" t="n">
-        <v>3.703703703703703</v>
-      </c>
-      <c r="L84" t="n">
-        <v>9268.5</v>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>9236.75</v>
-      </c>
-      <c r="N84" t="n">
-        <v>9243.833333333334</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q84" t="n">
-        <v>9270</v>
-      </c>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4789,34 +3673,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2505</v>
-      </c>
-      <c r="K85" t="n">
-        <v>3.703703703703703</v>
-      </c>
-      <c r="L85" t="n">
-        <v>9269.5</v>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>9242.25</v>
-      </c>
-      <c r="N85" t="n">
-        <v>9244</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q85" t="n">
-        <v>9270</v>
-      </c>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,34 +3712,16 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2505</v>
-      </c>
-      <c r="K86" t="n">
-        <v>86.66666666666667</v>
-      </c>
-      <c r="L86" t="n">
-        <v>9270</v>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>9244</v>
-      </c>
-      <c r="N86" t="n">
-        <v>9244.333333333334</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q86" t="n">
-        <v>9270</v>
-      </c>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4903,34 +3751,16 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2505</v>
-      </c>
-      <c r="K87" t="n">
-        <v>50</v>
-      </c>
-      <c r="L87" t="n">
-        <v>9276.5</v>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>9245</v>
-      </c>
-      <c r="N87" t="n">
-        <v>9244.5</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q87" t="n">
-        <v>9270</v>
-      </c>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,32 +3792,14 @@
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K88" t="n">
-        <v>50</v>
-      </c>
-      <c r="L88" t="n">
-        <v>9278</v>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>9252.25</v>
-      </c>
-      <c r="N88" t="n">
-        <v>9245</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q88" t="n">
-        <v>9270</v>
-      </c>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5019,26 +3831,14 @@
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K89" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L89" t="n">
-        <v>9279</v>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>9259.25</v>
-      </c>
-      <c r="N89" t="n">
-        <v>9245.5</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5070,26 +3870,14 @@
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K90" t="n">
-        <v>100</v>
-      </c>
-      <c r="L90" t="n">
-        <v>9279.5</v>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>9262.75</v>
-      </c>
-      <c r="N90" t="n">
-        <v>9245.833333333334</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,28 +3907,16 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J91" t="n">
-        <v>2515</v>
-      </c>
-      <c r="K91" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L91" t="n">
-        <v>9280</v>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>9269.75</v>
-      </c>
-      <c r="N91" t="n">
-        <v>9246</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5170,28 +3946,16 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-95</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2605</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-80.95238095238095</v>
-      </c>
-      <c r="L92" t="n">
-        <v>9271.5</v>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>9268.75</v>
-      </c>
-      <c r="N92" t="n">
-        <v>9243.166666666666</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5221,28 +3985,16 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2630</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-46.15384615384615</v>
-      </c>
-      <c r="L93" t="n">
-        <v>9265.5</v>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>9267</v>
-      </c>
-      <c r="N93" t="n">
-        <v>9244</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5272,28 +4024,16 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2670</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-15.15151515151515</v>
-      </c>
-      <c r="L94" t="n">
-        <v>9263.5</v>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>9266</v>
-      </c>
-      <c r="N94" t="n">
-        <v>9245.666666666666</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5323,28 +4063,16 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-65</v>
-      </c>
-      <c r="J95" t="n">
-        <v>2705</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-30</v>
-      </c>
-      <c r="L95" t="n">
-        <v>9257.5</v>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>9263.5</v>
-      </c>
-      <c r="N95" t="n">
-        <v>9247.333333333334</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5374,28 +4102,16 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-65</v>
-      </c>
-      <c r="J96" t="n">
-        <v>2705</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-30</v>
-      </c>
-      <c r="L96" t="n">
-        <v>9251.5</v>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>9260.75</v>
-      </c>
-      <c r="N96" t="n">
-        <v>9246.5</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5425,28 +4141,16 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2735</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-15.55555555555556</v>
-      </c>
-      <c r="L97" t="n">
-        <v>9248.5</v>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>9262.5</v>
-      </c>
-      <c r="N97" t="n">
-        <v>9246.166666666666</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5476,28 +4180,16 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-65</v>
-      </c>
-      <c r="J98" t="n">
-        <v>2765</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-25.49019607843137</v>
-      </c>
-      <c r="L98" t="n">
-        <v>9242</v>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>9260</v>
-      </c>
-      <c r="N98" t="n">
-        <v>9248.833333333334</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5527,28 +4219,16 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J99" t="n">
-        <v>2790</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L99" t="n">
-        <v>9238</v>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>9258.5</v>
-      </c>
-      <c r="N99" t="n">
-        <v>9252.166666666666</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5578,28 +4258,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2825</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>9237.5</v>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>9258.5</v>
-      </c>
-      <c r="N100" t="n">
-        <v>9254.333333333334</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5629,28 +4297,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J101" t="n">
-        <v>2850</v>
-      </c>
-      <c r="K101" t="n">
-        <v>26.53061224489796</v>
-      </c>
-      <c r="L101" t="n">
-        <v>9235</v>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>9257.5</v>
-      </c>
-      <c r="N101" t="n">
-        <v>9258.166666666666</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5680,28 +4336,16 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J102" t="n">
-        <v>2860</v>
-      </c>
-      <c r="K102" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="L102" t="n">
-        <v>9240.5</v>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>9256</v>
-      </c>
-      <c r="N102" t="n">
-        <v>9259.333333333334</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5731,28 +4375,16 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J103" t="n">
-        <v>2860</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L103" t="n">
-        <v>9243.5</v>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>9254.5</v>
-      </c>
-      <c r="N103" t="n">
-        <v>9259.166666666666</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5782,28 +4414,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J104" t="n">
-        <v>2895</v>
-      </c>
-      <c r="K104" t="n">
-        <v>31.57894736842105</v>
-      </c>
-      <c r="L104" t="n">
-        <v>9246</v>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>9254.75</v>
-      </c>
-      <c r="N104" t="n">
-        <v>9259.333333333334</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5833,28 +4453,16 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J105" t="n">
-        <v>2905</v>
-      </c>
-      <c r="K105" t="n">
-        <v>25</v>
-      </c>
-      <c r="L105" t="n">
-        <v>9251</v>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>9254.25</v>
-      </c>
-      <c r="N105" t="n">
-        <v>9259.333333333334</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5884,28 +4492,16 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J106" t="n">
-        <v>2915</v>
-      </c>
-      <c r="K106" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L106" t="n">
-        <v>9257</v>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>9254.25</v>
-      </c>
-      <c r="N106" t="n">
-        <v>9259.5</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5935,28 +4531,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J107" t="n">
-        <v>2940</v>
-      </c>
-      <c r="K107" t="n">
-        <v>20</v>
-      </c>
-      <c r="L107" t="n">
-        <v>9257.5</v>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>9253</v>
-      </c>
-      <c r="N107" t="n">
-        <v>9260.833333333334</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5986,28 +4570,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J108" t="n">
-        <v>2960</v>
-      </c>
-      <c r="K108" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L108" t="n">
-        <v>9263</v>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>9252.5</v>
-      </c>
-      <c r="N108" t="n">
-        <v>9261</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6037,28 +4609,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J109" t="n">
-        <v>2975</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-13.33333333333333</v>
-      </c>
-      <c r="L109" t="n">
-        <v>9264.5</v>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>9251.25</v>
-      </c>
-      <c r="N109" t="n">
-        <v>9260.5</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6088,28 +4648,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J110" t="n">
-        <v>2975</v>
-      </c>
-      <c r="K110" t="n">
-        <v>4</v>
-      </c>
-      <c r="L110" t="n">
-        <v>9262.5</v>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>9250</v>
-      </c>
-      <c r="N110" t="n">
-        <v>9259.833333333334</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6139,28 +4687,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J111" t="n">
-        <v>2995</v>
-      </c>
-      <c r="K111" t="n">
-        <v>25.92592592592592</v>
-      </c>
-      <c r="L111" t="n">
-        <v>9265</v>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>9250</v>
-      </c>
-      <c r="N111" t="n">
-        <v>9260</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6190,28 +4726,16 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J112" t="n">
-        <v>3010</v>
-      </c>
-      <c r="K112" t="n">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="L112" t="n">
-        <v>9267</v>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>9253.75</v>
-      </c>
-      <c r="N112" t="n">
-        <v>9259.666666666666</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6241,28 +4765,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J113" t="n">
-        <v>3020</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L113" t="n">
-        <v>9268</v>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>9255.75</v>
-      </c>
-      <c r="N113" t="n">
-        <v>9259</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6292,28 +4804,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>-85</v>
-      </c>
-      <c r="J114" t="n">
-        <v>3075</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-41.17647058823529</v>
-      </c>
-      <c r="L114" t="n">
-        <v>9260</v>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>9253</v>
-      </c>
-      <c r="N114" t="n">
-        <v>9256.5</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6343,28 +4843,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J115" t="n">
-        <v>3105</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-26.31578947368421</v>
-      </c>
-      <c r="L115" t="n">
-        <v>9256</v>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>9253.5</v>
-      </c>
-      <c r="N115" t="n">
-        <v>9254.833333333334</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6394,28 +4882,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>-45</v>
-      </c>
-      <c r="J116" t="n">
-        <v>3115</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-8.571428571428571</v>
-      </c>
-      <c r="L116" t="n">
-        <v>9252</v>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>9254.5</v>
-      </c>
-      <c r="N116" t="n">
-        <v>9253.5</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6445,28 +4921,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J117" t="n">
-        <v>3145</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-2.702702702702703</v>
-      </c>
-      <c r="L117" t="n">
-        <v>9253.5</v>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>9255.5</v>
-      </c>
-      <c r="N117" t="n">
-        <v>9253.166666666666</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6496,28 +4960,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J118" t="n">
-        <v>3145</v>
-      </c>
-      <c r="K118" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L118" t="n">
-        <v>9253</v>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>9258</v>
-      </c>
-      <c r="N118" t="n">
-        <v>9252.666666666666</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6547,28 +4999,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J119" t="n">
-        <v>3150</v>
-      </c>
-      <c r="K119" t="n">
-        <v>8.571428571428571</v>
-      </c>
-      <c r="L119" t="n">
-        <v>9254.5</v>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>9259.5</v>
-      </c>
-      <c r="N119" t="n">
-        <v>9252.333333333334</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6598,28 +5038,16 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>-65</v>
-      </c>
-      <c r="J120" t="n">
-        <v>3205</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L120" t="n">
-        <v>9250.5</v>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>9256.5</v>
-      </c>
-      <c r="N120" t="n">
-        <v>9250.166666666666</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6649,28 +5077,16 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>-75</v>
-      </c>
-      <c r="J121" t="n">
-        <v>3215</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-26.82926829268293</v>
-      </c>
-      <c r="L121" t="n">
-        <v>9243.5</v>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>9254.25</v>
-      </c>
-      <c r="N121" t="n">
-        <v>9247.833333333334</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6702,26 +5118,14 @@
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>3290</v>
-      </c>
-      <c r="K122" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L122" t="n">
-        <v>9245.5</v>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>9256.25</v>
-      </c>
-      <c r="N122" t="n">
-        <v>9251</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6753,26 +5157,14 @@
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>3290</v>
-      </c>
-      <c r="K123" t="n">
-        <v>39.53488372093023</v>
-      </c>
-      <c r="L123" t="n">
-        <v>9248.5</v>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>9258.25</v>
-      </c>
-      <c r="N123" t="n">
-        <v>9253.333333333334</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6802,28 +5194,16 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>10</v>
-      </c>
-      <c r="J124" t="n">
-        <v>3300</v>
-      </c>
-      <c r="K124" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L124" t="n">
-        <v>9258</v>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>9259</v>
-      </c>
-      <c r="N124" t="n">
-        <v>9254.666666666666</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,28 +5233,16 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>10</v>
-      </c>
-      <c r="J125" t="n">
-        <v>3300</v>
-      </c>
-      <c r="K125" t="n">
-        <v>29.72972972972973</v>
-      </c>
-      <c r="L125" t="n">
-        <v>9264.5</v>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>9260.25</v>
-      </c>
-      <c r="N125" t="n">
-        <v>9257.166666666666</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6904,28 +5272,16 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>10</v>
-      </c>
-      <c r="J126" t="n">
-        <v>3300</v>
-      </c>
-      <c r="K126" t="n">
-        <v>16.12903225806452</v>
-      </c>
-      <c r="L126" t="n">
-        <v>9270</v>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>9261</v>
-      </c>
-      <c r="N126" t="n">
-        <v>9259.666666666666</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6955,28 +5311,16 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>15</v>
-      </c>
-      <c r="J127" t="n">
-        <v>3305</v>
-      </c>
-      <c r="K127" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="L127" t="n">
-        <v>9273</v>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>9263.25</v>
-      </c>
-      <c r="N127" t="n">
-        <v>9261.333333333334</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7006,28 +5350,16 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>15</v>
-      </c>
-      <c r="J128" t="n">
-        <v>3305</v>
-      </c>
-      <c r="K128" t="n">
-        <v>16.12903225806452</v>
-      </c>
-      <c r="L128" t="n">
-        <v>9276</v>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>9264.5</v>
-      </c>
-      <c r="N128" t="n">
-        <v>9264</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7057,28 +5389,16 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>5</v>
-      </c>
-      <c r="J129" t="n">
-        <v>3315</v>
-      </c>
-      <c r="K129" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L129" t="n">
-        <v>9277.5</v>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>9266</v>
-      </c>
-      <c r="N129" t="n">
-        <v>9265.5</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7108,28 +5428,16 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>15</v>
-      </c>
-      <c r="J130" t="n">
-        <v>3325</v>
-      </c>
-      <c r="K130" t="n">
-        <v>81.81818181818183</v>
-      </c>
-      <c r="L130" t="n">
-        <v>9285.5</v>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>9268</v>
-      </c>
-      <c r="N130" t="n">
-        <v>9266.166666666666</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7159,28 +5467,16 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>5</v>
-      </c>
-      <c r="J131" t="n">
-        <v>3335</v>
-      </c>
-      <c r="K131" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L131" t="n">
-        <v>9293.5</v>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>9268.5</v>
-      </c>
-      <c r="N131" t="n">
-        <v>9267.333333333334</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7210,28 +5506,16 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>10</v>
-      </c>
-      <c r="J132" t="n">
-        <v>3340</v>
-      </c>
-      <c r="K132" t="n">
-        <v>20</v>
-      </c>
-      <c r="L132" t="n">
-        <v>9294.5</v>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>9270</v>
-      </c>
-      <c r="N132" t="n">
-        <v>9269</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7263,26 +5547,14 @@
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>3350</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L133" t="n">
-        <v>9294.5</v>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>9271.5</v>
-      </c>
-      <c r="N133" t="n">
-        <v>9270.333333333334</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7314,26 +5586,14 @@
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>3350</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L134" t="n">
-        <v>9293.5</v>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>9275.75</v>
-      </c>
-      <c r="N134" t="n">
-        <v>9270.5</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7363,28 +5623,16 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>-145</v>
-      </c>
-      <c r="J135" t="n">
-        <v>3495</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-79.48717948717949</v>
-      </c>
-      <c r="L135" t="n">
-        <v>9278</v>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>9271.25</v>
-      </c>
-      <c r="N135" t="n">
-        <v>9266.166666666666</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7414,28 +5662,16 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J136" t="n">
-        <v>3620</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L136" t="n">
-        <v>9275</v>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>9272.5</v>
-      </c>
-      <c r="N136" t="n">
-        <v>9265.666666666666</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7465,28 +5701,16 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>-145</v>
-      </c>
-      <c r="J137" t="n">
-        <v>3745</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-36.36363636363637</v>
-      </c>
-      <c r="L137" t="n">
-        <v>9259</v>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M137" t="n">
-        <v>9266</v>
-      </c>
-      <c r="N137" t="n">
-        <v>9261.833333333334</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7516,28 +5740,16 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J138" t="n">
-        <v>3865</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-5.454545454545454</v>
-      </c>
-      <c r="L138" t="n">
-        <v>9255</v>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M138" t="n">
-        <v>9265.5</v>
-      </c>
-      <c r="N138" t="n">
-        <v>9261.333333333334</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7567,28 +5779,16 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J139" t="n">
-        <v>3870</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-6.422018348623854</v>
-      </c>
-      <c r="L139" t="n">
-        <v>9252.5</v>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M139" t="n">
-        <v>9265</v>
-      </c>
-      <c r="N139" t="n">
-        <v>9261.5</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7618,28 +5818,16 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J140" t="n">
-        <v>3870</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-4.672897196261682</v>
-      </c>
-      <c r="L140" t="n">
-        <v>9249</v>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M140" t="n">
-        <v>9267.25</v>
-      </c>
-      <c r="N140" t="n">
-        <v>9261.666666666666</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7669,28 +5857,16 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J141" t="n">
-        <v>3880</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-7.407407407407407</v>
-      </c>
-      <c r="L141" t="n">
-        <v>9245.5</v>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M141" t="n">
-        <v>9269.5</v>
-      </c>
-      <c r="N141" t="n">
-        <v>9260.833333333334</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7720,28 +5896,16 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J142" t="n">
-        <v>3885</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-6.542056074766355</v>
-      </c>
-      <c r="L142" t="n">
-        <v>9241</v>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M142" t="n">
-        <v>9267.75</v>
-      </c>
-      <c r="N142" t="n">
-        <v>9260.333333333334</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7771,28 +5935,16 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J143" t="n">
-        <v>3890</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-5.555555555555555</v>
-      </c>
-      <c r="L143" t="n">
-        <v>9238</v>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M143" t="n">
-        <v>9266.25</v>
-      </c>
-      <c r="N143" t="n">
-        <v>9260.333333333334</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7822,28 +5974,16 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J144" t="n">
-        <v>3895</v>
-      </c>
-      <c r="K144" t="n">
-        <v>30</v>
-      </c>
-      <c r="L144" t="n">
-        <v>9235.5</v>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M144" t="n">
-        <v>9264.5</v>
-      </c>
-      <c r="N144" t="n">
-        <v>9262.333333333334</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7873,28 +6013,16 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J145" t="n">
-        <v>3900</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-3.571428571428571</v>
-      </c>
-      <c r="L145" t="n">
-        <v>9247</v>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M145" t="n">
-        <v>9262.5</v>
-      </c>
-      <c r="N145" t="n">
-        <v>9263.166666666666</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7924,28 +6052,16 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J146" t="n">
-        <v>3970</v>
-      </c>
-      <c r="K146" t="n">
-        <v>20</v>
-      </c>
-      <c r="L146" t="n">
-        <v>9239</v>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M146" t="n">
-        <v>9257</v>
-      </c>
-      <c r="N146" t="n">
-        <v>9261.333333333334</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7975,28 +6091,16 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J147" t="n">
-        <v>4035</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L147" t="n">
-        <v>9250</v>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M147" t="n">
-        <v>9254.5</v>
-      </c>
-      <c r="N147" t="n">
-        <v>9260.666666666666</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8026,28 +6130,16 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J148" t="n">
-        <v>4035</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L148" t="n">
-        <v>9249</v>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M148" t="n">
-        <v>9252</v>
-      </c>
-      <c r="N148" t="n">
-        <v>9260</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8077,28 +6169,16 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J149" t="n">
-        <v>4040</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L149" t="n">
-        <v>9248</v>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M149" t="n">
-        <v>9250.25</v>
-      </c>
-      <c r="N149" t="n">
-        <v>9259.333333333334</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8128,28 +6208,16 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J150" t="n">
-        <v>4045</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-3.03030303030303</v>
-      </c>
-      <c r="L150" t="n">
-        <v>9246.5</v>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M150" t="n">
-        <v>9247.75</v>
-      </c>
-      <c r="N150" t="n">
-        <v>9260.333333333334</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8179,28 +6247,16 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J151" t="n">
-        <v>4060</v>
-      </c>
-      <c r="K151" t="n">
-        <v>8.571428571428571</v>
-      </c>
-      <c r="L151" t="n">
-        <v>9247.5</v>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M151" t="n">
-        <v>9246.5</v>
-      </c>
-      <c r="N151" t="n">
-        <v>9262.166666666666</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8230,28 +6286,16 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J152" t="n">
-        <v>4060</v>
-      </c>
-      <c r="K152" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L152" t="n">
-        <v>9249</v>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M152" t="n">
-        <v>9245</v>
-      </c>
-      <c r="N152" t="n">
-        <v>9261.5</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8281,28 +6325,16 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J153" t="n">
-        <v>4060</v>
-      </c>
-      <c r="K153" t="n">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="L153" t="n">
-        <v>9250</v>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M153" t="n">
-        <v>9244</v>
-      </c>
-      <c r="N153" t="n">
-        <v>9260.833333333334</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8332,28 +6364,16 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>-90</v>
-      </c>
-      <c r="J154" t="n">
-        <v>4130</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-26.08695652173913</v>
-      </c>
-      <c r="L154" t="n">
-        <v>9243.5</v>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M154" t="n">
-        <v>9239.5</v>
-      </c>
-      <c r="N154" t="n">
-        <v>9257.5</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8383,28 +6403,16 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J155" t="n">
-        <v>4200</v>
-      </c>
-      <c r="K155" t="n">
-        <v>34.78260869565217</v>
-      </c>
-      <c r="L155" t="n">
-        <v>9244.5</v>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M155" t="n">
-        <v>9245.75</v>
-      </c>
-      <c r="N155" t="n">
-        <v>9256.5</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8434,28 +6442,16 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>-90</v>
-      </c>
-      <c r="J156" t="n">
-        <v>4270</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-23.40425531914894</v>
-      </c>
-      <c r="L156" t="n">
-        <v>9245.5</v>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M156" t="n">
-        <v>9242.25</v>
-      </c>
-      <c r="N156" t="n">
-        <v>9253.166666666666</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8485,28 +6481,16 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J157" t="n">
-        <v>4340</v>
-      </c>
-      <c r="K157" t="n">
-        <v>4.918032786885246</v>
-      </c>
-      <c r="L157" t="n">
-        <v>9247</v>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M157" t="n">
-        <v>9248.5</v>
-      </c>
-      <c r="N157" t="n">
-        <v>9252</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8536,28 +6520,16 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J158" t="n">
-        <v>4420</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-18.42105263157895</v>
-      </c>
-      <c r="L158" t="n">
-        <v>9240.5</v>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M158" t="n">
-        <v>9244.75</v>
-      </c>
-      <c r="N158" t="n">
-        <v>9248.166666666666</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8587,28 +6559,16 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J159" t="n">
-        <v>4420</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-17.33333333333334</v>
-      </c>
-      <c r="L159" t="n">
-        <v>9233.5</v>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M159" t="n">
-        <v>9240.75</v>
-      </c>
-      <c r="N159" t="n">
-        <v>9244.666666666666</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8638,28 +6598,16 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J160" t="n">
-        <v>4490</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-2.325581395348837</v>
-      </c>
-      <c r="L160" t="n">
-        <v>9234</v>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M160" t="n">
-        <v>9240.25</v>
-      </c>
-      <c r="N160" t="n">
-        <v>9243.166666666666</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8689,28 +6637,16 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J161" t="n">
-        <v>4490</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-2.325581395348837</v>
-      </c>
-      <c r="L161" t="n">
-        <v>9233</v>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M161" t="n">
-        <v>9240.25</v>
-      </c>
-      <c r="N161" t="n">
-        <v>9242</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8740,28 +6676,16 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J162" t="n">
-        <v>4500</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0</v>
-      </c>
-      <c r="L162" t="n">
-        <v>9233</v>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M162" t="n">
-        <v>9241</v>
-      </c>
-      <c r="N162" t="n">
-        <v>9241</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8791,28 +6715,16 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J163" t="n">
-        <v>4500</v>
-      </c>
-      <c r="K163" t="n">
-        <v>18.91891891891892</v>
-      </c>
-      <c r="L163" t="n">
-        <v>9233</v>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M163" t="n">
-        <v>9241.5</v>
-      </c>
-      <c r="N163" t="n">
-        <v>9240.333333333334</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8842,28 +6754,16 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J164" t="n">
-        <v>4500</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0</v>
-      </c>
-      <c r="L164" t="n">
-        <v>9240</v>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M164" t="n">
-        <v>9241.75</v>
-      </c>
-      <c r="N164" t="n">
-        <v>9239.666666666666</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8893,28 +6793,16 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J165" t="n">
-        <v>4500</v>
-      </c>
-      <c r="K165" t="n">
-        <v>30.43478260869566</v>
-      </c>
-      <c r="L165" t="n">
-        <v>9240</v>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M165" t="n">
-        <v>9242.25</v>
-      </c>
-      <c r="N165" t="n">
-        <v>9243.833333333334</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8944,28 +6832,16 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J166" t="n">
-        <v>4500</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0</v>
-      </c>
-      <c r="L166" t="n">
-        <v>9247</v>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M166" t="n">
-        <v>9246.25</v>
-      </c>
-      <c r="N166" t="n">
-        <v>9243.833333333334</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8995,28 +6871,16 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>10</v>
-      </c>
-      <c r="J167" t="n">
-        <v>4530</v>
-      </c>
-      <c r="K167" t="n">
-        <v>100</v>
-      </c>
-      <c r="L167" t="n">
-        <v>9250</v>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M167" t="n">
-        <v>9248.5</v>
-      </c>
-      <c r="N167" t="n">
-        <v>9249</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9046,28 +6910,16 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>15</v>
-      </c>
-      <c r="J168" t="n">
-        <v>4535</v>
-      </c>
-      <c r="K168" t="n">
-        <v>100</v>
-      </c>
-      <c r="L168" t="n">
-        <v>9261.5</v>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M168" t="n">
-        <v>9251</v>
-      </c>
-      <c r="N168" t="n">
-        <v>9250.333333333334</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9097,28 +6949,16 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>15</v>
-      </c>
-      <c r="J169" t="n">
-        <v>4535</v>
-      </c>
-      <c r="K169" t="n">
-        <v>100</v>
-      </c>
-      <c r="L169" t="n">
-        <v>9273</v>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M169" t="n">
-        <v>9253.25</v>
-      </c>
-      <c r="N169" t="n">
-        <v>9251.5</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9148,28 +6988,16 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>15</v>
-      </c>
-      <c r="J170" t="n">
-        <v>4535</v>
-      </c>
-      <c r="K170" t="n">
-        <v>100</v>
-      </c>
-      <c r="L170" t="n">
-        <v>9277.5</v>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M170" t="n">
-        <v>9255.75</v>
-      </c>
-      <c r="N170" t="n">
-        <v>9252.666666666666</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9199,28 +7027,16 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>15</v>
-      </c>
-      <c r="J171" t="n">
-        <v>4535</v>
-      </c>
-      <c r="K171" t="n">
-        <v>100</v>
-      </c>
-      <c r="L171" t="n">
-        <v>9282</v>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M171" t="n">
-        <v>9257.5</v>
-      </c>
-      <c r="N171" t="n">
-        <v>9254.166666666666</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9250,28 +7066,16 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>15</v>
-      </c>
-      <c r="J172" t="n">
-        <v>4535</v>
-      </c>
-      <c r="K172" t="n">
-        <v>100</v>
-      </c>
-      <c r="L172" t="n">
-        <v>9285.5</v>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M172" t="n">
-        <v>9259.25</v>
-      </c>
-      <c r="N172" t="n">
-        <v>9255.833333333334</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9301,28 +7105,16 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>35</v>
-      </c>
-      <c r="J173" t="n">
-        <v>4555</v>
-      </c>
-      <c r="K173" t="n">
-        <v>100</v>
-      </c>
-      <c r="L173" t="n">
-        <v>9291</v>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M173" t="n">
-        <v>9262</v>
-      </c>
-      <c r="N173" t="n">
-        <v>9258</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9352,28 +7144,16 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>35</v>
-      </c>
-      <c r="J174" t="n">
-        <v>4555</v>
-      </c>
-      <c r="K174" t="n">
-        <v>100</v>
-      </c>
-      <c r="L174" t="n">
-        <v>9296.5</v>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M174" t="n">
-        <v>9268.25</v>
-      </c>
-      <c r="N174" t="n">
-        <v>9260</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9403,28 +7183,16 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J175" t="n">
-        <v>4660</v>
-      </c>
-      <c r="K175" t="n">
-        <v>-31.25</v>
-      </c>
-      <c r="L175" t="n">
-        <v>9291.5</v>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M175" t="n">
-        <v>9265.75</v>
-      </c>
-      <c r="N175" t="n">
-        <v>9258.666666666666</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9454,28 +7222,16 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>45</v>
-      </c>
-      <c r="J176" t="n">
-        <v>4775</v>
-      </c>
-      <c r="K176" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L176" t="n">
-        <v>9298</v>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M176" t="n">
-        <v>9272.5</v>
-      </c>
-      <c r="N176" t="n">
-        <v>9263.5</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9505,28 +7261,16 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>45</v>
-      </c>
-      <c r="J177" t="n">
-        <v>4775</v>
-      </c>
-      <c r="K177" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L177" t="n">
-        <v>9301.5</v>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M177" t="n">
-        <v>9275.75</v>
-      </c>
-      <c r="N177" t="n">
-        <v>9266.166666666666</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9556,1099 +7300,16 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J178" t="n">
-        <v>4835</v>
-      </c>
-      <c r="K178" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L178" t="n">
-        <v>9298.5</v>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M178" t="n">
-        <v>9280</v>
-      </c>
-      <c r="N178" t="n">
-        <v>9266.833333333334</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>9330</v>
-      </c>
-      <c r="C179" t="n">
-        <v>9345</v>
-      </c>
-      <c r="D179" t="n">
-        <v>9345</v>
-      </c>
-      <c r="E179" t="n">
-        <v>9330</v>
-      </c>
-      <c r="F179" t="n">
-        <v>39</v>
-      </c>
-      <c r="G179" t="n">
-        <v>9264.583333333334</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>60</v>
-      </c>
-      <c r="J179" t="n">
-        <v>4910</v>
-      </c>
-      <c r="K179" t="n">
-        <v>12</v>
-      </c>
-      <c r="L179" t="n">
-        <v>9303</v>
-      </c>
-      <c r="M179" t="n">
-        <v>9288</v>
-      </c>
-      <c r="N179" t="n">
-        <v>9269.833333333334</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>9280</v>
-      </c>
-      <c r="C180" t="n">
-        <v>9345</v>
-      </c>
-      <c r="D180" t="n">
-        <v>9345</v>
-      </c>
-      <c r="E180" t="n">
-        <v>9280</v>
-      </c>
-      <c r="F180" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="G180" t="n">
-        <v>9266.666666666666</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>60</v>
-      </c>
-      <c r="J180" t="n">
-        <v>4910</v>
-      </c>
-      <c r="K180" t="n">
-        <v>12</v>
-      </c>
-      <c r="L180" t="n">
-        <v>9307.5</v>
-      </c>
-      <c r="M180" t="n">
-        <v>9292.5</v>
-      </c>
-      <c r="N180" t="n">
-        <v>9273</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>9345</v>
-      </c>
-      <c r="C181" t="n">
-        <v>9345</v>
-      </c>
-      <c r="D181" t="n">
-        <v>9345</v>
-      </c>
-      <c r="E181" t="n">
-        <v>9345</v>
-      </c>
-      <c r="F181" t="n">
-        <v>100</v>
-      </c>
-      <c r="G181" t="n">
-        <v>9268.916666666666</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>60</v>
-      </c>
-      <c r="J181" t="n">
-        <v>4910</v>
-      </c>
-      <c r="K181" t="n">
-        <v>12</v>
-      </c>
-      <c r="L181" t="n">
-        <v>9312</v>
-      </c>
-      <c r="M181" t="n">
-        <v>9297</v>
-      </c>
-      <c r="N181" t="n">
-        <v>9275.666666666666</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>9280</v>
-      </c>
-      <c r="C182" t="n">
-        <v>9280</v>
-      </c>
-      <c r="D182" t="n">
-        <v>9280</v>
-      </c>
-      <c r="E182" t="n">
-        <v>9280</v>
-      </c>
-      <c r="F182" t="n">
-        <v>82.4289</v>
-      </c>
-      <c r="G182" t="n">
-        <v>9268.833333333334</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J182" t="n">
-        <v>4975</v>
-      </c>
-      <c r="K182" t="n">
-        <v>-9.523809523809524</v>
-      </c>
-      <c r="L182" t="n">
-        <v>9310</v>
-      </c>
-      <c r="M182" t="n">
-        <v>9297.75</v>
-      </c>
-      <c r="N182" t="n">
-        <v>9276.166666666666</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>9290</v>
-      </c>
-      <c r="C183" t="n">
-        <v>9320</v>
-      </c>
-      <c r="D183" t="n">
-        <v>9320</v>
-      </c>
-      <c r="E183" t="n">
-        <v>9270</v>
-      </c>
-      <c r="F183" t="n">
-        <v>280.2869</v>
-      </c>
-      <c r="G183" t="n">
-        <v>9269.416666666666</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>35</v>
-      </c>
-      <c r="J183" t="n">
-        <v>5015</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0</v>
-      </c>
-      <c r="L183" t="n">
-        <v>9310</v>
-      </c>
-      <c r="M183" t="n">
-        <v>9300.5</v>
-      </c>
-      <c r="N183" t="n">
-        <v>9278</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>9310</v>
-      </c>
-      <c r="C184" t="n">
-        <v>9310</v>
-      </c>
-      <c r="D184" t="n">
-        <v>9310</v>
-      </c>
-      <c r="E184" t="n">
-        <v>9310</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1.7348</v>
-      </c>
-      <c r="G184" t="n">
-        <v>9269.666666666666</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>25</v>
-      </c>
-      <c r="J184" t="n">
-        <v>5025</v>
-      </c>
-      <c r="K184" t="n">
-        <v>26.02739726027397</v>
-      </c>
-      <c r="L184" t="n">
-        <v>9309</v>
-      </c>
-      <c r="M184" t="n">
-        <v>9302.75</v>
-      </c>
-      <c r="N184" t="n">
-        <v>9281.833333333334</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>9265</v>
-      </c>
-      <c r="C185" t="n">
-        <v>9265</v>
-      </c>
-      <c r="D185" t="n">
-        <v>9265</v>
-      </c>
-      <c r="E185" t="n">
-        <v>9265</v>
-      </c>
-      <c r="F185" t="n">
-        <v>2</v>
-      </c>
-      <c r="G185" t="n">
-        <v>9269.166666666666</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J185" t="n">
-        <v>5070</v>
-      </c>
-      <c r="K185" t="n">
-        <v>-22.03389830508474</v>
-      </c>
-      <c r="L185" t="n">
-        <v>9314</v>
-      </c>
-      <c r="M185" t="n">
-        <v>9302.75</v>
-      </c>
-      <c r="N185" t="n">
-        <v>9281.833333333334</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>9240</v>
-      </c>
-      <c r="C186" t="n">
-        <v>9240</v>
-      </c>
-      <c r="D186" t="n">
-        <v>9240</v>
-      </c>
-      <c r="E186" t="n">
-        <v>9240</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1</v>
-      </c>
-      <c r="G186" t="n">
-        <v>9268.25</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>-45</v>
-      </c>
-      <c r="J186" t="n">
-        <v>5095</v>
-      </c>
-      <c r="K186" t="n">
-        <v>-28.125</v>
-      </c>
-      <c r="L186" t="n">
-        <v>9305</v>
-      </c>
-      <c r="M186" t="n">
-        <v>9301.5</v>
-      </c>
-      <c r="N186" t="n">
-        <v>9283.333333333334</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>9240</v>
-      </c>
-      <c r="C187" t="n">
-        <v>9295</v>
-      </c>
-      <c r="D187" t="n">
-        <v>9295</v>
-      </c>
-      <c r="E187" t="n">
-        <v>9215</v>
-      </c>
-      <c r="F187" t="n">
-        <v>334.4722</v>
-      </c>
-      <c r="G187" t="n">
-        <v>9268.166666666666</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>10</v>
-      </c>
-      <c r="J187" t="n">
-        <v>5150</v>
-      </c>
-      <c r="K187" t="n">
-        <v>7.936507936507936</v>
-      </c>
-      <c r="L187" t="n">
-        <v>9301.5</v>
-      </c>
-      <c r="M187" t="n">
-        <v>9301.5</v>
-      </c>
-      <c r="N187" t="n">
-        <v>9284.333333333334</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>9215</v>
-      </c>
-      <c r="C188" t="n">
-        <v>9300</v>
-      </c>
-      <c r="D188" t="n">
-        <v>9300</v>
-      </c>
-      <c r="E188" t="n">
-        <v>9210</v>
-      </c>
-      <c r="F188" t="n">
-        <v>344.6333</v>
-      </c>
-      <c r="G188" t="n">
-        <v>9268.166666666666</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>15</v>
-      </c>
-      <c r="J188" t="n">
-        <v>5155</v>
-      </c>
-      <c r="K188" t="n">
-        <v>-18.36734693877551</v>
-      </c>
-      <c r="L188" t="n">
-        <v>9304.5</v>
-      </c>
-      <c r="M188" t="n">
-        <v>9301.5</v>
-      </c>
-      <c r="N188" t="n">
-        <v>9288.166666666666</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>9245</v>
-      </c>
-      <c r="C189" t="n">
-        <v>9250</v>
-      </c>
-      <c r="D189" t="n">
-        <v>9250</v>
-      </c>
-      <c r="E189" t="n">
-        <v>9245</v>
-      </c>
-      <c r="F189" t="n">
-        <v>200.5</v>
-      </c>
-      <c r="G189" t="n">
-        <v>9267.5</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J189" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K189" t="n">
-        <v>-32.20338983050847</v>
-      </c>
-      <c r="L189" t="n">
-        <v>9295</v>
-      </c>
-      <c r="M189" t="n">
-        <v>9299</v>
-      </c>
-      <c r="N189" t="n">
-        <v>9290.333333333334</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>9250</v>
-      </c>
-      <c r="C190" t="n">
-        <v>9250</v>
-      </c>
-      <c r="D190" t="n">
-        <v>9250</v>
-      </c>
-      <c r="E190" t="n">
-        <v>9250</v>
-      </c>
-      <c r="F190" t="n">
-        <v>200</v>
-      </c>
-      <c r="G190" t="n">
-        <v>9266.666666666666</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J190" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K190" t="n">
-        <v>-32.20338983050847</v>
-      </c>
-      <c r="L190" t="n">
-        <v>9285.5</v>
-      </c>
-      <c r="M190" t="n">
-        <v>9296.5</v>
-      </c>
-      <c r="N190" t="n">
-        <v>9290.166666666666</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>9225</v>
-      </c>
-      <c r="C191" t="n">
-        <v>9300</v>
-      </c>
-      <c r="D191" t="n">
-        <v>9300</v>
-      </c>
-      <c r="E191" t="n">
-        <v>9225</v>
-      </c>
-      <c r="F191" t="n">
-        <v>216.5</v>
-      </c>
-      <c r="G191" t="n">
-        <v>9266.833333333334</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>15</v>
-      </c>
-      <c r="J191" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K191" t="n">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="L191" t="n">
-        <v>9281</v>
-      </c>
-      <c r="M191" t="n">
-        <v>9296.5</v>
-      </c>
-      <c r="N191" t="n">
-        <v>9291.666666666666</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>9195</v>
-      </c>
-      <c r="C192" t="n">
-        <v>9250</v>
-      </c>
-      <c r="D192" t="n">
-        <v>9250</v>
-      </c>
-      <c r="E192" t="n">
-        <v>9195</v>
-      </c>
-      <c r="F192" t="n">
-        <v>204.6597</v>
-      </c>
-      <c r="G192" t="n">
-        <v>9266.083333333334</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J192" t="n">
-        <v>5305</v>
-      </c>
-      <c r="K192" t="n">
-        <v>-24.13793103448276</v>
-      </c>
-      <c r="L192" t="n">
-        <v>9278</v>
-      </c>
-      <c r="M192" t="n">
-        <v>9294</v>
-      </c>
-      <c r="N192" t="n">
-        <v>9291.166666666666</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>9250</v>
-      </c>
-      <c r="C193" t="n">
-        <v>9250</v>
-      </c>
-      <c r="D193" t="n">
-        <v>9250</v>
-      </c>
-      <c r="E193" t="n">
-        <v>9250</v>
-      </c>
-      <c r="F193" t="n">
-        <v>11</v>
-      </c>
-      <c r="G193" t="n">
-        <v>9265.5</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J193" t="n">
-        <v>5305</v>
-      </c>
-      <c r="K193" t="n">
-        <v>-21.42857142857143</v>
-      </c>
-      <c r="L193" t="n">
-        <v>9271</v>
-      </c>
-      <c r="M193" t="n">
-        <v>9290.5</v>
-      </c>
-      <c r="N193" t="n">
-        <v>9290.666666666666</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>9200</v>
-      </c>
-      <c r="C194" t="n">
-        <v>9290</v>
-      </c>
-      <c r="D194" t="n">
-        <v>9290</v>
-      </c>
-      <c r="E194" t="n">
-        <v>9200</v>
-      </c>
-      <c r="F194" t="n">
-        <v>429.7071</v>
-      </c>
-      <c r="G194" t="n">
-        <v>9265.583333333334</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>5</v>
-      </c>
-      <c r="J194" t="n">
-        <v>5345</v>
-      </c>
-      <c r="K194" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L194" t="n">
-        <v>9269</v>
-      </c>
-      <c r="M194" t="n">
-        <v>9289</v>
-      </c>
-      <c r="N194" t="n">
-        <v>9291.5</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>9290</v>
-      </c>
-      <c r="C195" t="n">
-        <v>9290</v>
-      </c>
-      <c r="D195" t="n">
-        <v>9290</v>
-      </c>
-      <c r="E195" t="n">
-        <v>9290</v>
-      </c>
-      <c r="F195" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="G195" t="n">
-        <v>9268.083333333334</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>5</v>
-      </c>
-      <c r="J195" t="n">
-        <v>5345</v>
-      </c>
-      <c r="K195" t="n">
-        <v>20</v>
-      </c>
-      <c r="L195" t="n">
-        <v>9271.5</v>
-      </c>
-      <c r="M195" t="n">
-        <v>9292.75</v>
-      </c>
-      <c r="N195" t="n">
-        <v>9292.333333333334</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>9250</v>
-      </c>
-      <c r="C196" t="n">
-        <v>9290</v>
-      </c>
-      <c r="D196" t="n">
-        <v>9290</v>
-      </c>
-      <c r="E196" t="n">
-        <v>9250</v>
-      </c>
-      <c r="F196" t="n">
-        <v>8</v>
-      </c>
-      <c r="G196" t="n">
-        <v>9268.5</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>5</v>
-      </c>
-      <c r="J196" t="n">
-        <v>5345</v>
-      </c>
-      <c r="K196" t="n">
-        <v>-2.564102564102564</v>
-      </c>
-      <c r="L196" t="n">
-        <v>9276.5</v>
-      </c>
-      <c r="M196" t="n">
-        <v>9290.75</v>
-      </c>
-      <c r="N196" t="n">
-        <v>9293.166666666666</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>9290</v>
-      </c>
-      <c r="C197" t="n">
-        <v>9290</v>
-      </c>
-      <c r="D197" t="n">
-        <v>9290</v>
-      </c>
-      <c r="E197" t="n">
-        <v>9290</v>
-      </c>
-      <c r="F197" t="n">
-        <v>23</v>
-      </c>
-      <c r="G197" t="n">
-        <v>9271</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>5</v>
-      </c>
-      <c r="J197" t="n">
-        <v>5345</v>
-      </c>
-      <c r="K197" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L197" t="n">
-        <v>9276</v>
-      </c>
-      <c r="M197" t="n">
-        <v>9288.75</v>
-      </c>
-      <c r="N197" t="n">
-        <v>9293</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>9290</v>
-      </c>
-      <c r="C198" t="n">
-        <v>9300</v>
-      </c>
-      <c r="D198" t="n">
-        <v>9300</v>
-      </c>
-      <c r="E198" t="n">
-        <v>9290</v>
-      </c>
-      <c r="F198" t="n">
-        <v>8</v>
-      </c>
-      <c r="G198" t="n">
-        <v>9271.666666666666</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>15</v>
-      </c>
-      <c r="J198" t="n">
-        <v>5355</v>
-      </c>
-      <c r="K198" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L198" t="n">
-        <v>9276</v>
-      </c>
-      <c r="M198" t="n">
-        <v>9290.25</v>
-      </c>
-      <c r="N198" t="n">
-        <v>9293</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>9300</v>
-      </c>
-      <c r="C199" t="n">
-        <v>9300</v>
-      </c>
-      <c r="D199" t="n">
-        <v>9300</v>
-      </c>
-      <c r="E199" t="n">
-        <v>9300</v>
-      </c>
-      <c r="F199" t="n">
-        <v>2</v>
-      </c>
-      <c r="G199" t="n">
-        <v>9272.25</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>15</v>
-      </c>
-      <c r="J199" t="n">
-        <v>5355</v>
-      </c>
-      <c r="K199" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L199" t="n">
-        <v>9281</v>
-      </c>
-      <c r="M199" t="n">
-        <v>9288</v>
-      </c>
-      <c r="N199" t="n">
-        <v>9293</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-14 BackTest BTG.xlsx
+++ b/BackTest/2019-10-14 BackTest BTG.xlsx
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1011,20 +1011,14 @@
         <v>9197.333333333334</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>9135</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1052,20 +1046,14 @@
         <v>9198.333333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>9195</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1093,20 +1081,14 @@
         <v>9198.5</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>9215</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1134,20 +1116,14 @@
         <v>9200</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>9210</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1175,20 +1151,14 @@
         <v>9199.833333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>9135</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1216,20 +1186,14 @@
         <v>9200.333333333334</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>9200</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1257,20 +1221,14 @@
         <v>9200.916666666666</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>9205</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1298,20 +1256,14 @@
         <v>9201.416666666666</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>9200</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1339,20 +1291,14 @@
         <v>9201.916666666666</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>9200</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1380,20 +1326,14 @@
         <v>9202.416666666666</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>9200</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1421,20 +1361,14 @@
         <v>9202.916666666666</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>9200</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1462,20 +1396,14 @@
         <v>9203.416666666666</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>9200</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1503,20 +1431,14 @@
         <v>9203.916666666666</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>9195</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1544,20 +1466,14 @@
         <v>9205.083333333334</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>9195</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1585,20 +1501,14 @@
         <v>9206.666666666666</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>9240</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1626,20 +1536,14 @@
         <v>9208.333333333334</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>9245</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1667,20 +1571,14 @@
         <v>9210.583333333334</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>9245</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1715,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1754,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1793,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1832,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1871,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1910,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1949,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1988,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2027,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2066,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2105,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2144,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2183,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2222,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2261,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2300,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2339,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2378,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2417,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2456,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2495,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2534,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2573,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2612,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2651,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2690,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2729,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2768,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2807,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2846,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2885,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2924,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2963,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3002,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3041,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3073,20 +2831,14 @@
         <v>9229.833333333334</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3114,20 +2866,14 @@
         <v>9227.833333333334</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>9150</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3155,20 +2901,14 @@
         <v>9228</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>9140</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3196,20 +2936,14 @@
         <v>9229.083333333334</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>9200</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3237,20 +2971,14 @@
         <v>9231.25</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>9245</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3284,12 +3012,12 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>9265</v>
+        <v>9275</v>
       </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M75" t="n">
@@ -5152,12 +4880,14 @@
         <v>9248.666666666666</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>9285</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
@@ -6205,12 +5935,14 @@
         <v>9255.25</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>9255</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>

--- a/BackTest/2019-10-14 BackTest BTG.xlsx
+++ b/BackTest/2019-10-14 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M178"/>
+  <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,16 +445,16 @@
         <v>9285</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>9202.5</v>
+        <v>9202.25</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -471,25 +471,25 @@
         <v>9285</v>
       </c>
       <c r="C3" t="n">
-        <v>9310</v>
+        <v>9285</v>
       </c>
       <c r="D3" t="n">
-        <v>9310</v>
+        <v>9285</v>
       </c>
       <c r="E3" t="n">
-        <v>9235</v>
+        <v>9285</v>
       </c>
       <c r="F3" t="n">
-        <v>12.3337</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>9203.166666666666</v>
+        <v>9202.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9300</v>
+        <v>9285</v>
       </c>
       <c r="C4" t="n">
         <v>9310</v>
@@ -512,13 +512,13 @@
         <v>9310</v>
       </c>
       <c r="E4" t="n">
-        <v>9300</v>
+        <v>9235</v>
       </c>
       <c r="F4" t="n">
-        <v>70</v>
+        <v>12.3337</v>
       </c>
       <c r="G4" t="n">
-        <v>9203.833333333334</v>
+        <v>9203.166666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9310</v>
+        <v>9300</v>
       </c>
       <c r="C5" t="n">
         <v>9310</v>
@@ -547,13 +547,13 @@
         <v>9310</v>
       </c>
       <c r="E5" t="n">
-        <v>9310</v>
+        <v>9300</v>
       </c>
       <c r="F5" t="n">
-        <v>11.5</v>
+        <v>70</v>
       </c>
       <c r="G5" t="n">
-        <v>9204.583333333334</v>
+        <v>9203.833333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>9310</v>
       </c>
       <c r="F6" t="n">
-        <v>33</v>
+        <v>11.5</v>
       </c>
       <c r="G6" t="n">
-        <v>9205.166666666666</v>
+        <v>9204.583333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,28 +608,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9230</v>
+        <v>9310</v>
       </c>
       <c r="C7" t="n">
-        <v>9230</v>
+        <v>9310</v>
       </c>
       <c r="D7" t="n">
-        <v>9230</v>
+        <v>9310</v>
       </c>
       <c r="E7" t="n">
-        <v>9230</v>
+        <v>9310</v>
       </c>
       <c r="F7" t="n">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G7" t="n">
-        <v>9204.416666666666</v>
+        <v>9205.166666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -643,28 +643,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9235</v>
+        <v>9230</v>
       </c>
       <c r="C8" t="n">
-        <v>9200</v>
+        <v>9230</v>
       </c>
       <c r="D8" t="n">
-        <v>9235</v>
+        <v>9230</v>
       </c>
       <c r="E8" t="n">
-        <v>9145</v>
+        <v>9230</v>
       </c>
       <c r="F8" t="n">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="G8" t="n">
-        <v>9203.333333333334</v>
+        <v>9204.416666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9205</v>
+        <v>9235</v>
       </c>
       <c r="C9" t="n">
-        <v>9205</v>
+        <v>9200</v>
       </c>
       <c r="D9" t="n">
-        <v>9205</v>
+        <v>9235</v>
       </c>
       <c r="E9" t="n">
-        <v>9205</v>
+        <v>9145</v>
       </c>
       <c r="F9" t="n">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="G9" t="n">
-        <v>9201.416666666666</v>
+        <v>9203.333333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9260</v>
+        <v>9205</v>
       </c>
       <c r="C10" t="n">
-        <v>9260</v>
+        <v>9205</v>
       </c>
       <c r="D10" t="n">
-        <v>9260</v>
+        <v>9205</v>
       </c>
       <c r="E10" t="n">
-        <v>9260</v>
+        <v>9205</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G10" t="n">
-        <v>9201.916666666666</v>
+        <v>9201.416666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>9260</v>
       </c>
       <c r="F11" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>9202.416666666666</v>
+        <v>9201.916666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9200</v>
+        <v>9260</v>
       </c>
       <c r="C12" t="n">
-        <v>9200</v>
+        <v>9260</v>
       </c>
       <c r="D12" t="n">
-        <v>9200</v>
+        <v>9260</v>
       </c>
       <c r="E12" t="n">
-        <v>9200</v>
+        <v>9260</v>
       </c>
       <c r="F12" t="n">
-        <v>2.2925</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>9200.5</v>
+        <v>9202.416666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9190</v>
+        <v>9200</v>
       </c>
       <c r="C13" t="n">
-        <v>9185</v>
+        <v>9200</v>
       </c>
       <c r="D13" t="n">
-        <v>9190</v>
+        <v>9200</v>
       </c>
       <c r="E13" t="n">
-        <v>9185</v>
+        <v>9200</v>
       </c>
       <c r="F13" t="n">
-        <v>222.1019</v>
+        <v>2.2925</v>
       </c>
       <c r="G13" t="n">
-        <v>9199.583333333334</v>
+        <v>9200.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9160</v>
+        <v>9190</v>
       </c>
       <c r="C14" t="n">
-        <v>9145</v>
+        <v>9185</v>
       </c>
       <c r="D14" t="n">
-        <v>9160</v>
+        <v>9190</v>
       </c>
       <c r="E14" t="n">
-        <v>9145</v>
+        <v>9185</v>
       </c>
       <c r="F14" t="n">
-        <v>666.3059</v>
+        <v>222.1019</v>
       </c>
       <c r="G14" t="n">
-        <v>9198.166666666666</v>
+        <v>9199.583333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9235</v>
+        <v>9160</v>
       </c>
       <c r="C15" t="n">
-        <v>9275</v>
+        <v>9145</v>
       </c>
       <c r="D15" t="n">
-        <v>9275</v>
+        <v>9160</v>
       </c>
       <c r="E15" t="n">
-        <v>9235</v>
+        <v>9145</v>
       </c>
       <c r="F15" t="n">
-        <v>190.5</v>
+        <v>666.3059</v>
       </c>
       <c r="G15" t="n">
-        <v>9199</v>
+        <v>9198.166666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9130</v>
+        <v>9235</v>
       </c>
       <c r="C16" t="n">
-        <v>9130</v>
+        <v>9275</v>
       </c>
       <c r="D16" t="n">
-        <v>9130</v>
+        <v>9275</v>
       </c>
       <c r="E16" t="n">
-        <v>9130</v>
+        <v>9235</v>
       </c>
       <c r="F16" t="n">
-        <v>1.6966</v>
+        <v>190.5</v>
       </c>
       <c r="G16" t="n">
-        <v>9197.583333333334</v>
+        <v>9199</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9220</v>
+        <v>9130</v>
       </c>
       <c r="C17" t="n">
-        <v>9210</v>
+        <v>9130</v>
       </c>
       <c r="D17" t="n">
-        <v>9225</v>
+        <v>9130</v>
       </c>
       <c r="E17" t="n">
-        <v>9205</v>
+        <v>9130</v>
       </c>
       <c r="F17" t="n">
-        <v>40.367</v>
+        <v>1.6966</v>
       </c>
       <c r="G17" t="n">
-        <v>9197.5</v>
+        <v>9197.583333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9135</v>
+        <v>9220</v>
       </c>
       <c r="C18" t="n">
+        <v>9210</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9225</v>
+      </c>
+      <c r="E18" t="n">
         <v>9205</v>
       </c>
-      <c r="D18" t="n">
-        <v>9215</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9075</v>
-      </c>
       <c r="F18" t="n">
-        <v>196.3931</v>
+        <v>40.367</v>
       </c>
       <c r="G18" t="n">
-        <v>9197.333333333334</v>
+        <v>9197.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9195</v>
+        <v>9135</v>
       </c>
       <c r="C19" t="n">
-        <v>9195</v>
+        <v>9205</v>
       </c>
       <c r="D19" t="n">
-        <v>9195</v>
+        <v>9215</v>
       </c>
       <c r="E19" t="n">
-        <v>9195</v>
+        <v>9075</v>
       </c>
       <c r="F19" t="n">
-        <v>6.44</v>
+        <v>196.3931</v>
       </c>
       <c r="G19" t="n">
-        <v>9198.333333333334</v>
+        <v>9197.333333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9215</v>
+        <v>9195</v>
       </c>
       <c r="C20" t="n">
-        <v>9220</v>
+        <v>9195</v>
       </c>
       <c r="D20" t="n">
-        <v>9220</v>
+        <v>9195</v>
       </c>
       <c r="E20" t="n">
-        <v>9210</v>
+        <v>9195</v>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>6.44</v>
       </c>
       <c r="G20" t="n">
-        <v>9198.5</v>
+        <v>9198.333333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9210</v>
+        <v>9215</v>
       </c>
       <c r="C21" t="n">
-        <v>9215</v>
+        <v>9220</v>
       </c>
       <c r="D21" t="n">
         <v>9220</v>
@@ -1110,10 +1110,10 @@
         <v>9210</v>
       </c>
       <c r="F21" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>9200</v>
+        <v>9198.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9135</v>
+        <v>9210</v>
       </c>
       <c r="C22" t="n">
-        <v>9190</v>
+        <v>9215</v>
       </c>
       <c r="D22" t="n">
-        <v>9195</v>
+        <v>9220</v>
       </c>
       <c r="E22" t="n">
-        <v>9135</v>
+        <v>9210</v>
       </c>
       <c r="F22" t="n">
-        <v>174.2624</v>
+        <v>96</v>
       </c>
       <c r="G22" t="n">
-        <v>9199.833333333334</v>
+        <v>9200</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9200</v>
+        <v>9135</v>
       </c>
       <c r="C23" t="n">
-        <v>9200</v>
+        <v>9190</v>
       </c>
       <c r="D23" t="n">
-        <v>9200</v>
+        <v>9195</v>
       </c>
       <c r="E23" t="n">
-        <v>9200</v>
+        <v>9135</v>
       </c>
       <c r="F23" t="n">
-        <v>30</v>
+        <v>174.2624</v>
       </c>
       <c r="G23" t="n">
-        <v>9200.333333333334</v>
+        <v>9199.833333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9205</v>
+        <v>9200</v>
       </c>
       <c r="C24" t="n">
-        <v>9205</v>
+        <v>9200</v>
       </c>
       <c r="D24" t="n">
-        <v>9205</v>
+        <v>9200</v>
       </c>
       <c r="E24" t="n">
-        <v>9205</v>
+        <v>9200</v>
       </c>
       <c r="F24" t="n">
-        <v>40.3357</v>
+        <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>9200.916666666666</v>
+        <v>9200.333333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="C25" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="D25" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="E25" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="F25" t="n">
-        <v>6.047</v>
+        <v>40.3357</v>
       </c>
       <c r="G25" t="n">
-        <v>9201.416666666666</v>
+        <v>9200.916666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>9200</v>
       </c>
       <c r="F26" t="n">
-        <v>4.7215</v>
+        <v>6.047</v>
       </c>
       <c r="G26" t="n">
-        <v>9201.916666666666</v>
+        <v>9201.416666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1317,13 +1317,13 @@
         <v>9200</v>
       </c>
       <c r="E27" t="n">
-        <v>9195</v>
+        <v>9200</v>
       </c>
       <c r="F27" t="n">
-        <v>45.0517</v>
+        <v>4.7215</v>
       </c>
       <c r="G27" t="n">
-        <v>9202.416666666666</v>
+        <v>9201.916666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1352,13 +1352,13 @@
         <v>9200</v>
       </c>
       <c r="E28" t="n">
-        <v>9200</v>
+        <v>9195</v>
       </c>
       <c r="F28" t="n">
-        <v>9.9</v>
+        <v>45.0517</v>
       </c>
       <c r="G28" t="n">
-        <v>9202.916666666666</v>
+        <v>9202.416666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1387,13 +1387,13 @@
         <v>9200</v>
       </c>
       <c r="E29" t="n">
-        <v>9195</v>
+        <v>9200</v>
       </c>
       <c r="F29" t="n">
-        <v>47.974</v>
+        <v>9.9</v>
       </c>
       <c r="G29" t="n">
-        <v>9203.416666666666</v>
+        <v>9202.916666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9195</v>
+        <v>9200</v>
       </c>
       <c r="C30" t="n">
-        <v>9195</v>
+        <v>9200</v>
       </c>
       <c r="D30" t="n">
-        <v>9195</v>
+        <v>9200</v>
       </c>
       <c r="E30" t="n">
         <v>9195</v>
       </c>
       <c r="F30" t="n">
-        <v>6</v>
+        <v>47.974</v>
       </c>
       <c r="G30" t="n">
-        <v>9203.916666666666</v>
+        <v>9203.416666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,28 +1451,32 @@
         <v>9195</v>
       </c>
       <c r="C31" t="n">
-        <v>9235</v>
+        <v>9195</v>
       </c>
       <c r="D31" t="n">
-        <v>9235</v>
+        <v>9195</v>
       </c>
       <c r="E31" t="n">
         <v>9195</v>
       </c>
       <c r="F31" t="n">
-        <v>80.5</v>
+        <v>6</v>
       </c>
       <c r="G31" t="n">
-        <v>9205.083333333334</v>
+        <v>9203.916666666666</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>9200</v>
+      </c>
+      <c r="K31" t="n">
+        <v>9200</v>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
@@ -1483,22 +1487,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9240</v>
+        <v>9195</v>
       </c>
       <c r="C32" t="n">
-        <v>9240</v>
+        <v>9235</v>
       </c>
       <c r="D32" t="n">
-        <v>9240</v>
+        <v>9235</v>
       </c>
       <c r="E32" t="n">
-        <v>9240</v>
+        <v>9195</v>
       </c>
       <c r="F32" t="n">
-        <v>64</v>
+        <v>80.5</v>
       </c>
       <c r="G32" t="n">
-        <v>9206.666666666666</v>
+        <v>9205.083333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,8 +1511,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1528,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="C33" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="D33" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="E33" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
-        <v>9208.333333333334</v>
+        <v>9206.666666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,8 +1552,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1556,19 +1572,19 @@
         <v>9245</v>
       </c>
       <c r="C34" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="D34" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="E34" t="n">
         <v>9245</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>9210.583333333334</v>
+        <v>9208.333333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,8 +1593,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1610,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9185</v>
+        <v>9245</v>
       </c>
       <c r="C35" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="D35" t="n">
         <v>9280</v>
       </c>
       <c r="E35" t="n">
-        <v>9185</v>
+        <v>9245</v>
       </c>
       <c r="F35" t="n">
-        <v>42.6163</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>9212.666666666666</v>
+        <v>9210.583333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,8 +1634,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1651,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9270</v>
+        <v>9185</v>
       </c>
       <c r="C36" t="n">
         <v>9270</v>
       </c>
       <c r="D36" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="E36" t="n">
-        <v>9270</v>
+        <v>9185</v>
       </c>
       <c r="F36" t="n">
-        <v>30.5</v>
+        <v>42.6163</v>
       </c>
       <c r="G36" t="n">
-        <v>9214.583333333334</v>
+        <v>9212.666666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,8 +1675,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1670,10 +1704,10 @@
         <v>9270</v>
       </c>
       <c r="F37" t="n">
-        <v>53.8396</v>
+        <v>30.5</v>
       </c>
       <c r="G37" t="n">
-        <v>9217.416666666666</v>
+        <v>9214.583333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,8 +1716,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1733,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9205</v>
+        <v>9270</v>
       </c>
       <c r="C38" t="n">
-        <v>9205</v>
+        <v>9270</v>
       </c>
       <c r="D38" t="n">
-        <v>9205</v>
+        <v>9270</v>
       </c>
       <c r="E38" t="n">
-        <v>9205</v>
+        <v>9270</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>53.8396</v>
       </c>
       <c r="G38" t="n">
-        <v>9218.25</v>
+        <v>9217.416666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,8 +1757,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1774,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9260</v>
+        <v>9205</v>
       </c>
       <c r="C39" t="n">
-        <v>9270</v>
+        <v>9205</v>
       </c>
       <c r="D39" t="n">
-        <v>9270</v>
+        <v>9205</v>
       </c>
       <c r="E39" t="n">
-        <v>9260</v>
+        <v>9205</v>
       </c>
       <c r="F39" t="n">
-        <v>32.5</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>9220.083333333334</v>
+        <v>9218.25</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,8 +1798,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,7 +1815,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9270</v>
+        <v>9260</v>
       </c>
       <c r="C40" t="n">
         <v>9270</v>
@@ -1772,13 +1824,13 @@
         <v>9270</v>
       </c>
       <c r="E40" t="n">
-        <v>9270</v>
+        <v>9260</v>
       </c>
       <c r="F40" t="n">
-        <v>39.5</v>
+        <v>32.5</v>
       </c>
       <c r="G40" t="n">
-        <v>9221.916666666666</v>
+        <v>9220.083333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,8 +1839,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1810,10 +1868,10 @@
         <v>9270</v>
       </c>
       <c r="F41" t="n">
-        <v>71</v>
+        <v>39.5</v>
       </c>
       <c r="G41" t="n">
-        <v>9223.833333333334</v>
+        <v>9221.916666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,8 +1880,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1897,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9205</v>
+        <v>9270</v>
       </c>
       <c r="C42" t="n">
-        <v>9205</v>
+        <v>9270</v>
       </c>
       <c r="D42" t="n">
-        <v>9205</v>
+        <v>9270</v>
       </c>
       <c r="E42" t="n">
-        <v>9205</v>
+        <v>9270</v>
       </c>
       <c r="F42" t="n">
-        <v>7.044</v>
+        <v>71</v>
       </c>
       <c r="G42" t="n">
-        <v>9224.666666666666</v>
+        <v>9223.833333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,8 +1921,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +1938,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9280</v>
+        <v>9205</v>
       </c>
       <c r="C43" t="n">
-        <v>9290</v>
+        <v>9205</v>
       </c>
       <c r="D43" t="n">
-        <v>9290</v>
+        <v>9205</v>
       </c>
       <c r="E43" t="n">
-        <v>9280</v>
+        <v>9205</v>
       </c>
       <c r="F43" t="n">
-        <v>44</v>
+        <v>7.044</v>
       </c>
       <c r="G43" t="n">
-        <v>9226.833333333334</v>
+        <v>9224.666666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,8 +1962,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,22 +1979,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9205</v>
+        <v>9280</v>
       </c>
       <c r="C44" t="n">
-        <v>9200</v>
+        <v>9290</v>
       </c>
       <c r="D44" t="n">
-        <v>9205</v>
+        <v>9290</v>
       </c>
       <c r="E44" t="n">
-        <v>9200</v>
+        <v>9280</v>
       </c>
       <c r="F44" t="n">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="G44" t="n">
-        <v>9227.5</v>
+        <v>9226.833333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,8 +2003,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +2020,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9275</v>
+        <v>9205</v>
       </c>
       <c r="C45" t="n">
-        <v>9290</v>
+        <v>9200</v>
       </c>
       <c r="D45" t="n">
-        <v>9290</v>
+        <v>9205</v>
       </c>
       <c r="E45" t="n">
-        <v>9275</v>
+        <v>9200</v>
       </c>
       <c r="F45" t="n">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="G45" t="n">
-        <v>9229.583333333334</v>
+        <v>9227.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,8 +2044,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2061,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9280</v>
+        <v>9275</v>
       </c>
       <c r="C46" t="n">
         <v>9290</v>
@@ -1982,13 +2070,13 @@
         <v>9290</v>
       </c>
       <c r="E46" t="n">
-        <v>9280</v>
+        <v>9275</v>
       </c>
       <c r="F46" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="G46" t="n">
-        <v>9231.666666666666</v>
+        <v>9229.583333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,8 +2085,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2102,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>9280</v>
+      </c>
+      <c r="C47" t="n">
         <v>9290</v>
       </c>
-      <c r="C47" t="n">
-        <v>9190</v>
-      </c>
       <c r="D47" t="n">
-        <v>9295</v>
+        <v>9290</v>
       </c>
       <c r="E47" t="n">
-        <v>9190</v>
+        <v>9280</v>
       </c>
       <c r="F47" t="n">
-        <v>153.7523</v>
+        <v>45</v>
       </c>
       <c r="G47" t="n">
-        <v>9232.083333333334</v>
+        <v>9231.666666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,8 +2126,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2143,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9190</v>
+        <v>9290</v>
       </c>
       <c r="C48" t="n">
         <v>9190</v>
       </c>
       <c r="D48" t="n">
-        <v>9190</v>
+        <v>9295</v>
       </c>
       <c r="E48" t="n">
         <v>9190</v>
       </c>
       <c r="F48" t="n">
-        <v>121.2524</v>
+        <v>153.7523</v>
       </c>
       <c r="G48" t="n">
-        <v>9233.5</v>
+        <v>9232.083333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,8 +2167,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2184,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9275</v>
+        <v>9190</v>
       </c>
       <c r="C49" t="n">
-        <v>9270</v>
+        <v>9190</v>
       </c>
       <c r="D49" t="n">
-        <v>9275</v>
+        <v>9190</v>
       </c>
       <c r="E49" t="n">
-        <v>9270</v>
+        <v>9190</v>
       </c>
       <c r="F49" t="n">
-        <v>18</v>
+        <v>121.2524</v>
       </c>
       <c r="G49" t="n">
-        <v>9235.25</v>
+        <v>9233.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,8 +2208,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2225,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>9275</v>
+      </c>
+      <c r="C50" t="n">
         <v>9270</v>
       </c>
-      <c r="C50" t="n">
-        <v>9295</v>
-      </c>
       <c r="D50" t="n">
-        <v>9295</v>
+        <v>9275</v>
       </c>
       <c r="E50" t="n">
         <v>9270</v>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G50" t="n">
-        <v>9237.416666666666</v>
+        <v>9235.25</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,8 +2249,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2266,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9290</v>
+        <v>9270</v>
       </c>
       <c r="C51" t="n">
-        <v>9290</v>
+        <v>9295</v>
       </c>
       <c r="D51" t="n">
-        <v>9290</v>
+        <v>9295</v>
       </c>
       <c r="E51" t="n">
-        <v>9290</v>
+        <v>9270</v>
       </c>
       <c r="F51" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G51" t="n">
-        <v>9240.083333333334</v>
+        <v>9237.416666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,8 +2290,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2195,10 +2319,10 @@
         <v>9290</v>
       </c>
       <c r="F52" t="n">
-        <v>29.5</v>
+        <v>33</v>
       </c>
       <c r="G52" t="n">
-        <v>9242.083333333334</v>
+        <v>9240.083333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,8 +2331,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2348,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9190</v>
+        <v>9290</v>
       </c>
       <c r="C53" t="n">
-        <v>9190</v>
+        <v>9290</v>
       </c>
       <c r="D53" t="n">
-        <v>9190</v>
+        <v>9290</v>
       </c>
       <c r="E53" t="n">
-        <v>9190</v>
+        <v>9290</v>
       </c>
       <c r="F53" t="n">
-        <v>2.0454</v>
+        <v>29.5</v>
       </c>
       <c r="G53" t="n">
-        <v>9241.583333333334</v>
+        <v>9242.083333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2372,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2389,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9195</v>
+        <v>9190</v>
       </c>
       <c r="C54" t="n">
         <v>9190</v>
       </c>
       <c r="D54" t="n">
-        <v>9195</v>
+        <v>9190</v>
       </c>
       <c r="E54" t="n">
         <v>9190</v>
       </c>
       <c r="F54" t="n">
-        <v>39.5706</v>
+        <v>2.0454</v>
       </c>
       <c r="G54" t="n">
-        <v>9241.083333333334</v>
+        <v>9241.583333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2413,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2430,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9270</v>
+        <v>9195</v>
       </c>
       <c r="C55" t="n">
-        <v>9275</v>
+        <v>9190</v>
       </c>
       <c r="D55" t="n">
-        <v>9275</v>
+        <v>9195</v>
       </c>
       <c r="E55" t="n">
-        <v>9270</v>
+        <v>9190</v>
       </c>
       <c r="F55" t="n">
-        <v>35</v>
+        <v>39.5706</v>
       </c>
       <c r="G55" t="n">
-        <v>9241.166666666666</v>
+        <v>9241.083333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,8 +2454,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2326,16 +2474,16 @@
         <v>9270</v>
       </c>
       <c r="C56" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="D56" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="E56" t="n">
         <v>9270</v>
       </c>
       <c r="F56" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="G56" t="n">
         <v>9241.166666666666</v>
@@ -2347,8 +2495,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2512,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="C57" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="D57" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="E57" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="F57" t="n">
-        <v>6.38</v>
+        <v>6</v>
       </c>
       <c r="G57" t="n">
-        <v>9240.75</v>
+        <v>9241.166666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,8 +2536,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2553,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="C58" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="D58" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="E58" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="F58" t="n">
-        <v>16.6493</v>
+        <v>6.38</v>
       </c>
       <c r="G58" t="n">
-        <v>9240.25</v>
+        <v>9240.75</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2577,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2594,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="C59" t="n">
         <v>9270</v>
       </c>
       <c r="D59" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="E59" t="n">
         <v>9270</v>
       </c>
       <c r="F59" t="n">
-        <v>60</v>
+        <v>16.6493</v>
       </c>
       <c r="G59" t="n">
-        <v>9239.75</v>
+        <v>9240.25</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,8 +2618,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2466,19 +2638,19 @@
         <v>9275</v>
       </c>
       <c r="C60" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="D60" t="n">
         <v>9275</v>
       </c>
       <c r="E60" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="F60" t="n">
-        <v>0.10781671</v>
+        <v>60</v>
       </c>
       <c r="G60" t="n">
-        <v>9239.583333333334</v>
+        <v>9239.75</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,8 +2659,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2510,10 +2688,10 @@
         <v>9275</v>
       </c>
       <c r="F61" t="n">
-        <v>20.2156</v>
+        <v>0.10781671</v>
       </c>
       <c r="G61" t="n">
-        <v>9239.416666666666</v>
+        <v>9239.583333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2700,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2545,10 +2729,10 @@
         <v>9275</v>
       </c>
       <c r="F62" t="n">
-        <v>45</v>
+        <v>20.2156</v>
       </c>
       <c r="G62" t="n">
-        <v>9239.25</v>
+        <v>9239.416666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,8 +2741,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2758,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9195</v>
+        <v>9275</v>
       </c>
       <c r="C63" t="n">
-        <v>9190</v>
+        <v>9275</v>
       </c>
       <c r="D63" t="n">
         <v>9275</v>
       </c>
       <c r="E63" t="n">
-        <v>9190</v>
+        <v>9275</v>
       </c>
       <c r="F63" t="n">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="G63" t="n">
-        <v>9237.25</v>
+        <v>9239.25</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2782,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2799,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9180</v>
+        <v>9195</v>
       </c>
       <c r="C64" t="n">
-        <v>9205</v>
+        <v>9190</v>
       </c>
       <c r="D64" t="n">
-        <v>9205</v>
+        <v>9275</v>
       </c>
       <c r="E64" t="n">
-        <v>9180</v>
+        <v>9190</v>
       </c>
       <c r="F64" t="n">
-        <v>290</v>
+        <v>114</v>
       </c>
       <c r="G64" t="n">
-        <v>9235.5</v>
+        <v>9237.25</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2823,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2840,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9175</v>
+        <v>9180</v>
       </c>
       <c r="C65" t="n">
-        <v>9170</v>
+        <v>9205</v>
       </c>
       <c r="D65" t="n">
-        <v>9270</v>
+        <v>9205</v>
       </c>
       <c r="E65" t="n">
-        <v>9170</v>
+        <v>9180</v>
       </c>
       <c r="F65" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="G65" t="n">
-        <v>9233.166666666666</v>
+        <v>9235.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2864,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2881,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>9175</v>
+      </c>
+      <c r="C66" t="n">
         <v>9170</v>
       </c>
-      <c r="C66" t="n">
-        <v>9245</v>
-      </c>
       <c r="D66" t="n">
-        <v>9245</v>
+        <v>9270</v>
       </c>
       <c r="E66" t="n">
-        <v>9155</v>
+        <v>9170</v>
       </c>
       <c r="F66" t="n">
-        <v>286.3054</v>
+        <v>260</v>
       </c>
       <c r="G66" t="n">
-        <v>9232.083333333334</v>
+        <v>9233.166666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +2905,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2922,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9230</v>
+        <v>9170</v>
       </c>
       <c r="C67" t="n">
-        <v>9260</v>
+        <v>9245</v>
       </c>
       <c r="D67" t="n">
-        <v>9260</v>
+        <v>9245</v>
       </c>
       <c r="E67" t="n">
-        <v>9220</v>
+        <v>9155</v>
       </c>
       <c r="F67" t="n">
-        <v>52</v>
+        <v>286.3054</v>
       </c>
       <c r="G67" t="n">
-        <v>9232.583333333334</v>
+        <v>9232.083333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +2946,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2963,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9145</v>
+        <v>9230</v>
       </c>
       <c r="C68" t="n">
-        <v>9140</v>
+        <v>9260</v>
       </c>
       <c r="D68" t="n">
-        <v>9145</v>
+        <v>9260</v>
       </c>
       <c r="E68" t="n">
-        <v>9140</v>
+        <v>9220</v>
       </c>
       <c r="F68" t="n">
-        <v>230</v>
+        <v>52</v>
       </c>
       <c r="G68" t="n">
-        <v>9231.583333333334</v>
+        <v>9232.583333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +2987,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2781,7 +3007,7 @@
         <v>9145</v>
       </c>
       <c r="C69" t="n">
-        <v>9145</v>
+        <v>9140</v>
       </c>
       <c r="D69" t="n">
         <v>9145</v>
@@ -2790,10 +3016,10 @@
         <v>9140</v>
       </c>
       <c r="F69" t="n">
-        <v>59.6</v>
+        <v>230</v>
       </c>
       <c r="G69" t="n">
-        <v>9230.583333333334</v>
+        <v>9231.583333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +3028,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2816,19 +3048,19 @@
         <v>9145</v>
       </c>
       <c r="C70" t="n">
-        <v>9215</v>
+        <v>9145</v>
       </c>
       <c r="D70" t="n">
-        <v>9220</v>
+        <v>9145</v>
       </c>
       <c r="E70" t="n">
-        <v>9145</v>
+        <v>9140</v>
       </c>
       <c r="F70" t="n">
-        <v>24</v>
+        <v>59.6</v>
       </c>
       <c r="G70" t="n">
-        <v>9229.833333333334</v>
+        <v>9230.583333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +3069,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +3086,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9150</v>
+        <v>9145</v>
       </c>
       <c r="C71" t="n">
-        <v>9140</v>
+        <v>9215</v>
       </c>
       <c r="D71" t="n">
-        <v>9150</v>
+        <v>9220</v>
       </c>
       <c r="E71" t="n">
-        <v>9140</v>
+        <v>9145</v>
       </c>
       <c r="F71" t="n">
-        <v>60.569</v>
+        <v>24</v>
       </c>
       <c r="G71" t="n">
-        <v>9227.833333333334</v>
+        <v>9229.833333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +3110,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +3127,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>9150</v>
+      </c>
+      <c r="C72" t="n">
         <v>9140</v>
       </c>
-      <c r="C72" t="n">
-        <v>9210</v>
-      </c>
       <c r="D72" t="n">
-        <v>9210</v>
+        <v>9150</v>
       </c>
       <c r="E72" t="n">
         <v>9140</v>
       </c>
       <c r="F72" t="n">
-        <v>137.9897</v>
+        <v>60.569</v>
       </c>
       <c r="G72" t="n">
-        <v>9228</v>
+        <v>9227.833333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +3151,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3168,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9200</v>
+        <v>9140</v>
       </c>
       <c r="C73" t="n">
-        <v>9250</v>
+        <v>9210</v>
       </c>
       <c r="D73" t="n">
-        <v>9250</v>
+        <v>9210</v>
       </c>
       <c r="E73" t="n">
-        <v>9200</v>
+        <v>9140</v>
       </c>
       <c r="F73" t="n">
-        <v>58.5</v>
+        <v>137.9897</v>
       </c>
       <c r="G73" t="n">
-        <v>9229.083333333334</v>
+        <v>9228</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +3192,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3209,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9245</v>
+        <v>9200</v>
       </c>
       <c r="C74" t="n">
-        <v>9275</v>
+        <v>9250</v>
       </c>
       <c r="D74" t="n">
-        <v>9275</v>
+        <v>9250</v>
       </c>
       <c r="E74" t="n">
-        <v>9245</v>
+        <v>9200</v>
       </c>
       <c r="F74" t="n">
-        <v>255</v>
+        <v>58.5</v>
       </c>
       <c r="G74" t="n">
-        <v>9231.25</v>
+        <v>9229.083333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,8 +3233,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,36 +3250,36 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9265</v>
+        <v>9245</v>
       </c>
       <c r="C75" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="D75" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="E75" t="n">
-        <v>9265</v>
+        <v>9245</v>
       </c>
       <c r="F75" t="n">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c r="G75" t="n">
-        <v>9231.166666666666</v>
+        <v>9231.25</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>9275</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>9200</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M75" t="n">
@@ -3029,22 +3291,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9220</v>
+        <v>9265</v>
       </c>
       <c r="C76" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="D76" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="E76" t="n">
-        <v>9220</v>
+        <v>9265</v>
       </c>
       <c r="F76" t="n">
-        <v>194.4882</v>
+        <v>111</v>
       </c>
       <c r="G76" t="n">
-        <v>9233.583333333334</v>
+        <v>9231.166666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3053,7 +3315,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>9200</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3068,22 +3332,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9215</v>
+        <v>9220</v>
       </c>
       <c r="C77" t="n">
-        <v>9215</v>
+        <v>9275</v>
       </c>
       <c r="D77" t="n">
-        <v>9215</v>
+        <v>9275</v>
       </c>
       <c r="E77" t="n">
-        <v>9215</v>
+        <v>9220</v>
       </c>
       <c r="F77" t="n">
-        <v>53.0833</v>
+        <v>194.4882</v>
       </c>
       <c r="G77" t="n">
-        <v>9233.666666666666</v>
+        <v>9233.583333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3092,7 +3356,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>9200</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3107,22 +3373,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9265</v>
+        <v>9215</v>
       </c>
       <c r="C78" t="n">
-        <v>9270</v>
+        <v>9215</v>
       </c>
       <c r="D78" t="n">
-        <v>9270</v>
+        <v>9215</v>
       </c>
       <c r="E78" t="n">
-        <v>9265</v>
+        <v>9215</v>
       </c>
       <c r="F78" t="n">
-        <v>33</v>
+        <v>53.0833</v>
       </c>
       <c r="G78" t="n">
-        <v>9234.75</v>
+        <v>9233.666666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,7 +3397,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>9200</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3146,22 +3414,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>9265</v>
+      </c>
+      <c r="C79" t="n">
         <v>9270</v>
       </c>
-      <c r="C79" t="n">
-        <v>9275</v>
-      </c>
       <c r="D79" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="E79" t="n">
-        <v>9270</v>
+        <v>9265</v>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G79" t="n">
-        <v>9236.083333333334</v>
+        <v>9234.75</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3170,7 +3438,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>9200</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3185,22 +3455,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>9270</v>
+      </c>
+      <c r="C80" t="n">
         <v>9275</v>
       </c>
-      <c r="C80" t="n">
-        <v>9280</v>
-      </c>
       <c r="D80" t="n">
-        <v>9280</v>
+        <v>9275</v>
       </c>
       <c r="E80" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="F80" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>9237.083333333334</v>
+        <v>9236.083333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3209,7 +3479,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>9200</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3227,19 +3499,19 @@
         <v>9275</v>
       </c>
       <c r="C81" t="n">
-        <v>9275</v>
+        <v>9280</v>
       </c>
       <c r="D81" t="n">
-        <v>9275</v>
+        <v>9280</v>
       </c>
       <c r="E81" t="n">
         <v>9275</v>
       </c>
       <c r="F81" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G81" t="n">
-        <v>9238.083333333334</v>
+        <v>9237.083333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3248,7 +3520,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>9200</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3275,10 +3549,10 @@
         <v>9275</v>
       </c>
       <c r="F82" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G82" t="n">
-        <v>9239.5</v>
+        <v>9238.083333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3287,7 +3561,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>9200</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3314,10 +3590,10 @@
         <v>9275</v>
       </c>
       <c r="F83" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G83" t="n">
-        <v>9240.75</v>
+        <v>9239.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3326,7 +3602,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>9200</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3353,10 +3631,10 @@
         <v>9275</v>
       </c>
       <c r="F84" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G84" t="n">
-        <v>9241.916666666666</v>
+        <v>9240.75</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3365,7 +3643,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>9200</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3380,22 +3660,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9280</v>
+        <v>9275</v>
       </c>
       <c r="C85" t="n">
-        <v>9280</v>
+        <v>9275</v>
       </c>
       <c r="D85" t="n">
-        <v>9280</v>
+        <v>9275</v>
       </c>
       <c r="E85" t="n">
-        <v>9280</v>
+        <v>9275</v>
       </c>
       <c r="F85" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G85" t="n">
-        <v>9243.25</v>
+        <v>9241.916666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3404,7 +3684,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>9200</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3434,7 +3716,7 @@
         <v>4</v>
       </c>
       <c r="G86" t="n">
-        <v>9244.583333333334</v>
+        <v>9243.25</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3443,7 +3725,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>9200</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3473,7 +3757,7 @@
         <v>4</v>
       </c>
       <c r="G87" t="n">
-        <v>9245.916666666666</v>
+        <v>9244.583333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3482,7 +3766,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>9200</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3500,19 +3786,19 @@
         <v>9280</v>
       </c>
       <c r="C88" t="n">
-        <v>9285</v>
+        <v>9280</v>
       </c>
       <c r="D88" t="n">
-        <v>9285</v>
+        <v>9280</v>
       </c>
       <c r="E88" t="n">
         <v>9280</v>
       </c>
       <c r="F88" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G88" t="n">
-        <v>9247.333333333334</v>
+        <v>9245.916666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3521,7 +3807,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>9200</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3536,7 +3824,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9285</v>
+        <v>9280</v>
       </c>
       <c r="C89" t="n">
         <v>9285</v>
@@ -3545,13 +3833,13 @@
         <v>9285</v>
       </c>
       <c r="E89" t="n">
-        <v>9285</v>
+        <v>9280</v>
       </c>
       <c r="F89" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G89" t="n">
-        <v>9248.75</v>
+        <v>9247.333333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3560,7 +3848,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>9200</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3587,10 +3877,10 @@
         <v>9285</v>
       </c>
       <c r="F90" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G90" t="n">
-        <v>9250.25</v>
+        <v>9248.75</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3599,7 +3889,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>9200</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3614,22 +3906,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="C91" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="D91" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="E91" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="F91" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G91" t="n">
-        <v>9251</v>
+        <v>9250.25</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3638,7 +3930,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>9200</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3653,22 +3947,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9190</v>
+        <v>9280</v>
       </c>
       <c r="C92" t="n">
-        <v>9190</v>
+        <v>9280</v>
       </c>
       <c r="D92" t="n">
-        <v>9190</v>
+        <v>9280</v>
       </c>
       <c r="E92" t="n">
-        <v>9190</v>
+        <v>9280</v>
       </c>
       <c r="F92" t="n">
-        <v>15.9441</v>
+        <v>33</v>
       </c>
       <c r="G92" t="n">
-        <v>9250.166666666666</v>
+        <v>9251</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3677,7 +3971,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>9200</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3692,22 +3988,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9215</v>
+        <v>9190</v>
       </c>
       <c r="C93" t="n">
-        <v>9215</v>
+        <v>9190</v>
       </c>
       <c r="D93" t="n">
-        <v>9215</v>
+        <v>9190</v>
       </c>
       <c r="E93" t="n">
-        <v>9215</v>
+        <v>9190</v>
       </c>
       <c r="F93" t="n">
-        <v>30.8975</v>
+        <v>15.9441</v>
       </c>
       <c r="G93" t="n">
-        <v>9249.666666666666</v>
+        <v>9250.166666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3716,7 +4012,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>9200</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3731,22 +4029,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9250</v>
+        <v>9215</v>
       </c>
       <c r="C94" t="n">
-        <v>9255</v>
+        <v>9215</v>
       </c>
       <c r="D94" t="n">
-        <v>9255</v>
+        <v>9215</v>
       </c>
       <c r="E94" t="n">
-        <v>9250</v>
+        <v>9215</v>
       </c>
       <c r="F94" t="n">
-        <v>60.5</v>
+        <v>30.8975</v>
       </c>
       <c r="G94" t="n">
-        <v>9249.25</v>
+        <v>9249.666666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3755,7 +4053,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>9200</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3770,22 +4070,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9220</v>
+        <v>9250</v>
       </c>
       <c r="C95" t="n">
-        <v>9220</v>
+        <v>9255</v>
       </c>
       <c r="D95" t="n">
-        <v>9220</v>
+        <v>9255</v>
       </c>
       <c r="E95" t="n">
-        <v>9220</v>
+        <v>9250</v>
       </c>
       <c r="F95" t="n">
-        <v>75.5</v>
+        <v>60.5</v>
       </c>
       <c r="G95" t="n">
-        <v>9248.416666666666</v>
+        <v>9249.25</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3794,7 +4094,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>9200</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3821,10 +4123,10 @@
         <v>9220</v>
       </c>
       <c r="F96" t="n">
-        <v>31.5</v>
+        <v>75.5</v>
       </c>
       <c r="G96" t="n">
-        <v>9247.583333333334</v>
+        <v>9248.416666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3833,7 +4135,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>9200</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3848,22 +4152,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9250</v>
+        <v>9220</v>
       </c>
       <c r="C97" t="n">
-        <v>9250</v>
+        <v>9220</v>
       </c>
       <c r="D97" t="n">
-        <v>9250</v>
+        <v>9220</v>
       </c>
       <c r="E97" t="n">
-        <v>9250</v>
+        <v>9220</v>
       </c>
       <c r="F97" t="n">
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="G97" t="n">
-        <v>9247.25</v>
+        <v>9247.583333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3872,7 +4176,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>9200</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3887,22 +4193,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9220</v>
+        <v>9250</v>
       </c>
       <c r="C98" t="n">
-        <v>9220</v>
+        <v>9250</v>
       </c>
       <c r="D98" t="n">
-        <v>9220</v>
+        <v>9250</v>
       </c>
       <c r="E98" t="n">
-        <v>9220</v>
+        <v>9250</v>
       </c>
       <c r="F98" t="n">
-        <v>4.4647</v>
+        <v>29.5</v>
       </c>
       <c r="G98" t="n">
-        <v>9247.5</v>
+        <v>9247.25</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3911,7 +4217,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>9200</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3926,22 +4234,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9245</v>
+        <v>9220</v>
       </c>
       <c r="C99" t="n">
-        <v>9245</v>
+        <v>9220</v>
       </c>
       <c r="D99" t="n">
-        <v>9245</v>
+        <v>9220</v>
       </c>
       <c r="E99" t="n">
-        <v>9235</v>
+        <v>9220</v>
       </c>
       <c r="F99" t="n">
-        <v>77.5</v>
+        <v>4.4647</v>
       </c>
       <c r="G99" t="n">
-        <v>9247.083333333334</v>
+        <v>9247.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3950,7 +4258,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>9200</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3965,22 +4275,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9240</v>
+        <v>9245</v>
       </c>
       <c r="C100" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="D100" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="E100" t="n">
-        <v>9240</v>
+        <v>9235</v>
       </c>
       <c r="F100" t="n">
-        <v>235</v>
+        <v>77.5</v>
       </c>
       <c r="G100" t="n">
-        <v>9247.25</v>
+        <v>9247.083333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3989,7 +4299,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>9200</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4004,22 +4316,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9260</v>
+        <v>9240</v>
       </c>
       <c r="C101" t="n">
-        <v>9255</v>
+        <v>9280</v>
       </c>
       <c r="D101" t="n">
-        <v>9260</v>
+        <v>9280</v>
       </c>
       <c r="E101" t="n">
-        <v>9255</v>
+        <v>9240</v>
       </c>
       <c r="F101" t="n">
-        <v>43</v>
+        <v>235</v>
       </c>
       <c r="G101" t="n">
-        <v>9247</v>
+        <v>9247.25</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4028,7 +4340,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>9200</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4043,22 +4357,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9250</v>
+        <v>9260</v>
       </c>
       <c r="C102" t="n">
-        <v>9245</v>
+        <v>9255</v>
       </c>
       <c r="D102" t="n">
-        <v>9250</v>
+        <v>9260</v>
       </c>
       <c r="E102" t="n">
-        <v>9245</v>
+        <v>9255</v>
       </c>
       <c r="F102" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G102" t="n">
-        <v>9247.666666666666</v>
+        <v>9247</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4067,7 +4381,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>9200</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4082,22 +4398,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9245</v>
+        <v>9250</v>
       </c>
       <c r="C103" t="n">
         <v>9245</v>
       </c>
       <c r="D103" t="n">
-        <v>9245</v>
+        <v>9250</v>
       </c>
       <c r="E103" t="n">
         <v>9245</v>
       </c>
       <c r="F103" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G103" t="n">
-        <v>9246.916666666666</v>
+        <v>9247.666666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4106,7 +4422,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>9200</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4121,22 +4439,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="C104" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="D104" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="E104" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="F104" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G104" t="n">
-        <v>9248.25</v>
+        <v>9246.916666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4145,7 +4463,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>9200</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4160,22 +4480,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="C105" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="D105" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="E105" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="F105" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="G105" t="n">
-        <v>9247.916666666666</v>
+        <v>9248.25</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4184,7 +4504,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>9200</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4199,22 +4521,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9280</v>
+        <v>9270</v>
       </c>
       <c r="C106" t="n">
-        <v>9280</v>
+        <v>9270</v>
       </c>
       <c r="D106" t="n">
-        <v>9280</v>
+        <v>9270</v>
       </c>
       <c r="E106" t="n">
-        <v>9280</v>
+        <v>9270</v>
       </c>
       <c r="F106" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G106" t="n">
-        <v>9247.75</v>
+        <v>9247.916666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4223,7 +4545,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>9200</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4238,22 +4562,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9255</v>
+        <v>9280</v>
       </c>
       <c r="C107" t="n">
-        <v>9255</v>
+        <v>9280</v>
       </c>
       <c r="D107" t="n">
-        <v>9255</v>
+        <v>9280</v>
       </c>
       <c r="E107" t="n">
-        <v>9255</v>
+        <v>9280</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5402</v>
+        <v>29</v>
       </c>
       <c r="G107" t="n">
-        <v>9248.833333333334</v>
+        <v>9247.75</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4262,7 +4586,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>9200</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4277,22 +4603,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9275</v>
+        <v>9255</v>
       </c>
       <c r="C108" t="n">
-        <v>9275</v>
+        <v>9255</v>
       </c>
       <c r="D108" t="n">
-        <v>9275</v>
+        <v>9255</v>
       </c>
       <c r="E108" t="n">
-        <v>9275</v>
+        <v>9255</v>
       </c>
       <c r="F108" t="n">
-        <v>652.2395</v>
+        <v>0.5402</v>
       </c>
       <c r="G108" t="n">
-        <v>9250.25</v>
+        <v>9248.833333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4301,7 +4627,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>9200</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4316,22 +4644,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9260</v>
+        <v>9275</v>
       </c>
       <c r="C109" t="n">
-        <v>9260</v>
+        <v>9275</v>
       </c>
       <c r="D109" t="n">
-        <v>9260</v>
+        <v>9275</v>
       </c>
       <c r="E109" t="n">
-        <v>9260</v>
+        <v>9275</v>
       </c>
       <c r="F109" t="n">
-        <v>1.8186</v>
+        <v>652.2395</v>
       </c>
       <c r="G109" t="n">
-        <v>9250.083333333334</v>
+        <v>9250.25</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4340,7 +4668,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>9200</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4367,10 +4697,10 @@
         <v>9260</v>
       </c>
       <c r="F110" t="n">
-        <v>192.14</v>
+        <v>1.8186</v>
       </c>
       <c r="G110" t="n">
-        <v>9249.5</v>
+        <v>9250.083333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4379,7 +4709,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>9200</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4394,22 +4726,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9215</v>
+        <v>9260</v>
       </c>
       <c r="C111" t="n">
-        <v>9280</v>
+        <v>9260</v>
       </c>
       <c r="D111" t="n">
-        <v>9280</v>
+        <v>9260</v>
       </c>
       <c r="E111" t="n">
-        <v>9215</v>
+        <v>9260</v>
       </c>
       <c r="F111" t="n">
-        <v>49.303</v>
+        <v>192.14</v>
       </c>
       <c r="G111" t="n">
-        <v>9249.333333333334</v>
+        <v>9249.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4418,7 +4750,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>9200</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4433,22 +4767,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9265</v>
+        <v>9215</v>
       </c>
       <c r="C112" t="n">
-        <v>9265</v>
+        <v>9280</v>
       </c>
       <c r="D112" t="n">
-        <v>9265</v>
+        <v>9280</v>
       </c>
       <c r="E112" t="n">
-        <v>9265</v>
+        <v>9215</v>
       </c>
       <c r="F112" t="n">
-        <v>6.4176</v>
+        <v>49.303</v>
       </c>
       <c r="G112" t="n">
-        <v>9248.916666666666</v>
+        <v>9249.333333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4457,7 +4791,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>9200</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4472,22 +4808,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9250</v>
+        <v>9265</v>
       </c>
       <c r="C113" t="n">
-        <v>9255</v>
+        <v>9265</v>
       </c>
       <c r="D113" t="n">
-        <v>9255</v>
+        <v>9265</v>
       </c>
       <c r="E113" t="n">
-        <v>9250</v>
+        <v>9265</v>
       </c>
       <c r="F113" t="n">
-        <v>30.15526066</v>
+        <v>6.4176</v>
       </c>
       <c r="G113" t="n">
-        <v>9250</v>
+        <v>9248.916666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4496,7 +4832,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>9200</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4511,22 +4849,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9245</v>
+        <v>9250</v>
       </c>
       <c r="C114" t="n">
-        <v>9200</v>
+        <v>9255</v>
       </c>
       <c r="D114" t="n">
-        <v>9245</v>
+        <v>9255</v>
       </c>
       <c r="E114" t="n">
-        <v>9200</v>
+        <v>9250</v>
       </c>
       <c r="F114" t="n">
-        <v>80.992</v>
+        <v>30.15526066</v>
       </c>
       <c r="G114" t="n">
-        <v>9250.166666666666</v>
+        <v>9250</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4535,7 +4873,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>9200</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4550,22 +4890,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9230</v>
+        <v>9245</v>
       </c>
       <c r="C115" t="n">
-        <v>9230</v>
+        <v>9200</v>
       </c>
       <c r="D115" t="n">
-        <v>9230</v>
+        <v>9245</v>
       </c>
       <c r="E115" t="n">
-        <v>9230</v>
+        <v>9200</v>
       </c>
       <c r="F115" t="n">
-        <v>9.3034</v>
+        <v>80.992</v>
       </c>
       <c r="G115" t="n">
-        <v>9249.416666666666</v>
+        <v>9250.166666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4574,7 +4914,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>9200</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4589,22 +4931,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="C116" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="D116" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="E116" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="F116" t="n">
-        <v>28.2298</v>
+        <v>9.3034</v>
       </c>
       <c r="G116" t="n">
-        <v>9248.916666666666</v>
+        <v>9249.416666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4613,7 +4955,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>9200</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4628,22 +4972,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9280</v>
+        <v>9240</v>
       </c>
       <c r="C117" t="n">
-        <v>9270</v>
+        <v>9240</v>
       </c>
       <c r="D117" t="n">
-        <v>9280</v>
+        <v>9240</v>
       </c>
       <c r="E117" t="n">
-        <v>9270</v>
+        <v>9240</v>
       </c>
       <c r="F117" t="n">
-        <v>110</v>
+        <v>28.2298</v>
       </c>
       <c r="G117" t="n">
-        <v>9248.833333333334</v>
+        <v>9248.916666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4652,7 +4996,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>9200</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4667,19 +5013,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="C118" t="n">
         <v>9270</v>
       </c>
       <c r="D118" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="E118" t="n">
         <v>9270</v>
       </c>
       <c r="F118" t="n">
-        <v>98.5</v>
+        <v>110</v>
       </c>
       <c r="G118" t="n">
         <v>9248.833333333334</v>
@@ -4691,7 +5037,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>9200</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4709,19 +5057,19 @@
         <v>9270</v>
       </c>
       <c r="C119" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="D119" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="E119" t="n">
         <v>9270</v>
       </c>
       <c r="F119" t="n">
-        <v>6</v>
+        <v>98.5</v>
       </c>
       <c r="G119" t="n">
-        <v>9248.916666666666</v>
+        <v>9248.833333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4730,7 +5078,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>9200</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4745,22 +5095,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9220</v>
+        <v>9270</v>
       </c>
       <c r="C120" t="n">
-        <v>9220</v>
+        <v>9275</v>
       </c>
       <c r="D120" t="n">
-        <v>9220</v>
+        <v>9275</v>
       </c>
       <c r="E120" t="n">
-        <v>9220</v>
+        <v>9270</v>
       </c>
       <c r="F120" t="n">
-        <v>5.8878</v>
+        <v>6</v>
       </c>
       <c r="G120" t="n">
-        <v>9248</v>
+        <v>9248.916666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4769,7 +5119,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>9200</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4784,22 +5136,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9210</v>
+        <v>9220</v>
       </c>
       <c r="C121" t="n">
-        <v>9210</v>
+        <v>9220</v>
       </c>
       <c r="D121" t="n">
-        <v>9210</v>
+        <v>9220</v>
       </c>
       <c r="E121" t="n">
-        <v>9210</v>
+        <v>9220</v>
       </c>
       <c r="F121" t="n">
-        <v>22.6889</v>
+        <v>5.8878</v>
       </c>
       <c r="G121" t="n">
-        <v>9246.916666666666</v>
+        <v>9248</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4808,7 +5160,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>9200</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4823,22 +5177,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9280</v>
+        <v>9210</v>
       </c>
       <c r="C122" t="n">
-        <v>9285</v>
+        <v>9210</v>
       </c>
       <c r="D122" t="n">
-        <v>9285</v>
+        <v>9210</v>
       </c>
       <c r="E122" t="n">
-        <v>9280</v>
+        <v>9210</v>
       </c>
       <c r="F122" t="n">
-        <v>31</v>
+        <v>22.6889</v>
       </c>
       <c r="G122" t="n">
-        <v>9247.083333333334</v>
+        <v>9246.916666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4847,7 +5201,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>9200</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4862,7 +5218,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9285</v>
+        <v>9280</v>
       </c>
       <c r="C123" t="n">
         <v>9285</v>
@@ -4871,24 +5227,24 @@
         <v>9285</v>
       </c>
       <c r="E123" t="n">
-        <v>9285</v>
+        <v>9280</v>
       </c>
       <c r="F123" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G123" t="n">
-        <v>9248.666666666666</v>
+        <v>9247.083333333334</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>9285</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>9200</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4906,19 +5262,19 @@
         <v>9285</v>
       </c>
       <c r="C124" t="n">
-        <v>9295</v>
+        <v>9285</v>
       </c>
       <c r="D124" t="n">
-        <v>9295</v>
+        <v>9285</v>
       </c>
       <c r="E124" t="n">
         <v>9285</v>
       </c>
       <c r="F124" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G124" t="n">
-        <v>9250.166666666666</v>
+        <v>9248.666666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4927,7 +5283,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>9200</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4942,7 +5300,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9295</v>
+        <v>9285</v>
       </c>
       <c r="C125" t="n">
         <v>9295</v>
@@ -4951,13 +5309,13 @@
         <v>9295</v>
       </c>
       <c r="E125" t="n">
-        <v>9295</v>
+        <v>9285</v>
       </c>
       <c r="F125" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G125" t="n">
-        <v>9252.25</v>
+        <v>9250.166666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4966,7 +5324,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>9200</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4981,7 +5341,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9290</v>
+        <v>9295</v>
       </c>
       <c r="C126" t="n">
         <v>9295</v>
@@ -4990,13 +5350,13 @@
         <v>9295</v>
       </c>
       <c r="E126" t="n">
-        <v>9290</v>
+        <v>9295</v>
       </c>
       <c r="F126" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="G126" t="n">
-        <v>9253.083333333334</v>
+        <v>9252.25</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5005,7 +5365,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>9200</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5023,19 +5385,19 @@
         <v>9290</v>
       </c>
       <c r="C127" t="n">
-        <v>9300</v>
+        <v>9295</v>
       </c>
       <c r="D127" t="n">
-        <v>9300</v>
+        <v>9295</v>
       </c>
       <c r="E127" t="n">
         <v>9290</v>
       </c>
       <c r="F127" t="n">
-        <v>73.5</v>
+        <v>32.5</v>
       </c>
       <c r="G127" t="n">
-        <v>9253.75</v>
+        <v>9253.083333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5044,7 +5406,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>9200</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5059,7 +5423,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9300</v>
+        <v>9290</v>
       </c>
       <c r="C128" t="n">
         <v>9300</v>
@@ -5068,13 +5432,13 @@
         <v>9300</v>
       </c>
       <c r="E128" t="n">
-        <v>9300</v>
+        <v>9290</v>
       </c>
       <c r="F128" t="n">
-        <v>31.5</v>
+        <v>73.5</v>
       </c>
       <c r="G128" t="n">
-        <v>9256.416666666666</v>
+        <v>9253.75</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5083,7 +5447,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>9200</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5098,22 +5464,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9290</v>
+        <v>9300</v>
       </c>
       <c r="C129" t="n">
-        <v>9290</v>
+        <v>9300</v>
       </c>
       <c r="D129" t="n">
-        <v>9290</v>
+        <v>9300</v>
       </c>
       <c r="E129" t="n">
-        <v>9290</v>
+        <v>9300</v>
       </c>
       <c r="F129" t="n">
-        <v>19.04865446</v>
+        <v>31.5</v>
       </c>
       <c r="G129" t="n">
-        <v>9258.833333333334</v>
+        <v>9256.416666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5122,7 +5488,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>9200</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5137,22 +5505,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9280</v>
+        <v>9290</v>
       </c>
       <c r="C130" t="n">
-        <v>9300</v>
+        <v>9290</v>
       </c>
       <c r="D130" t="n">
-        <v>9300</v>
+        <v>9290</v>
       </c>
       <c r="E130" t="n">
-        <v>9280</v>
+        <v>9290</v>
       </c>
       <c r="F130" t="n">
-        <v>48.5</v>
+        <v>19.04865446</v>
       </c>
       <c r="G130" t="n">
-        <v>9260.25</v>
+        <v>9258.833333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5161,7 +5529,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>9200</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5176,22 +5546,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9290</v>
+        <v>9280</v>
       </c>
       <c r="C131" t="n">
-        <v>9290</v>
+        <v>9300</v>
       </c>
       <c r="D131" t="n">
-        <v>9290</v>
+        <v>9300</v>
       </c>
       <c r="E131" t="n">
-        <v>9290</v>
+        <v>9280</v>
       </c>
       <c r="F131" t="n">
-        <v>104.2597</v>
+        <v>48.5</v>
       </c>
       <c r="G131" t="n">
-        <v>9262.75</v>
+        <v>9260.25</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5200,7 +5570,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>9200</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5215,22 +5587,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9295</v>
+        <v>9290</v>
       </c>
       <c r="C132" t="n">
-        <v>9295</v>
+        <v>9290</v>
       </c>
       <c r="D132" t="n">
-        <v>9295</v>
+        <v>9290</v>
       </c>
       <c r="E132" t="n">
-        <v>9295</v>
+        <v>9290</v>
       </c>
       <c r="F132" t="n">
-        <v>32.5208</v>
+        <v>104.2597</v>
       </c>
       <c r="G132" t="n">
-        <v>9264.166666666666</v>
+        <v>9262.75</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5239,7 +5611,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>9200</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5254,22 +5628,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9195</v>
+        <v>9295</v>
       </c>
       <c r="C133" t="n">
-        <v>9285</v>
+        <v>9295</v>
       </c>
       <c r="D133" t="n">
-        <v>9285</v>
+        <v>9295</v>
       </c>
       <c r="E133" t="n">
-        <v>9195</v>
+        <v>9295</v>
       </c>
       <c r="F133" t="n">
-        <v>34.5208</v>
+        <v>32.5208</v>
       </c>
       <c r="G133" t="n">
-        <v>9264.75</v>
+        <v>9264.166666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5278,7 +5652,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>9200</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5293,7 +5669,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9285</v>
+        <v>9195</v>
       </c>
       <c r="C134" t="n">
         <v>9285</v>
@@ -5302,13 +5678,13 @@
         <v>9285</v>
       </c>
       <c r="E134" t="n">
-        <v>9285</v>
+        <v>9195</v>
       </c>
       <c r="F134" t="n">
-        <v>12</v>
+        <v>34.5208</v>
       </c>
       <c r="G134" t="n">
-        <v>9264.916666666666</v>
+        <v>9264.75</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5317,7 +5693,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>9200</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5335,19 +5713,19 @@
         <v>9285</v>
       </c>
       <c r="C135" t="n">
-        <v>9140</v>
+        <v>9285</v>
       </c>
       <c r="D135" t="n">
-        <v>9290</v>
+        <v>9285</v>
       </c>
       <c r="E135" t="n">
-        <v>9140</v>
+        <v>9285</v>
       </c>
       <c r="F135" t="n">
-        <v>55.99947023</v>
+        <v>12</v>
       </c>
       <c r="G135" t="n">
-        <v>9262.75</v>
+        <v>9264.916666666666</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5356,7 +5734,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>9200</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5371,22 +5751,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9265</v>
+        <v>9285</v>
       </c>
       <c r="C136" t="n">
-        <v>9265</v>
+        <v>9140</v>
       </c>
       <c r="D136" t="n">
-        <v>9265</v>
+        <v>9290</v>
       </c>
       <c r="E136" t="n">
-        <v>9265</v>
+        <v>9140</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>55.99947023</v>
       </c>
       <c r="G136" t="n">
-        <v>9262.583333333334</v>
+        <v>9262.75</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5395,7 +5775,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>9200</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5410,22 +5792,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9175</v>
+        <v>9265</v>
       </c>
       <c r="C137" t="n">
-        <v>9140</v>
+        <v>9265</v>
       </c>
       <c r="D137" t="n">
-        <v>9175</v>
+        <v>9265</v>
       </c>
       <c r="E137" t="n">
-        <v>9140</v>
+        <v>9265</v>
       </c>
       <c r="F137" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>9261.333333333334</v>
+        <v>9262.583333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5434,7 +5816,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>9200</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5449,22 +5833,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9260</v>
+        <v>9175</v>
       </c>
       <c r="C138" t="n">
-        <v>9260</v>
+        <v>9140</v>
       </c>
       <c r="D138" t="n">
-        <v>9260</v>
+        <v>9175</v>
       </c>
       <c r="E138" t="n">
-        <v>9260</v>
+        <v>9140</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G138" t="n">
-        <v>9261.166666666666</v>
+        <v>9261.333333333334</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5473,7 +5857,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>9200</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5488,22 +5874,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9265</v>
+        <v>9260</v>
       </c>
       <c r="C139" t="n">
-        <v>9265</v>
+        <v>9260</v>
       </c>
       <c r="D139" t="n">
-        <v>9265</v>
+        <v>9260</v>
       </c>
       <c r="E139" t="n">
-        <v>9265</v>
+        <v>9260</v>
       </c>
       <c r="F139" t="n">
-        <v>16.44</v>
+        <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>9261</v>
+        <v>9261.166666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5512,7 +5898,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>9200</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5539,10 +5927,10 @@
         <v>9265</v>
       </c>
       <c r="F140" t="n">
-        <v>21.3365</v>
+        <v>16.44</v>
       </c>
       <c r="G140" t="n">
-        <v>9260.75</v>
+        <v>9261</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5551,7 +5939,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>9200</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5566,22 +5956,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9250</v>
+        <v>9265</v>
       </c>
       <c r="C141" t="n">
-        <v>9255</v>
+        <v>9265</v>
       </c>
       <c r="D141" t="n">
-        <v>9255</v>
+        <v>9265</v>
       </c>
       <c r="E141" t="n">
-        <v>9250</v>
+        <v>9265</v>
       </c>
       <c r="F141" t="n">
-        <v>16</v>
+        <v>21.3365</v>
       </c>
       <c r="G141" t="n">
-        <v>9260.416666666666</v>
+        <v>9260.75</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5590,7 +5980,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>9200</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5608,19 +6000,19 @@
         <v>9250</v>
       </c>
       <c r="C142" t="n">
-        <v>9250</v>
+        <v>9255</v>
       </c>
       <c r="D142" t="n">
-        <v>9250</v>
+        <v>9255</v>
       </c>
       <c r="E142" t="n">
         <v>9250</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G142" t="n">
-        <v>9260</v>
+        <v>9260.416666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5629,7 +6021,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>9200</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5647,19 +6041,19 @@
         <v>9250</v>
       </c>
       <c r="C143" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="D143" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="E143" t="n">
         <v>9250</v>
       </c>
       <c r="F143" t="n">
-        <v>1.9997947</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
-        <v>9259.666666666666</v>
+        <v>9260</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5668,7 +6062,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>9200</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5683,22 +6079,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>9250</v>
+      </c>
+      <c r="C144" t="n">
         <v>9255</v>
       </c>
-      <c r="C144" t="n">
-        <v>9260</v>
-      </c>
       <c r="D144" t="n">
-        <v>9260</v>
+        <v>9255</v>
       </c>
       <c r="E144" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="F144" t="n">
-        <v>6.99951782</v>
+        <v>1.9997947</v>
       </c>
       <c r="G144" t="n">
-        <v>9259.416666666666</v>
+        <v>9259.666666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5707,7 +6103,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>9200</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5725,19 +6123,19 @@
         <v>9255</v>
       </c>
       <c r="C145" t="n">
-        <v>9255</v>
+        <v>9260</v>
       </c>
       <c r="D145" t="n">
-        <v>9255</v>
+        <v>9260</v>
       </c>
       <c r="E145" t="n">
         <v>9255</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>6.99951782</v>
       </c>
       <c r="G145" t="n">
-        <v>9259</v>
+        <v>9259.416666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5746,7 +6144,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>9200</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5761,22 +6161,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9190</v>
+        <v>9255</v>
       </c>
       <c r="C146" t="n">
-        <v>9185</v>
+        <v>9255</v>
       </c>
       <c r="D146" t="n">
-        <v>9190</v>
+        <v>9255</v>
       </c>
       <c r="E146" t="n">
-        <v>9185</v>
+        <v>9255</v>
       </c>
       <c r="F146" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>9257.416666666666</v>
+        <v>9259</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5785,7 +6185,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>9200</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5800,22 +6202,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9250</v>
+        <v>9190</v>
       </c>
       <c r="C147" t="n">
-        <v>9250</v>
+        <v>9185</v>
       </c>
       <c r="D147" t="n">
-        <v>9250</v>
+        <v>9190</v>
       </c>
       <c r="E147" t="n">
-        <v>9250</v>
+        <v>9185</v>
       </c>
       <c r="F147" t="n">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="G147" t="n">
-        <v>9256.916666666666</v>
+        <v>9257.416666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5824,7 +6226,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>9200</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5839,7 +6243,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9245</v>
+        <v>9250</v>
       </c>
       <c r="C148" t="n">
         <v>9250</v>
@@ -5848,13 +6252,13 @@
         <v>9250</v>
       </c>
       <c r="E148" t="n">
-        <v>9245</v>
+        <v>9250</v>
       </c>
       <c r="F148" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="G148" t="n">
-        <v>9256.333333333334</v>
+        <v>9256.916666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5863,7 +6267,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>9200</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5878,22 +6284,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9255</v>
+        <v>9245</v>
       </c>
       <c r="C149" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="D149" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="E149" t="n">
-        <v>9255</v>
+        <v>9245</v>
       </c>
       <c r="F149" t="n">
-        <v>37.7228</v>
+        <v>6</v>
       </c>
       <c r="G149" t="n">
-        <v>9255.833333333334</v>
+        <v>9256.333333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5902,7 +6308,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>9200</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5917,33 +6325,33 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9250</v>
+        <v>9255</v>
       </c>
       <c r="C150" t="n">
-        <v>9250</v>
+        <v>9255</v>
       </c>
       <c r="D150" t="n">
-        <v>9250</v>
+        <v>9255</v>
       </c>
       <c r="E150" t="n">
-        <v>9250</v>
+        <v>9255</v>
       </c>
       <c r="F150" t="n">
-        <v>24.6299</v>
+        <v>37.7228</v>
       </c>
       <c r="G150" t="n">
-        <v>9255.25</v>
+        <v>9255.833333333334</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>9255</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>9200</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5958,22 +6366,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9260</v>
+        <v>9250</v>
       </c>
       <c r="C151" t="n">
-        <v>9265</v>
+        <v>9250</v>
       </c>
       <c r="D151" t="n">
-        <v>9265</v>
+        <v>9250</v>
       </c>
       <c r="E151" t="n">
-        <v>9260</v>
+        <v>9250</v>
       </c>
       <c r="F151" t="n">
-        <v>89.5</v>
+        <v>24.6299</v>
       </c>
       <c r="G151" t="n">
-        <v>9255</v>
+        <v>9255.25</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5982,7 +6390,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>9200</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5997,7 +6407,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9265</v>
+        <v>9260</v>
       </c>
       <c r="C152" t="n">
         <v>9265</v>
@@ -6006,13 +6416,13 @@
         <v>9265</v>
       </c>
       <c r="E152" t="n">
-        <v>9265</v>
+        <v>9260</v>
       </c>
       <c r="F152" t="n">
-        <v>69</v>
+        <v>89.5</v>
       </c>
       <c r="G152" t="n">
-        <v>9256.25</v>
+        <v>9255</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6021,7 +6431,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>9200</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6048,10 +6460,10 @@
         <v>9265</v>
       </c>
       <c r="F153" t="n">
-        <v>60.5</v>
+        <v>69</v>
       </c>
       <c r="G153" t="n">
-        <v>9257.083333333334</v>
+        <v>9256.25</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6060,7 +6472,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>9200</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6075,22 +6489,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>9195</v>
+        <v>9265</v>
       </c>
       <c r="C154" t="n">
-        <v>9195</v>
+        <v>9265</v>
       </c>
       <c r="D154" t="n">
-        <v>9195</v>
+        <v>9265</v>
       </c>
       <c r="E154" t="n">
-        <v>9195</v>
+        <v>9265</v>
       </c>
       <c r="F154" t="n">
-        <v>1.996</v>
+        <v>60.5</v>
       </c>
       <c r="G154" t="n">
-        <v>9256.083333333334</v>
+        <v>9257.083333333334</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6099,7 +6513,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>9200</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6114,22 +6530,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>9260</v>
+        <v>9195</v>
       </c>
       <c r="C155" t="n">
-        <v>9265</v>
+        <v>9195</v>
       </c>
       <c r="D155" t="n">
-        <v>9265</v>
+        <v>9195</v>
       </c>
       <c r="E155" t="n">
-        <v>9260</v>
+        <v>9195</v>
       </c>
       <c r="F155" t="n">
-        <v>2</v>
+        <v>1.996</v>
       </c>
       <c r="G155" t="n">
-        <v>9256.833333333334</v>
+        <v>9256.083333333334</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6138,7 +6554,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>9200</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6153,22 +6571,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>9195</v>
+        <v>9260</v>
       </c>
       <c r="C156" t="n">
-        <v>9195</v>
+        <v>9265</v>
       </c>
       <c r="D156" t="n">
-        <v>9195</v>
+        <v>9265</v>
       </c>
       <c r="E156" t="n">
-        <v>9195</v>
+        <v>9260</v>
       </c>
       <c r="F156" t="n">
-        <v>10.3605</v>
+        <v>2</v>
       </c>
       <c r="G156" t="n">
-        <v>9256.416666666666</v>
+        <v>9256.833333333334</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6177,7 +6595,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>9200</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6192,22 +6612,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>9260</v>
+        <v>9195</v>
       </c>
       <c r="C157" t="n">
-        <v>9265</v>
+        <v>9195</v>
       </c>
       <c r="D157" t="n">
-        <v>9265</v>
+        <v>9195</v>
       </c>
       <c r="E157" t="n">
-        <v>9260</v>
+        <v>9195</v>
       </c>
       <c r="F157" t="n">
-        <v>10.99965488</v>
+        <v>10.3605</v>
       </c>
       <c r="G157" t="n">
-        <v>9256.666666666666</v>
+        <v>9256.416666666666</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6216,7 +6636,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>9200</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6231,22 +6653,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>9185</v>
+        <v>9260</v>
       </c>
       <c r="C158" t="n">
-        <v>9185</v>
+        <v>9265</v>
       </c>
       <c r="D158" t="n">
-        <v>9185</v>
+        <v>9265</v>
       </c>
       <c r="E158" t="n">
-        <v>9185</v>
+        <v>9260</v>
       </c>
       <c r="F158" t="n">
-        <v>11.0324</v>
+        <v>10.99965488</v>
       </c>
       <c r="G158" t="n">
-        <v>9256.083333333334</v>
+        <v>9256.666666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6255,7 +6677,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>9200</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6282,10 +6706,10 @@
         <v>9185</v>
       </c>
       <c r="F159" t="n">
-        <v>62.1968</v>
+        <v>11.0324</v>
       </c>
       <c r="G159" t="n">
-        <v>9255.083333333334</v>
+        <v>9256.083333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6294,7 +6718,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>9200</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6309,22 +6735,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9250</v>
+        <v>9185</v>
       </c>
       <c r="C160" t="n">
-        <v>9255</v>
+        <v>9185</v>
       </c>
       <c r="D160" t="n">
-        <v>9255</v>
+        <v>9185</v>
       </c>
       <c r="E160" t="n">
-        <v>9250</v>
+        <v>9185</v>
       </c>
       <c r="F160" t="n">
-        <v>29.5</v>
+        <v>62.1968</v>
       </c>
       <c r="G160" t="n">
-        <v>9254.666666666666</v>
+        <v>9255.083333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6333,7 +6759,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>9200</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6348,7 +6776,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="C161" t="n">
         <v>9255</v>
@@ -6357,10 +6785,10 @@
         <v>9255</v>
       </c>
       <c r="E161" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="F161" t="n">
-        <v>31.5</v>
+        <v>29.5</v>
       </c>
       <c r="G161" t="n">
         <v>9254.666666666666</v>
@@ -6372,7 +6800,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>9200</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6390,19 +6820,19 @@
         <v>9255</v>
       </c>
       <c r="C162" t="n">
-        <v>9265</v>
+        <v>9255</v>
       </c>
       <c r="D162" t="n">
-        <v>9265</v>
+        <v>9255</v>
       </c>
       <c r="E162" t="n">
         <v>9255</v>
       </c>
       <c r="F162" t="n">
-        <v>189.5</v>
+        <v>31.5</v>
       </c>
       <c r="G162" t="n">
-        <v>9255</v>
+        <v>9254.666666666666</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6411,7 +6841,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>9200</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6426,7 +6858,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>9265</v>
+        <v>9255</v>
       </c>
       <c r="C163" t="n">
         <v>9265</v>
@@ -6435,13 +6867,13 @@
         <v>9265</v>
       </c>
       <c r="E163" t="n">
-        <v>9265</v>
+        <v>9255</v>
       </c>
       <c r="F163" t="n">
-        <v>10</v>
+        <v>189.5</v>
       </c>
       <c r="G163" t="n">
-        <v>9255.333333333334</v>
+        <v>9255</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6450,7 +6882,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>9200</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6480,7 +6914,7 @@
         <v>10</v>
       </c>
       <c r="G164" t="n">
-        <v>9255.083333333334</v>
+        <v>9255.333333333334</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6489,7 +6923,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>9200</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6516,10 +6952,10 @@
         <v>9265</v>
       </c>
       <c r="F165" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>9255</v>
+        <v>9255.083333333334</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6528,7 +6964,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>9200</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6555,10 +6993,10 @@
         <v>9265</v>
       </c>
       <c r="F166" t="n">
-        <v>0.38804512</v>
+        <v>16</v>
       </c>
       <c r="G166" t="n">
-        <v>9254.75</v>
+        <v>9255</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6567,7 +7005,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>9200</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6582,22 +7022,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>9295</v>
+        <v>9265</v>
       </c>
       <c r="C167" t="n">
-        <v>9295</v>
+        <v>9265</v>
       </c>
       <c r="D167" t="n">
-        <v>9295</v>
+        <v>9265</v>
       </c>
       <c r="E167" t="n">
-        <v>9295</v>
+        <v>9265</v>
       </c>
       <c r="F167" t="n">
-        <v>5.7348</v>
+        <v>0.38804512</v>
       </c>
       <c r="G167" t="n">
-        <v>9255.416666666666</v>
+        <v>9254.75</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6606,7 +7046,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>9200</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6621,22 +7063,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>9300</v>
+        <v>9295</v>
       </c>
       <c r="C168" t="n">
-        <v>9300</v>
+        <v>9295</v>
       </c>
       <c r="D168" t="n">
-        <v>9300</v>
+        <v>9295</v>
       </c>
       <c r="E168" t="n">
-        <v>9300</v>
+        <v>9295</v>
       </c>
       <c r="F168" t="n">
-        <v>75.5</v>
+        <v>5.7348</v>
       </c>
       <c r="G168" t="n">
-        <v>9255.833333333334</v>
+        <v>9255.416666666666</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6645,7 +7087,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>9200</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6672,10 +7116,10 @@
         <v>9300</v>
       </c>
       <c r="F169" t="n">
-        <v>31.5</v>
+        <v>75.5</v>
       </c>
       <c r="G169" t="n">
-        <v>9256.5</v>
+        <v>9255.833333333334</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6684,7 +7128,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>9200</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6711,10 +7157,10 @@
         <v>9300</v>
       </c>
       <c r="F170" t="n">
-        <v>33</v>
+        <v>31.5</v>
       </c>
       <c r="G170" t="n">
-        <v>9257.166666666666</v>
+        <v>9256.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6723,7 +7169,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>9200</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6750,10 +7198,10 @@
         <v>9300</v>
       </c>
       <c r="F171" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G171" t="n">
-        <v>9257.5</v>
+        <v>9257.166666666666</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6762,7 +7210,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>9200</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6789,10 +7239,10 @@
         <v>9300</v>
       </c>
       <c r="F172" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G172" t="n">
-        <v>9258.083333333334</v>
+        <v>9257.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6801,7 +7251,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>9200</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6819,19 +7271,19 @@
         <v>9300</v>
       </c>
       <c r="C173" t="n">
-        <v>9320</v>
+        <v>9300</v>
       </c>
       <c r="D173" t="n">
-        <v>9320</v>
+        <v>9300</v>
       </c>
       <c r="E173" t="n">
         <v>9300</v>
       </c>
       <c r="F173" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G173" t="n">
-        <v>9259.166666666666</v>
+        <v>9258.083333333334</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6840,7 +7292,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>9200</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6855,7 +7309,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>9320</v>
+        <v>9300</v>
       </c>
       <c r="C174" t="n">
         <v>9320</v>
@@ -6864,13 +7318,13 @@
         <v>9320</v>
       </c>
       <c r="E174" t="n">
-        <v>9320</v>
+        <v>9300</v>
       </c>
       <c r="F174" t="n">
-        <v>18.7</v>
+        <v>33</v>
       </c>
       <c r="G174" t="n">
-        <v>9261.166666666666</v>
+        <v>9259.166666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6879,7 +7333,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>9200</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6894,22 +7350,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>9245</v>
+        <v>9320</v>
       </c>
       <c r="C175" t="n">
-        <v>9215</v>
+        <v>9320</v>
       </c>
       <c r="D175" t="n">
-        <v>9245</v>
+        <v>9320</v>
       </c>
       <c r="E175" t="n">
-        <v>9215</v>
+        <v>9320</v>
       </c>
       <c r="F175" t="n">
-        <v>300</v>
+        <v>18.7</v>
       </c>
       <c r="G175" t="n">
-        <v>9260.916666666666</v>
+        <v>9261.166666666666</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6918,7 +7374,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>9200</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6933,22 +7391,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>9300</v>
+        <v>9245</v>
       </c>
       <c r="C176" t="n">
-        <v>9330</v>
+        <v>9215</v>
       </c>
       <c r="D176" t="n">
-        <v>9330</v>
+        <v>9245</v>
       </c>
       <c r="E176" t="n">
-        <v>9300</v>
+        <v>9215</v>
       </c>
       <c r="F176" t="n">
-        <v>39.5</v>
+        <v>300</v>
       </c>
       <c r="G176" t="n">
-        <v>9262.416666666666</v>
+        <v>9260.916666666666</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6957,7 +7415,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>9200</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6972,7 +7432,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>9330</v>
+        <v>9300</v>
       </c>
       <c r="C177" t="n">
         <v>9330</v>
@@ -6981,13 +7441,13 @@
         <v>9330</v>
       </c>
       <c r="E177" t="n">
-        <v>9330</v>
+        <v>9300</v>
       </c>
       <c r="F177" t="n">
-        <v>23</v>
+        <v>39.5</v>
       </c>
       <c r="G177" t="n">
-        <v>9263.416666666666</v>
+        <v>9262.416666666666</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6996,7 +7456,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>9200</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7011,19 +7473,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>9280</v>
+        <v>9330</v>
       </c>
       <c r="C178" t="n">
-        <v>9270</v>
+        <v>9330</v>
       </c>
       <c r="D178" t="n">
-        <v>9280</v>
+        <v>9330</v>
       </c>
       <c r="E178" t="n">
-        <v>9270</v>
+        <v>9330</v>
       </c>
       <c r="F178" t="n">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="G178" t="n">
         <v>9263.416666666666</v>
@@ -7035,13 +7497,56 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>9200</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
       <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9280</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9270</v>
+      </c>
+      <c r="D179" t="n">
+        <v>9280</v>
+      </c>
+      <c r="E179" t="n">
+        <v>9270</v>
+      </c>
+      <c r="F179" t="n">
+        <v>116</v>
+      </c>
+      <c r="G179" t="n">
+        <v>9263.416666666666</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>9200</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-14 BackTest BTG.xlsx
+++ b/BackTest/2019-10-14 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M179"/>
+  <dimension ref="A1:N189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>24</v>
       </c>
       <c r="G2" t="n">
+        <v>9223.333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>9202.25</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>16</v>
       </c>
       <c r="G3" t="n">
+        <v>9231.333333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>9202.5</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>12.3337</v>
       </c>
       <c r="G4" t="n">
+        <v>9245</v>
+      </c>
+      <c r="H4" t="n">
         <v>9203.166666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>70</v>
       </c>
       <c r="G5" t="n">
+        <v>9254.666666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>9203.833333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>11.5</v>
       </c>
       <c r="G6" t="n">
+        <v>9264.333333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>9204.583333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>33</v>
       </c>
       <c r="G7" t="n">
+        <v>9276.333333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>9205.166666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>102</v>
       </c>
       <c r="G8" t="n">
+        <v>9280.333333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>9204.416666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>165</v>
       </c>
       <c r="G9" t="n">
+        <v>9279</v>
+      </c>
+      <c r="H9" t="n">
         <v>9203.333333333334</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>55</v>
       </c>
       <c r="G10" t="n">
+        <v>9278</v>
+      </c>
+      <c r="H10" t="n">
         <v>9201.416666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>6</v>
       </c>
       <c r="G11" t="n">
+        <v>9277.333333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>9201.916666666666</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>22</v>
       </c>
       <c r="G12" t="n">
+        <v>9276.666666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>9202.416666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>2.2925</v>
       </c>
       <c r="G13" t="n">
+        <v>9270</v>
+      </c>
+      <c r="H13" t="n">
         <v>9200.5</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>222.1019</v>
       </c>
       <c r="G14" t="n">
+        <v>9262.333333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>9199.583333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>666.3059</v>
       </c>
       <c r="G15" t="n">
+        <v>9252</v>
+      </c>
+      <c r="H15" t="n">
         <v>9198.166666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>190.5</v>
       </c>
       <c r="G16" t="n">
+        <v>9251.333333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>9199</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1.6966</v>
       </c>
       <c r="G17" t="n">
+        <v>9241</v>
+      </c>
+      <c r="H17" t="n">
         <v>9197.583333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>40.367</v>
       </c>
       <c r="G18" t="n">
+        <v>9236</v>
+      </c>
+      <c r="H18" t="n">
         <v>9197.5</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>196.3931</v>
       </c>
       <c r="G19" t="n">
+        <v>9229</v>
+      </c>
+      <c r="H19" t="n">
         <v>9197.333333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>6.44</v>
       </c>
       <c r="G20" t="n">
+        <v>9221.333333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>9198.333333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>100</v>
       </c>
       <c r="G21" t="n">
+        <v>9215.333333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>9198.5</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>96</v>
       </c>
       <c r="G22" t="n">
+        <v>9209</v>
+      </c>
+      <c r="H22" t="n">
         <v>9200</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>174.2624</v>
       </c>
       <c r="G23" t="n">
+        <v>9206.333333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>9199.833333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>30</v>
       </c>
       <c r="G24" t="n">
+        <v>9206.333333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>9200.333333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>40.3357</v>
       </c>
       <c r="G25" t="n">
+        <v>9206.333333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>9200.916666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>6.047</v>
       </c>
       <c r="G26" t="n">
+        <v>9202.333333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>9201.416666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>4.7215</v>
       </c>
       <c r="G27" t="n">
+        <v>9198.333333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>9201.916666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>45.0517</v>
       </c>
       <c r="G28" t="n">
+        <v>9198.333333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>9202.416666666666</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>9.9</v>
       </c>
       <c r="G29" t="n">
+        <v>9199.333333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>9202.916666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,27 @@
         <v>47.974</v>
       </c>
       <c r="G30" t="n">
+        <v>9203</v>
+      </c>
+      <c r="H30" t="n">
         <v>9203.416666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>9200</v>
+      </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,22 +1561,27 @@
         <v>6</v>
       </c>
       <c r="G31" t="n">
+        <v>9197.666666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>9203.916666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>9200</v>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,24 +1605,27 @@
         <v>80.5</v>
       </c>
       <c r="G32" t="n">
+        <v>9204.666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>9205.083333333334</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+        <v>9195</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1546,21 +1652,24 @@
         <v>9206.666666666666</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>9206.666666666666</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+        <v>9235</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,24 +1693,25 @@
         <v>2</v>
       </c>
       <c r="G34" t="n">
+        <v>9209.333333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>9208.333333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1625,24 +1735,25 @@
         <v>10</v>
       </c>
       <c r="G35" t="n">
+        <v>9215</v>
+      </c>
+      <c r="H35" t="n">
         <v>9210.583333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1666,24 +1777,25 @@
         <v>42.6163</v>
       </c>
       <c r="G36" t="n">
+        <v>9218.333333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>9212.666666666666</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1707,24 +1819,25 @@
         <v>30.5</v>
       </c>
       <c r="G37" t="n">
+        <v>9222</v>
+      </c>
+      <c r="H37" t="n">
         <v>9214.583333333334</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1748,24 +1861,25 @@
         <v>53.8396</v>
       </c>
       <c r="G38" t="n">
+        <v>9227.333333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>9217.416666666666</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1789,24 +1903,25 @@
         <v>2</v>
       </c>
       <c r="G39" t="n">
+        <v>9227.666666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>9218.25</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1830,24 +1945,25 @@
         <v>32.5</v>
       </c>
       <c r="G40" t="n">
+        <v>9232</v>
+      </c>
+      <c r="H40" t="n">
         <v>9220.083333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1871,24 +1987,25 @@
         <v>39.5</v>
       </c>
       <c r="G41" t="n">
+        <v>9236.666666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>9221.916666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1912,24 +2029,25 @@
         <v>71</v>
       </c>
       <c r="G42" t="n">
+        <v>9241.333333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>9223.833333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,24 +2071,25 @@
         <v>7.044</v>
       </c>
       <c r="G43" t="n">
+        <v>9241.666666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>9224.666666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1994,24 +2113,25 @@
         <v>44</v>
       </c>
       <c r="G44" t="n">
+        <v>9247.666666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>9226.833333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2035,24 +2155,25 @@
         <v>190</v>
       </c>
       <c r="G45" t="n">
+        <v>9247.666666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>9227.5</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,24 +2197,25 @@
         <v>8</v>
       </c>
       <c r="G46" t="n">
+        <v>9254</v>
+      </c>
+      <c r="H46" t="n">
         <v>9229.583333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2117,24 +2239,25 @@
         <v>45</v>
       </c>
       <c r="G47" t="n">
+        <v>9257.666666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>9231.666666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2158,24 +2281,25 @@
         <v>153.7523</v>
       </c>
       <c r="G48" t="n">
+        <v>9254.333333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>9232.083333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2199,24 +2323,25 @@
         <v>121.2524</v>
       </c>
       <c r="G49" t="n">
+        <v>9250.666666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>9233.5</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2240,24 +2365,25 @@
         <v>18</v>
       </c>
       <c r="G50" t="n">
+        <v>9250</v>
+      </c>
+      <c r="H50" t="n">
         <v>9235.25</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2281,24 +2407,25 @@
         <v>8</v>
       </c>
       <c r="G51" t="n">
+        <v>9251.666666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>9237.416666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2322,24 +2449,25 @@
         <v>33</v>
       </c>
       <c r="G52" t="n">
+        <v>9253</v>
+      </c>
+      <c r="H52" t="n">
         <v>9240.083333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2363,24 +2491,25 @@
         <v>29.5</v>
       </c>
       <c r="G53" t="n">
+        <v>9254.333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>9242.083333333334</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2404,24 +2533,25 @@
         <v>2.0454</v>
       </c>
       <c r="G54" t="n">
+        <v>9253.333333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>9241.583333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2445,24 +2575,25 @@
         <v>39.5706</v>
       </c>
       <c r="G55" t="n">
+        <v>9248</v>
+      </c>
+      <c r="H55" t="n">
         <v>9241.083333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2486,24 +2617,25 @@
         <v>35</v>
       </c>
       <c r="G56" t="n">
+        <v>9248.333333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>9241.166666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2527,24 +2659,25 @@
         <v>6</v>
       </c>
       <c r="G57" t="n">
+        <v>9248.333333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>9241.166666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,24 +2701,25 @@
         <v>6.38</v>
       </c>
       <c r="G58" t="n">
+        <v>9253</v>
+      </c>
+      <c r="H58" t="n">
         <v>9240.75</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2609,24 +2743,25 @@
         <v>16.6493</v>
       </c>
       <c r="G59" t="n">
+        <v>9251.666666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>9240.25</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2650,24 +2785,25 @@
         <v>60</v>
       </c>
       <c r="G60" t="n">
+        <v>9256.333333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>9239.75</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2691,24 +2827,25 @@
         <v>0.10781671</v>
       </c>
       <c r="G61" t="n">
+        <v>9255.333333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>9239.583333333334</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2732,24 +2869,25 @@
         <v>20.2156</v>
       </c>
       <c r="G62" t="n">
+        <v>9254.333333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>9239.416666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2773,24 +2911,25 @@
         <v>45</v>
       </c>
       <c r="G63" t="n">
+        <v>9260</v>
+      </c>
+      <c r="H63" t="n">
         <v>9239.25</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2814,24 +2953,25 @@
         <v>114</v>
       </c>
       <c r="G64" t="n">
+        <v>9260</v>
+      </c>
+      <c r="H64" t="n">
         <v>9237.25</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2855,24 +2995,25 @@
         <v>290</v>
       </c>
       <c r="G65" t="n">
+        <v>9255.666666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>9235.5</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,24 +3037,25 @@
         <v>260</v>
       </c>
       <c r="G66" t="n">
+        <v>9247.333333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>9233.166666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2937,24 +3079,25 @@
         <v>286.3054</v>
       </c>
       <c r="G67" t="n">
+        <v>9244.333333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>9232.083333333334</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2978,24 +3121,25 @@
         <v>52</v>
       </c>
       <c r="G68" t="n">
+        <v>9242.333333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>9232.583333333334</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,24 +3163,25 @@
         <v>230</v>
       </c>
       <c r="G69" t="n">
+        <v>9239</v>
+      </c>
+      <c r="H69" t="n">
         <v>9231.583333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,24 +3205,25 @@
         <v>59.6</v>
       </c>
       <c r="G70" t="n">
+        <v>9236</v>
+      </c>
+      <c r="H70" t="n">
         <v>9230.583333333334</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3101,24 +3247,25 @@
         <v>24</v>
       </c>
       <c r="G71" t="n">
+        <v>9232</v>
+      </c>
+      <c r="H71" t="n">
         <v>9229.833333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,24 +3289,25 @@
         <v>60.569</v>
       </c>
       <c r="G72" t="n">
+        <v>9223.333333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>9227.833333333334</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3183,24 +3331,25 @@
         <v>137.9897</v>
       </c>
       <c r="G73" t="n">
+        <v>9219</v>
+      </c>
+      <c r="H73" t="n">
         <v>9228</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3224,24 +3373,25 @@
         <v>58.5</v>
       </c>
       <c r="G74" t="n">
+        <v>9217.666666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>9229.083333333334</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3265,24 +3415,25 @@
         <v>255</v>
       </c>
       <c r="G75" t="n">
+        <v>9218</v>
+      </c>
+      <c r="H75" t="n">
         <v>9231.25</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3306,24 +3457,25 @@
         <v>111</v>
       </c>
       <c r="G76" t="n">
+        <v>9217.666666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>9231.166666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3347,24 +3499,25 @@
         <v>194.4882</v>
       </c>
       <c r="G77" t="n">
+        <v>9217.666666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>9233.583333333334</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,24 +3541,25 @@
         <v>53.0833</v>
       </c>
       <c r="G78" t="n">
+        <v>9213.666666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>9233.666666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3429,24 +3583,25 @@
         <v>33</v>
       </c>
       <c r="G79" t="n">
+        <v>9219</v>
+      </c>
+      <c r="H79" t="n">
         <v>9234.75</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3470,24 +3625,25 @@
         <v>100</v>
       </c>
       <c r="G80" t="n">
+        <v>9223.666666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>9236.083333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3511,24 +3667,25 @@
         <v>28</v>
       </c>
       <c r="G81" t="n">
+        <v>9231</v>
+      </c>
+      <c r="H81" t="n">
         <v>9237.083333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3552,24 +3709,25 @@
         <v>53</v>
       </c>
       <c r="G82" t="n">
+        <v>9233</v>
+      </c>
+      <c r="H82" t="n">
         <v>9238.083333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3593,24 +3751,25 @@
         <v>14</v>
       </c>
       <c r="G83" t="n">
+        <v>9234</v>
+      </c>
+      <c r="H83" t="n">
         <v>9239.5</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3634,24 +3793,25 @@
         <v>12</v>
       </c>
       <c r="G84" t="n">
+        <v>9243</v>
+      </c>
+      <c r="H84" t="n">
         <v>9240.75</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3675,24 +3835,25 @@
         <v>26</v>
       </c>
       <c r="G85" t="n">
+        <v>9251.666666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>9241.916666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3716,24 +3877,25 @@
         <v>4</v>
       </c>
       <c r="G86" t="n">
+        <v>9256</v>
+      </c>
+      <c r="H86" t="n">
         <v>9243.25</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3757,24 +3919,25 @@
         <v>4</v>
       </c>
       <c r="G87" t="n">
+        <v>9265.333333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>9244.583333333334</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3798,24 +3961,25 @@
         <v>4</v>
       </c>
       <c r="G88" t="n">
+        <v>9270</v>
+      </c>
+      <c r="H88" t="n">
         <v>9245.916666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3839,24 +4003,25 @@
         <v>8</v>
       </c>
       <c r="G89" t="n">
+        <v>9272.333333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>9247.333333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3880,24 +4045,25 @@
         <v>14</v>
       </c>
       <c r="G90" t="n">
+        <v>9273</v>
+      </c>
+      <c r="H90" t="n">
         <v>9248.75</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3921,24 +4087,25 @@
         <v>6</v>
       </c>
       <c r="G91" t="n">
+        <v>9274</v>
+      </c>
+      <c r="H91" t="n">
         <v>9250.25</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3962,24 +4129,25 @@
         <v>33</v>
       </c>
       <c r="G92" t="n">
+        <v>9274.333333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>9251</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,24 +4171,25 @@
         <v>15.9441</v>
       </c>
       <c r="G93" t="n">
+        <v>9272.666666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>9250.166666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4044,24 +4213,25 @@
         <v>30.8975</v>
       </c>
       <c r="G94" t="n">
+        <v>9269</v>
+      </c>
+      <c r="H94" t="n">
         <v>9249.666666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4085,24 +4255,25 @@
         <v>60.5</v>
       </c>
       <c r="G95" t="n">
+        <v>9267.666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>9249.25</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4126,24 +4297,25 @@
         <v>75.5</v>
       </c>
       <c r="G96" t="n">
+        <v>9263.666666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>9248.416666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4167,24 +4339,25 @@
         <v>31.5</v>
       </c>
       <c r="G97" t="n">
+        <v>9260</v>
+      </c>
+      <c r="H97" t="n">
         <v>9247.583333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4208,24 +4381,25 @@
         <v>29.5</v>
       </c>
       <c r="G98" t="n">
+        <v>9258.333333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>9247.25</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4249,24 +4423,25 @@
         <v>4.4647</v>
       </c>
       <c r="G99" t="n">
+        <v>9254.666666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>9247.5</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4290,24 +4465,25 @@
         <v>77.5</v>
       </c>
       <c r="G100" t="n">
+        <v>9252.666666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>9247.083333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4331,24 +4507,25 @@
         <v>235</v>
       </c>
       <c r="G101" t="n">
+        <v>9252.666666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>9247.25</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,24 +4549,25 @@
         <v>43</v>
       </c>
       <c r="G102" t="n">
+        <v>9251</v>
+      </c>
+      <c r="H102" t="n">
         <v>9247</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4413,24 +4591,25 @@
         <v>48</v>
       </c>
       <c r="G103" t="n">
+        <v>9248.666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>9247.666666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,24 +4633,25 @@
         <v>30</v>
       </c>
       <c r="G104" t="n">
+        <v>9246</v>
+      </c>
+      <c r="H104" t="n">
         <v>9246.916666666666</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4495,24 +4675,25 @@
         <v>4</v>
       </c>
       <c r="G105" t="n">
+        <v>9245.666666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>9248.25</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4536,24 +4717,25 @@
         <v>40</v>
       </c>
       <c r="G106" t="n">
+        <v>9244.666666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>9247.916666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4577,24 +4759,25 @@
         <v>29</v>
       </c>
       <c r="G107" t="n">
+        <v>9244.666666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>9247.75</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,24 +4801,25 @@
         <v>0.5402</v>
       </c>
       <c r="G108" t="n">
+        <v>9249</v>
+      </c>
+      <c r="H108" t="n">
         <v>9248.833333333334</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4659,24 +4843,25 @@
         <v>652.2395</v>
       </c>
       <c r="G109" t="n">
+        <v>9253</v>
+      </c>
+      <c r="H109" t="n">
         <v>9250.25</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4700,24 +4885,25 @@
         <v>1.8186</v>
       </c>
       <c r="G110" t="n">
+        <v>9253.333333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>9250.083333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4741,24 +4927,25 @@
         <v>192.14</v>
       </c>
       <c r="G111" t="n">
+        <v>9256</v>
+      </c>
+      <c r="H111" t="n">
         <v>9249.5</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4782,24 +4969,25 @@
         <v>49.303</v>
       </c>
       <c r="G112" t="n">
+        <v>9260</v>
+      </c>
+      <c r="H112" t="n">
         <v>9249.333333333334</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,24 +5011,25 @@
         <v>6.4176</v>
       </c>
       <c r="G113" t="n">
+        <v>9261</v>
+      </c>
+      <c r="H113" t="n">
         <v>9248.916666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4864,24 +5053,25 @@
         <v>30.15526066</v>
       </c>
       <c r="G114" t="n">
+        <v>9263.333333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>9250</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4905,24 +5095,25 @@
         <v>80.992</v>
       </c>
       <c r="G115" t="n">
+        <v>9260.333333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>9250.166666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,24 +5137,25 @@
         <v>9.3034</v>
       </c>
       <c r="G116" t="n">
+        <v>9257</v>
+      </c>
+      <c r="H116" t="n">
         <v>9249.416666666666</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,24 +5179,25 @@
         <v>28.2298</v>
       </c>
       <c r="G117" t="n">
+        <v>9256</v>
+      </c>
+      <c r="H117" t="n">
         <v>9248.916666666666</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5028,24 +5221,25 @@
         <v>110</v>
       </c>
       <c r="G118" t="n">
+        <v>9257.666666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>9248.833333333334</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5069,24 +5263,25 @@
         <v>98.5</v>
       </c>
       <c r="G119" t="n">
+        <v>9259.333333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>9248.833333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5110,24 +5305,25 @@
         <v>6</v>
       </c>
       <c r="G120" t="n">
+        <v>9259</v>
+      </c>
+      <c r="H120" t="n">
         <v>9248.916666666666</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5151,24 +5347,25 @@
         <v>5.8878</v>
       </c>
       <c r="G121" t="n">
+        <v>9255.666666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>9248</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5192,24 +5389,25 @@
         <v>22.6889</v>
       </c>
       <c r="G122" t="n">
+        <v>9251</v>
+      </c>
+      <c r="H122" t="n">
         <v>9246.916666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5233,24 +5431,25 @@
         <v>31</v>
       </c>
       <c r="G123" t="n">
+        <v>9253</v>
+      </c>
+      <c r="H123" t="n">
         <v>9247.083333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5274,24 +5473,25 @@
         <v>32</v>
       </c>
       <c r="G124" t="n">
+        <v>9253.666666666666</v>
+      </c>
+      <c r="H124" t="n">
         <v>9248.666666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5315,24 +5515,25 @@
         <v>44</v>
       </c>
       <c r="G125" t="n">
+        <v>9256</v>
+      </c>
+      <c r="H125" t="n">
         <v>9250.166666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5356,24 +5557,25 @@
         <v>32</v>
       </c>
       <c r="G126" t="n">
+        <v>9258.333333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>9252.25</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5397,24 +5599,25 @@
         <v>32.5</v>
       </c>
       <c r="G127" t="n">
+        <v>9259.333333333334</v>
+      </c>
+      <c r="H127" t="n">
         <v>9253.083333333334</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5438,24 +5641,25 @@
         <v>73.5</v>
       </c>
       <c r="G128" t="n">
+        <v>9261.666666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>9253.75</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5479,24 +5683,25 @@
         <v>31.5</v>
       </c>
       <c r="G129" t="n">
+        <v>9264.666666666666</v>
+      </c>
+      <c r="H129" t="n">
         <v>9256.416666666666</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5520,24 +5725,25 @@
         <v>19.04865446</v>
       </c>
       <c r="G130" t="n">
+        <v>9270.666666666666</v>
+      </c>
+      <c r="H130" t="n">
         <v>9258.833333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5561,24 +5767,25 @@
         <v>48.5</v>
       </c>
       <c r="G131" t="n">
+        <v>9275.333333333334</v>
+      </c>
+      <c r="H131" t="n">
         <v>9260.25</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5602,24 +5809,25 @@
         <v>104.2597</v>
       </c>
       <c r="G132" t="n">
+        <v>9278.666666666666</v>
+      </c>
+      <c r="H132" t="n">
         <v>9262.75</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5643,24 +5851,25 @@
         <v>32.5208</v>
       </c>
       <c r="G133" t="n">
+        <v>9280.333333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>9264.166666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5684,24 +5893,25 @@
         <v>34.5208</v>
       </c>
       <c r="G134" t="n">
+        <v>9281.333333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>9264.75</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5725,24 +5935,25 @@
         <v>12</v>
       </c>
       <c r="G135" t="n">
+        <v>9282</v>
+      </c>
+      <c r="H135" t="n">
         <v>9264.916666666666</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5766,24 +5977,25 @@
         <v>55.99947023</v>
       </c>
       <c r="G136" t="n">
+        <v>9276.666666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>9262.75</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5807,24 +6019,25 @@
         <v>1</v>
       </c>
       <c r="G137" t="n">
+        <v>9280.333333333334</v>
+      </c>
+      <c r="H137" t="n">
         <v>9262.583333333334</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5848,24 +6061,25 @@
         <v>35</v>
       </c>
       <c r="G138" t="n">
+        <v>9270.666666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>9261.333333333334</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5889,24 +6103,25 @@
         <v>1</v>
       </c>
       <c r="G139" t="n">
+        <v>9269</v>
+      </c>
+      <c r="H139" t="n">
         <v>9261.166666666666</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5930,24 +6145,25 @@
         <v>16.44</v>
       </c>
       <c r="G140" t="n">
+        <v>9267</v>
+      </c>
+      <c r="H140" t="n">
         <v>9261</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5971,24 +6187,25 @@
         <v>21.3365</v>
       </c>
       <c r="G141" t="n">
+        <v>9265</v>
+      </c>
+      <c r="H141" t="n">
         <v>9260.75</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6012,24 +6229,25 @@
         <v>16</v>
       </c>
       <c r="G142" t="n">
+        <v>9262.333333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>9260.416666666666</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6053,24 +6271,25 @@
         <v>2</v>
       </c>
       <c r="G143" t="n">
+        <v>9259</v>
+      </c>
+      <c r="H143" t="n">
         <v>9260</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6094,24 +6313,25 @@
         <v>1.9997947</v>
       </c>
       <c r="G144" t="n">
+        <v>9256</v>
+      </c>
+      <c r="H144" t="n">
         <v>9259.666666666666</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6135,24 +6355,25 @@
         <v>6.99951782</v>
       </c>
       <c r="G145" t="n">
+        <v>9254</v>
+      </c>
+      <c r="H145" t="n">
         <v>9259.416666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6176,24 +6397,25 @@
         <v>1</v>
       </c>
       <c r="G146" t="n">
+        <v>9251</v>
+      </c>
+      <c r="H146" t="n">
         <v>9259</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6217,24 +6439,25 @@
         <v>100</v>
       </c>
       <c r="G147" t="n">
+        <v>9244</v>
+      </c>
+      <c r="H147" t="n">
         <v>9257.416666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,24 +6481,25 @@
         <v>0.5</v>
       </c>
       <c r="G148" t="n">
+        <v>9241</v>
+      </c>
+      <c r="H148" t="n">
         <v>9256.916666666666</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6299,24 +6523,25 @@
         <v>6</v>
       </c>
       <c r="G149" t="n">
+        <v>9238.666666666666</v>
+      </c>
+      <c r="H149" t="n">
         <v>9256.333333333334</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6340,24 +6565,25 @@
         <v>37.7228</v>
       </c>
       <c r="G150" t="n">
+        <v>9236.666666666666</v>
+      </c>
+      <c r="H150" t="n">
         <v>9255.833333333334</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6381,24 +6607,25 @@
         <v>24.6299</v>
       </c>
       <c r="G151" t="n">
+        <v>9244</v>
+      </c>
+      <c r="H151" t="n">
         <v>9255.25</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6422,24 +6649,25 @@
         <v>89.5</v>
       </c>
       <c r="G152" t="n">
+        <v>9244</v>
+      </c>
+      <c r="H152" t="n">
         <v>9255</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6463,24 +6691,25 @@
         <v>69</v>
       </c>
       <c r="G153" t="n">
+        <v>9252.333333333334</v>
+      </c>
+      <c r="H153" t="n">
         <v>9256.25</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6504,24 +6733,25 @@
         <v>60.5</v>
       </c>
       <c r="G154" t="n">
+        <v>9252.666666666666</v>
+      </c>
+      <c r="H154" t="n">
         <v>9257.083333333334</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6545,24 +6775,25 @@
         <v>1.996</v>
       </c>
       <c r="G155" t="n">
+        <v>9248</v>
+      </c>
+      <c r="H155" t="n">
         <v>9256.083333333334</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6586,24 +6817,25 @@
         <v>2</v>
       </c>
       <c r="G156" t="n">
+        <v>9248</v>
+      </c>
+      <c r="H156" t="n">
         <v>9256.833333333334</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6627,24 +6859,25 @@
         <v>10.3605</v>
       </c>
       <c r="G157" t="n">
+        <v>9244</v>
+      </c>
+      <c r="H157" t="n">
         <v>9256.416666666666</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6668,24 +6901,25 @@
         <v>10.99965488</v>
       </c>
       <c r="G158" t="n">
+        <v>9245</v>
+      </c>
+      <c r="H158" t="n">
         <v>9256.666666666666</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6709,24 +6943,25 @@
         <v>11.0324</v>
       </c>
       <c r="G159" t="n">
+        <v>9240.333333333334</v>
+      </c>
+      <c r="H159" t="n">
         <v>9256.083333333334</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6750,24 +6985,25 @@
         <v>62.1968</v>
       </c>
       <c r="G160" t="n">
+        <v>9235.333333333334</v>
+      </c>
+      <c r="H160" t="n">
         <v>9255.083333333334</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6791,24 +7027,25 @@
         <v>29.5</v>
       </c>
       <c r="G161" t="n">
+        <v>9235.333333333334</v>
+      </c>
+      <c r="H161" t="n">
         <v>9254.666666666666</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6832,24 +7069,25 @@
         <v>31.5</v>
       </c>
       <c r="G162" t="n">
+        <v>9240</v>
+      </c>
+      <c r="H162" t="n">
         <v>9254.666666666666</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6873,24 +7111,25 @@
         <v>189.5</v>
       </c>
       <c r="G163" t="n">
+        <v>9241</v>
+      </c>
+      <c r="H163" t="n">
         <v>9255</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6914,24 +7153,25 @@
         <v>10</v>
       </c>
       <c r="G164" t="n">
+        <v>9242</v>
+      </c>
+      <c r="H164" t="n">
         <v>9255.333333333334</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6955,24 +7195,25 @@
         <v>10</v>
       </c>
       <c r="G165" t="n">
+        <v>9242.666666666666</v>
+      </c>
+      <c r="H165" t="n">
         <v>9255.083333333334</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6996,24 +7237,25 @@
         <v>16</v>
       </c>
       <c r="G166" t="n">
+        <v>9243.666666666666</v>
+      </c>
+      <c r="H166" t="n">
         <v>9255</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7037,24 +7279,25 @@
         <v>0.38804512</v>
       </c>
       <c r="G167" t="n">
+        <v>9243.666666666666</v>
+      </c>
+      <c r="H167" t="n">
         <v>9254.75</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,24 +7321,25 @@
         <v>5.7348</v>
       </c>
       <c r="G168" t="n">
+        <v>9245.666666666666</v>
+      </c>
+      <c r="H168" t="n">
         <v>9255.416666666666</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7119,24 +7363,25 @@
         <v>75.5</v>
       </c>
       <c r="G169" t="n">
+        <v>9248</v>
+      </c>
+      <c r="H169" t="n">
         <v>9255.833333333334</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7160,24 +7405,25 @@
         <v>31.5</v>
       </c>
       <c r="G170" t="n">
+        <v>9255</v>
+      </c>
+      <c r="H170" t="n">
         <v>9256.5</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7201,24 +7447,25 @@
         <v>33</v>
       </c>
       <c r="G171" t="n">
+        <v>9257.333333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>9257.166666666666</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7242,24 +7489,25 @@
         <v>29</v>
       </c>
       <c r="G172" t="n">
+        <v>9264.333333333334</v>
+      </c>
+      <c r="H172" t="n">
         <v>9257.5</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7283,24 +7531,25 @@
         <v>32</v>
       </c>
       <c r="G173" t="n">
+        <v>9266.666666666666</v>
+      </c>
+      <c r="H173" t="n">
         <v>9258.083333333334</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7324,24 +7573,25 @@
         <v>33</v>
       </c>
       <c r="G174" t="n">
+        <v>9275.666666666666</v>
+      </c>
+      <c r="H174" t="n">
         <v>9259.166666666666</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7365,26 +7615,25 @@
         <v>18.7</v>
       </c>
       <c r="G175" t="n">
+        <v>9284.666666666666</v>
+      </c>
+      <c r="H175" t="n">
         <v>9261.166666666666</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7406,24 +7655,21 @@
         <v>300</v>
       </c>
       <c r="G176" t="n">
+        <v>9282</v>
+      </c>
+      <c r="H176" t="n">
         <v>9260.916666666666</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7447,24 +7693,21 @@
         <v>39.5</v>
       </c>
       <c r="G177" t="n">
+        <v>9287</v>
+      </c>
+      <c r="H177" t="n">
         <v>9262.416666666666</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7488,24 +7731,21 @@
         <v>23</v>
       </c>
       <c r="G178" t="n">
+        <v>9291.333333333334</v>
+      </c>
+      <c r="H178" t="n">
         <v>9263.416666666666</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7529,24 +7769,401 @@
         <v>116</v>
       </c>
       <c r="G179" t="n">
+        <v>9291.666666666666</v>
+      </c>
+      <c r="H179" t="n">
         <v>9263.416666666666</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9330</v>
+      </c>
+      <c r="C180" t="n">
+        <v>9345</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9345</v>
+      </c>
+      <c r="E180" t="n">
+        <v>9330</v>
+      </c>
+      <c r="F180" t="n">
+        <v>39</v>
+      </c>
+      <c r="G180" t="n">
+        <v>9297</v>
+      </c>
+      <c r="H180" t="n">
+        <v>9264.583333333334</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>9280</v>
+      </c>
+      <c r="C181" t="n">
+        <v>9345</v>
+      </c>
+      <c r="D181" t="n">
+        <v>9345</v>
+      </c>
+      <c r="E181" t="n">
+        <v>9280</v>
+      </c>
+      <c r="F181" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="G181" t="n">
+        <v>9302.333333333334</v>
+      </c>
+      <c r="H181" t="n">
+        <v>9266.666666666666</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>9345</v>
+      </c>
+      <c r="C182" t="n">
+        <v>9345</v>
+      </c>
+      <c r="D182" t="n">
+        <v>9345</v>
+      </c>
+      <c r="E182" t="n">
+        <v>9345</v>
+      </c>
+      <c r="F182" t="n">
+        <v>100</v>
+      </c>
+      <c r="G182" t="n">
+        <v>9307.666666666666</v>
+      </c>
+      <c r="H182" t="n">
+        <v>9268.916666666666</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>9280</v>
+      </c>
+      <c r="C183" t="n">
+        <v>9280</v>
+      </c>
+      <c r="D183" t="n">
+        <v>9280</v>
+      </c>
+      <c r="E183" t="n">
+        <v>9280</v>
+      </c>
+      <c r="F183" t="n">
+        <v>82.4289</v>
+      </c>
+      <c r="G183" t="n">
+        <v>9306.666666666666</v>
+      </c>
+      <c r="H183" t="n">
+        <v>9268.833333333334</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>9290</v>
+      </c>
+      <c r="C184" t="n">
+        <v>9320</v>
+      </c>
+      <c r="D184" t="n">
+        <v>9320</v>
+      </c>
+      <c r="E184" t="n">
+        <v>9270</v>
+      </c>
+      <c r="F184" t="n">
+        <v>280.2869</v>
+      </c>
+      <c r="G184" t="n">
+        <v>9308</v>
+      </c>
+      <c r="H184" t="n">
+        <v>9269.416666666666</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>9310</v>
+      </c>
+      <c r="C185" t="n">
+        <v>9310</v>
+      </c>
+      <c r="D185" t="n">
+        <v>9310</v>
+      </c>
+      <c r="E185" t="n">
+        <v>9310</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1.7348</v>
+      </c>
+      <c r="G185" t="n">
+        <v>9308.666666666666</v>
+      </c>
+      <c r="H185" t="n">
+        <v>9269.666666666666</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>9265</v>
+      </c>
+      <c r="C186" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D186" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E186" t="n">
+        <v>9265</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2</v>
+      </c>
+      <c r="G186" t="n">
+        <v>9306.333333333334</v>
+      </c>
+      <c r="H186" t="n">
+        <v>9269.166666666666</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>9240</v>
+      </c>
+      <c r="C187" t="n">
+        <v>9240</v>
+      </c>
+      <c r="D187" t="n">
+        <v>9240</v>
+      </c>
+      <c r="E187" t="n">
+        <v>9240</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" t="n">
+        <v>9302.333333333334</v>
+      </c>
+      <c r="H187" t="n">
+        <v>9268.25</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>9240</v>
+      </c>
+      <c r="C188" t="n">
+        <v>9295</v>
+      </c>
+      <c r="D188" t="n">
+        <v>9295</v>
+      </c>
+      <c r="E188" t="n">
+        <v>9215</v>
+      </c>
+      <c r="F188" t="n">
+        <v>334.4722</v>
+      </c>
+      <c r="G188" t="n">
+        <v>9302</v>
+      </c>
+      <c r="H188" t="n">
+        <v>9268.166666666666</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>9215</v>
+      </c>
+      <c r="C189" t="n">
+        <v>9300</v>
+      </c>
+      <c r="D189" t="n">
+        <v>9300</v>
+      </c>
+      <c r="E189" t="n">
+        <v>9210</v>
+      </c>
+      <c r="F189" t="n">
+        <v>344.6333</v>
+      </c>
+      <c r="G189" t="n">
+        <v>9300.666666666666</v>
+      </c>
+      <c r="H189" t="n">
+        <v>9268.166666666666</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-14 BackTest BTG.xlsx
+++ b/BackTest/2019-10-14 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N176"/>
+  <dimension ref="A1:N247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9160</v>
+        <v>9270</v>
       </c>
       <c r="C2" t="n">
-        <v>9145</v>
+        <v>9270</v>
       </c>
       <c r="D2" t="n">
-        <v>9160</v>
+        <v>9270</v>
       </c>
       <c r="E2" t="n">
-        <v>9145</v>
+        <v>9270</v>
       </c>
       <c r="F2" t="n">
-        <v>666.3059</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>-87.11270000000013</v>
+        <v>1191.7388</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9235</v>
+        <v>9270</v>
       </c>
       <c r="C3" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="D3" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="E3" t="n">
-        <v>9235</v>
+        <v>9270</v>
       </c>
       <c r="F3" t="n">
-        <v>190.5</v>
+        <v>1.187</v>
       </c>
       <c r="G3" t="n">
-        <v>103.3872999999999</v>
+        <v>1191.7388</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9130</v>
+        <v>9265</v>
       </c>
       <c r="C4" t="n">
-        <v>9130</v>
+        <v>9265</v>
       </c>
       <c r="D4" t="n">
-        <v>9130</v>
+        <v>9265</v>
       </c>
       <c r="E4" t="n">
-        <v>9130</v>
+        <v>9265</v>
       </c>
       <c r="F4" t="n">
-        <v>1.6966</v>
+        <v>21.371</v>
       </c>
       <c r="G4" t="n">
-        <v>101.6906999999999</v>
+        <v>1170.3678</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9220</v>
+        <v>9275</v>
       </c>
       <c r="C5" t="n">
-        <v>9210</v>
+        <v>9275</v>
       </c>
       <c r="D5" t="n">
-        <v>9225</v>
+        <v>9275</v>
       </c>
       <c r="E5" t="n">
-        <v>9205</v>
+        <v>9275</v>
       </c>
       <c r="F5" t="n">
-        <v>40.367</v>
+        <v>4.4809</v>
       </c>
       <c r="G5" t="n">
-        <v>142.0576999999999</v>
+        <v>1174.8487</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9135</v>
+        <v>9275</v>
       </c>
       <c r="C6" t="n">
-        <v>9205</v>
+        <v>9275</v>
       </c>
       <c r="D6" t="n">
-        <v>9215</v>
+        <v>9275</v>
       </c>
       <c r="E6" t="n">
-        <v>9075</v>
+        <v>9275</v>
       </c>
       <c r="F6" t="n">
-        <v>196.3931</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
-        <v>-54.33540000000013</v>
+        <v>1174.8487</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9195</v>
+        <v>9320</v>
       </c>
       <c r="C7" t="n">
-        <v>9195</v>
+        <v>9265</v>
       </c>
       <c r="D7" t="n">
-        <v>9195</v>
+        <v>9320</v>
       </c>
       <c r="E7" t="n">
-        <v>9195</v>
+        <v>9265</v>
       </c>
       <c r="F7" t="n">
-        <v>6.44</v>
+        <v>16.4819</v>
       </c>
       <c r="G7" t="n">
-        <v>-60.77540000000013</v>
+        <v>1158.3668</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9215</v>
+        <v>9320</v>
       </c>
       <c r="C8" t="n">
-        <v>9220</v>
+        <v>9320</v>
       </c>
       <c r="D8" t="n">
-        <v>9220</v>
+        <v>9320</v>
       </c>
       <c r="E8" t="n">
-        <v>9210</v>
+        <v>9320</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>7.9072</v>
       </c>
       <c r="G8" t="n">
-        <v>39.22459999999987</v>
+        <v>1166.274</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9210</v>
+        <v>9235</v>
       </c>
       <c r="C9" t="n">
-        <v>9215</v>
+        <v>9230</v>
       </c>
       <c r="D9" t="n">
-        <v>9220</v>
+        <v>9240</v>
       </c>
       <c r="E9" t="n">
-        <v>9210</v>
+        <v>9230</v>
       </c>
       <c r="F9" t="n">
-        <v>96</v>
+        <v>148.887</v>
       </c>
       <c r="G9" t="n">
-        <v>-56.77540000000013</v>
+        <v>1017.387</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9135</v>
+        <v>9230</v>
       </c>
       <c r="C10" t="n">
-        <v>9190</v>
+        <v>9230</v>
       </c>
       <c r="D10" t="n">
-        <v>9195</v>
+        <v>9230</v>
       </c>
       <c r="E10" t="n">
-        <v>9135</v>
+        <v>9230</v>
       </c>
       <c r="F10" t="n">
-        <v>174.2624</v>
+        <v>20.472</v>
       </c>
       <c r="G10" t="n">
-        <v>-231.0378000000001</v>
+        <v>1017.387</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9200</v>
+        <v>9305</v>
       </c>
       <c r="C11" t="n">
-        <v>9200</v>
+        <v>9315</v>
       </c>
       <c r="D11" t="n">
-        <v>9200</v>
+        <v>9315</v>
       </c>
       <c r="E11" t="n">
-        <v>9200</v>
+        <v>9305</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="G11" t="n">
-        <v>-201.0378000000001</v>
+        <v>1046.887</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,35 +798,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9205</v>
+        <v>9240</v>
       </c>
       <c r="C12" t="n">
-        <v>9205</v>
+        <v>9240</v>
       </c>
       <c r="D12" t="n">
-        <v>9205</v>
+        <v>9240</v>
       </c>
       <c r="E12" t="n">
-        <v>9205</v>
+        <v>9240</v>
       </c>
       <c r="F12" t="n">
-        <v>40.3357</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>-160.7021000000001</v>
+        <v>1044.887</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>9200</v>
-      </c>
-      <c r="K12" t="n">
-        <v>9200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -838,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9200</v>
+        <v>9230</v>
       </c>
       <c r="C13" t="n">
-        <v>9200</v>
+        <v>9230</v>
       </c>
       <c r="D13" t="n">
-        <v>9200</v>
+        <v>9230</v>
       </c>
       <c r="E13" t="n">
-        <v>9200</v>
+        <v>9230</v>
       </c>
       <c r="F13" t="n">
-        <v>6.047</v>
+        <v>4.12</v>
       </c>
       <c r="G13" t="n">
-        <v>-166.7491000000001</v>
+        <v>1040.767</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -862,14 +858,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -880,40 +870,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9200</v>
+        <v>9225</v>
       </c>
       <c r="C14" t="n">
-        <v>9200</v>
+        <v>9225</v>
       </c>
       <c r="D14" t="n">
-        <v>9200</v>
+        <v>9225</v>
       </c>
       <c r="E14" t="n">
-        <v>9200</v>
+        <v>9225</v>
       </c>
       <c r="F14" t="n">
-        <v>4.7215</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>-166.7491000000001</v>
+        <v>1031.767</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>9200</v>
-      </c>
-      <c r="K14" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -924,40 +906,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9200</v>
+        <v>9215</v>
       </c>
       <c r="C15" t="n">
-        <v>9200</v>
+        <v>9215</v>
       </c>
       <c r="D15" t="n">
-        <v>9200</v>
+        <v>9215</v>
       </c>
       <c r="E15" t="n">
-        <v>9195</v>
+        <v>9215</v>
       </c>
       <c r="F15" t="n">
-        <v>45.0517</v>
+        <v>6.5683</v>
       </c>
       <c r="G15" t="n">
-        <v>-166.7491000000001</v>
+        <v>1025.1987</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>9200</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -968,40 +942,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9200</v>
+        <v>9215</v>
       </c>
       <c r="C16" t="n">
-        <v>9200</v>
+        <v>9215</v>
       </c>
       <c r="D16" t="n">
-        <v>9200</v>
+        <v>9215</v>
       </c>
       <c r="E16" t="n">
-        <v>9200</v>
+        <v>9215</v>
       </c>
       <c r="F16" t="n">
-        <v>9.9</v>
+        <v>4.3187</v>
       </c>
       <c r="G16" t="n">
-        <v>-166.7491000000001</v>
+        <v>1025.1987</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>9200</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1012,40 +978,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9200</v>
+        <v>9150</v>
       </c>
       <c r="C17" t="n">
-        <v>9200</v>
+        <v>9215</v>
       </c>
       <c r="D17" t="n">
-        <v>9200</v>
+        <v>9215</v>
       </c>
       <c r="E17" t="n">
-        <v>9195</v>
+        <v>9150</v>
       </c>
       <c r="F17" t="n">
-        <v>47.974</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>-166.7491000000001</v>
+        <v>1025.1987</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>9200</v>
-      </c>
-      <c r="K17" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1056,40 +1014,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9195</v>
+        <v>9135</v>
       </c>
       <c r="C18" t="n">
-        <v>9195</v>
+        <v>9135</v>
       </c>
       <c r="D18" t="n">
-        <v>9195</v>
+        <v>9135</v>
       </c>
       <c r="E18" t="n">
-        <v>9195</v>
+        <v>9135</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>21.2767</v>
       </c>
       <c r="G18" t="n">
-        <v>-172.7491000000001</v>
+        <v>1003.922</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>9200</v>
-      </c>
-      <c r="K18" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1100,40 +1050,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9195</v>
+        <v>9135</v>
       </c>
       <c r="C19" t="n">
-        <v>9235</v>
+        <v>9210</v>
       </c>
       <c r="D19" t="n">
-        <v>9235</v>
+        <v>9210</v>
       </c>
       <c r="E19" t="n">
-        <v>9195</v>
+        <v>9135</v>
       </c>
       <c r="F19" t="n">
-        <v>80.5</v>
+        <v>35</v>
       </c>
       <c r="G19" t="n">
-        <v>-92.24910000000014</v>
+        <v>1038.922</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>9195</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1144,40 +1086,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9240</v>
+        <v>9125</v>
       </c>
       <c r="C20" t="n">
-        <v>9240</v>
+        <v>9125</v>
       </c>
       <c r="D20" t="n">
-        <v>9240</v>
+        <v>9125</v>
       </c>
       <c r="E20" t="n">
-        <v>9240</v>
+        <v>9125</v>
       </c>
       <c r="F20" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G20" t="n">
-        <v>-28.24910000000014</v>
+        <v>978.922</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>9235</v>
-      </c>
-      <c r="K20" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1188,40 +1122,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9245</v>
+        <v>9130</v>
       </c>
       <c r="C21" t="n">
-        <v>9245</v>
+        <v>9200</v>
       </c>
       <c r="D21" t="n">
-        <v>9245</v>
+        <v>9200</v>
       </c>
       <c r="E21" t="n">
-        <v>9245</v>
+        <v>9130</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>22.3515</v>
       </c>
       <c r="G21" t="n">
-        <v>-26.24910000000014</v>
+        <v>1001.2735</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K21" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1232,40 +1158,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9245</v>
+        <v>9170</v>
       </c>
       <c r="C22" t="n">
-        <v>9280</v>
+        <v>9170</v>
       </c>
       <c r="D22" t="n">
-        <v>9280</v>
+        <v>9170</v>
       </c>
       <c r="E22" t="n">
-        <v>9245</v>
+        <v>9160</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
-        <v>-16.24910000000014</v>
+        <v>961.2735</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>9245</v>
-      </c>
-      <c r="K22" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1276,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9185</v>
+        <v>9170</v>
       </c>
       <c r="C23" t="n">
-        <v>9270</v>
+        <v>9170</v>
       </c>
       <c r="D23" t="n">
-        <v>9280</v>
+        <v>9170</v>
       </c>
       <c r="E23" t="n">
-        <v>9185</v>
+        <v>9170</v>
       </c>
       <c r="F23" t="n">
-        <v>42.6163</v>
+        <v>26</v>
       </c>
       <c r="G23" t="n">
-        <v>-58.86540000000014</v>
+        <v>961.2735</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1300,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1318,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9270</v>
+        <v>9170</v>
       </c>
       <c r="C24" t="n">
-        <v>9270</v>
+        <v>9170</v>
       </c>
       <c r="D24" t="n">
-        <v>9270</v>
+        <v>9170</v>
       </c>
       <c r="E24" t="n">
-        <v>9270</v>
+        <v>9170</v>
       </c>
       <c r="F24" t="n">
-        <v>30.5</v>
+        <v>39</v>
       </c>
       <c r="G24" t="n">
-        <v>-58.86540000000014</v>
+        <v>961.2735</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1342,14 +1254,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1360,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9270</v>
+        <v>9150</v>
       </c>
       <c r="C25" t="n">
-        <v>9270</v>
+        <v>9170</v>
       </c>
       <c r="D25" t="n">
-        <v>9270</v>
+        <v>9170</v>
       </c>
       <c r="E25" t="n">
-        <v>9270</v>
+        <v>9150</v>
       </c>
       <c r="F25" t="n">
-        <v>53.8396</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>-58.86540000000014</v>
+        <v>961.2735</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1384,14 +1290,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1402,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9205</v>
+        <v>9170</v>
       </c>
       <c r="C26" t="n">
-        <v>9205</v>
+        <v>9170</v>
       </c>
       <c r="D26" t="n">
-        <v>9205</v>
+        <v>9170</v>
       </c>
       <c r="E26" t="n">
-        <v>9205</v>
+        <v>9170</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>-60.86540000000014</v>
+        <v>961.2735</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1426,14 +1326,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1444,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9260</v>
+        <v>9170</v>
       </c>
       <c r="C27" t="n">
-        <v>9270</v>
+        <v>9170</v>
       </c>
       <c r="D27" t="n">
-        <v>9270</v>
+        <v>9170</v>
       </c>
       <c r="E27" t="n">
-        <v>9260</v>
+        <v>9170</v>
       </c>
       <c r="F27" t="n">
-        <v>32.5</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>-28.36540000000014</v>
+        <v>961.2735</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1468,14 +1362,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1486,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9270</v>
+        <v>9170</v>
       </c>
       <c r="C28" t="n">
-        <v>9270</v>
+        <v>9170</v>
       </c>
       <c r="D28" t="n">
-        <v>9270</v>
+        <v>9170</v>
       </c>
       <c r="E28" t="n">
-        <v>9270</v>
+        <v>9170</v>
       </c>
       <c r="F28" t="n">
-        <v>39.5</v>
+        <v>7.4</v>
       </c>
       <c r="G28" t="n">
-        <v>-28.36540000000014</v>
+        <v>961.2735</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1510,14 +1398,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1528,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9270</v>
+        <v>9165</v>
       </c>
       <c r="C29" t="n">
-        <v>9270</v>
+        <v>9165</v>
       </c>
       <c r="D29" t="n">
-        <v>9270</v>
+        <v>9165</v>
       </c>
       <c r="E29" t="n">
-        <v>9270</v>
+        <v>9165</v>
       </c>
       <c r="F29" t="n">
-        <v>71</v>
+        <v>21.97</v>
       </c>
       <c r="G29" t="n">
-        <v>-28.36540000000014</v>
+        <v>939.3035</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1552,14 +1434,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1570,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9205</v>
+        <v>9165</v>
       </c>
       <c r="C30" t="n">
-        <v>9205</v>
+        <v>9165</v>
       </c>
       <c r="D30" t="n">
-        <v>9205</v>
+        <v>9165</v>
       </c>
       <c r="E30" t="n">
-        <v>9205</v>
+        <v>9165</v>
       </c>
       <c r="F30" t="n">
-        <v>7.044</v>
+        <v>6.55</v>
       </c>
       <c r="G30" t="n">
-        <v>-35.40940000000014</v>
+        <v>939.3035</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1594,14 +1470,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1612,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9280</v>
+        <v>9160</v>
       </c>
       <c r="C31" t="n">
-        <v>9290</v>
+        <v>9145</v>
       </c>
       <c r="D31" t="n">
-        <v>9290</v>
+        <v>9160</v>
       </c>
       <c r="E31" t="n">
-        <v>9280</v>
+        <v>9145</v>
       </c>
       <c r="F31" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G31" t="n">
-        <v>8.59059999999986</v>
+        <v>917.3035</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1636,14 +1506,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1654,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9205</v>
+        <v>9145</v>
       </c>
       <c r="C32" t="n">
-        <v>9200</v>
+        <v>9145</v>
       </c>
       <c r="D32" t="n">
-        <v>9205</v>
+        <v>9145</v>
       </c>
       <c r="E32" t="n">
-        <v>9200</v>
+        <v>9145</v>
       </c>
       <c r="F32" t="n">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>-181.4094000000001</v>
+        <v>917.3035</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1678,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1696,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9275</v>
+        <v>9145</v>
       </c>
       <c r="C33" t="n">
-        <v>9290</v>
+        <v>9145</v>
       </c>
       <c r="D33" t="n">
-        <v>9290</v>
+        <v>9145</v>
       </c>
       <c r="E33" t="n">
-        <v>9275</v>
+        <v>9145</v>
       </c>
       <c r="F33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>-173.4094000000001</v>
+        <v>917.3035</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1720,14 +1578,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1738,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9280</v>
+        <v>9145</v>
       </c>
       <c r="C34" t="n">
-        <v>9290</v>
+        <v>9145</v>
       </c>
       <c r="D34" t="n">
-        <v>9290</v>
+        <v>9145</v>
       </c>
       <c r="E34" t="n">
-        <v>9280</v>
+        <v>9145</v>
       </c>
       <c r="F34" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="G34" t="n">
-        <v>-173.4094000000001</v>
+        <v>917.3035</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1762,14 +1614,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1780,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9290</v>
+        <v>9145</v>
       </c>
       <c r="C35" t="n">
-        <v>9190</v>
+        <v>9155</v>
       </c>
       <c r="D35" t="n">
-        <v>9295</v>
+        <v>9155</v>
       </c>
       <c r="E35" t="n">
-        <v>9190</v>
+        <v>9145</v>
       </c>
       <c r="F35" t="n">
-        <v>153.7523</v>
+        <v>45.4446</v>
       </c>
       <c r="G35" t="n">
-        <v>-327.1617000000001</v>
+        <v>962.7481</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1804,14 +1650,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1822,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9190</v>
+        <v>9155</v>
       </c>
       <c r="C36" t="n">
-        <v>9190</v>
+        <v>9100</v>
       </c>
       <c r="D36" t="n">
-        <v>9190</v>
+        <v>9155</v>
       </c>
       <c r="E36" t="n">
-        <v>9190</v>
+        <v>9100</v>
       </c>
       <c r="F36" t="n">
-        <v>121.2524</v>
+        <v>23.6943</v>
       </c>
       <c r="G36" t="n">
-        <v>-327.1617000000001</v>
+        <v>939.0538</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1846,14 +1686,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1864,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9275</v>
+        <v>9150</v>
       </c>
       <c r="C37" t="n">
-        <v>9270</v>
+        <v>9155</v>
       </c>
       <c r="D37" t="n">
-        <v>9275</v>
+        <v>9155</v>
       </c>
       <c r="E37" t="n">
-        <v>9270</v>
+        <v>9150</v>
       </c>
       <c r="F37" t="n">
-        <v>18</v>
+        <v>73.99250000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>-309.1617000000001</v>
+        <v>1013.0463</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1888,14 +1722,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1906,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9270</v>
+        <v>9155</v>
       </c>
       <c r="C38" t="n">
-        <v>9295</v>
+        <v>9160</v>
       </c>
       <c r="D38" t="n">
-        <v>9295</v>
+        <v>9160</v>
       </c>
       <c r="E38" t="n">
-        <v>9270</v>
+        <v>9155</v>
       </c>
       <c r="F38" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="G38" t="n">
-        <v>-301.1617000000001</v>
+        <v>1044.0463</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1930,14 +1758,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1948,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9290</v>
+        <v>9160</v>
       </c>
       <c r="C39" t="n">
-        <v>9290</v>
+        <v>9160</v>
       </c>
       <c r="D39" t="n">
-        <v>9290</v>
+        <v>9160</v>
       </c>
       <c r="E39" t="n">
-        <v>9290</v>
+        <v>9160</v>
       </c>
       <c r="F39" t="n">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="G39" t="n">
-        <v>-334.1617000000001</v>
+        <v>1044.0463</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1972,14 +1794,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1990,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9290</v>
+        <v>9160</v>
       </c>
       <c r="C40" t="n">
-        <v>9290</v>
+        <v>9155</v>
       </c>
       <c r="D40" t="n">
-        <v>9290</v>
+        <v>9160</v>
       </c>
       <c r="E40" t="n">
-        <v>9290</v>
+        <v>9155</v>
       </c>
       <c r="F40" t="n">
-        <v>29.5</v>
+        <v>65.5</v>
       </c>
       <c r="G40" t="n">
-        <v>-334.1617000000001</v>
+        <v>978.5463</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2014,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2032,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9190</v>
+        <v>9155</v>
       </c>
       <c r="C41" t="n">
-        <v>9190</v>
+        <v>9155</v>
       </c>
       <c r="D41" t="n">
-        <v>9190</v>
+        <v>9155</v>
       </c>
       <c r="E41" t="n">
-        <v>9190</v>
+        <v>9155</v>
       </c>
       <c r="F41" t="n">
-        <v>2.0454</v>
+        <v>119</v>
       </c>
       <c r="G41" t="n">
-        <v>-336.2071000000001</v>
+        <v>978.5463</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2056,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2074,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9195</v>
+        <v>9155</v>
       </c>
       <c r="C42" t="n">
-        <v>9190</v>
+        <v>9160</v>
       </c>
       <c r="D42" t="n">
-        <v>9195</v>
+        <v>9160</v>
       </c>
       <c r="E42" t="n">
-        <v>9190</v>
+        <v>9155</v>
       </c>
       <c r="F42" t="n">
-        <v>39.5706</v>
+        <v>116.5</v>
       </c>
       <c r="G42" t="n">
-        <v>-336.2071000000001</v>
+        <v>1095.0463</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2098,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2116,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9270</v>
+        <v>9160</v>
       </c>
       <c r="C43" t="n">
-        <v>9275</v>
+        <v>9160</v>
       </c>
       <c r="D43" t="n">
-        <v>9275</v>
+        <v>9160</v>
       </c>
       <c r="E43" t="n">
-        <v>9270</v>
+        <v>9160</v>
       </c>
       <c r="F43" t="n">
-        <v>35</v>
+        <v>27.7913</v>
       </c>
       <c r="G43" t="n">
-        <v>-301.2071000000001</v>
+        <v>1095.0463</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2140,14 +1938,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2158,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9270</v>
+        <v>9160</v>
       </c>
       <c r="C44" t="n">
-        <v>9270</v>
+        <v>9165</v>
       </c>
       <c r="D44" t="n">
-        <v>9270</v>
+        <v>9165</v>
       </c>
       <c r="E44" t="n">
-        <v>9270</v>
+        <v>9160</v>
       </c>
       <c r="F44" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="G44" t="n">
-        <v>-307.2071000000001</v>
+        <v>1134.0463</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2182,14 +1974,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2200,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9275</v>
+        <v>9165</v>
       </c>
       <c r="C45" t="n">
-        <v>9275</v>
+        <v>9165</v>
       </c>
       <c r="D45" t="n">
-        <v>9275</v>
+        <v>9165</v>
       </c>
       <c r="E45" t="n">
-        <v>9275</v>
+        <v>9165</v>
       </c>
       <c r="F45" t="n">
-        <v>6.38</v>
+        <v>27.0884</v>
       </c>
       <c r="G45" t="n">
-        <v>-300.8271000000001</v>
+        <v>1134.0463</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2224,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2242,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9270</v>
+        <v>9165</v>
       </c>
       <c r="C46" t="n">
-        <v>9270</v>
+        <v>9165</v>
       </c>
       <c r="D46" t="n">
-        <v>9270</v>
+        <v>9165</v>
       </c>
       <c r="E46" t="n">
-        <v>9270</v>
+        <v>9165</v>
       </c>
       <c r="F46" t="n">
-        <v>16.6493</v>
+        <v>68.9486</v>
       </c>
       <c r="G46" t="n">
-        <v>-317.4764000000001</v>
+        <v>1134.0463</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2266,14 +2046,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2284,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9275</v>
+        <v>9115</v>
       </c>
       <c r="C47" t="n">
-        <v>9270</v>
+        <v>9105</v>
       </c>
       <c r="D47" t="n">
-        <v>9275</v>
+        <v>9160</v>
       </c>
       <c r="E47" t="n">
-        <v>9270</v>
+        <v>9105</v>
       </c>
       <c r="F47" t="n">
-        <v>60</v>
+        <v>264.7542</v>
       </c>
       <c r="G47" t="n">
-        <v>-317.4764000000001</v>
+        <v>869.2920999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2308,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2326,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9275</v>
+        <v>9165</v>
       </c>
       <c r="C48" t="n">
-        <v>9275</v>
+        <v>9165</v>
       </c>
       <c r="D48" t="n">
-        <v>9275</v>
+        <v>9165</v>
       </c>
       <c r="E48" t="n">
-        <v>9275</v>
+        <v>9165</v>
       </c>
       <c r="F48" t="n">
-        <v>0.10781671</v>
+        <v>18</v>
       </c>
       <c r="G48" t="n">
-        <v>-317.3685832900001</v>
+        <v>887.2920999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2350,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2368,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9275</v>
+        <v>9165</v>
       </c>
       <c r="C49" t="n">
-        <v>9275</v>
+        <v>9165</v>
       </c>
       <c r="D49" t="n">
-        <v>9275</v>
+        <v>9165</v>
       </c>
       <c r="E49" t="n">
-        <v>9275</v>
+        <v>9165</v>
       </c>
       <c r="F49" t="n">
-        <v>20.2156</v>
+        <v>10.4072</v>
       </c>
       <c r="G49" t="n">
-        <v>-317.3685832900001</v>
+        <v>887.2920999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2392,14 +2154,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2410,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9275</v>
+        <v>9135</v>
       </c>
       <c r="C50" t="n">
-        <v>9275</v>
+        <v>9130</v>
       </c>
       <c r="D50" t="n">
-        <v>9275</v>
+        <v>9135</v>
       </c>
       <c r="E50" t="n">
-        <v>9275</v>
+        <v>9130</v>
       </c>
       <c r="F50" t="n">
-        <v>45</v>
+        <v>23.94</v>
       </c>
       <c r="G50" t="n">
-        <v>-317.3685832900001</v>
+        <v>863.3520999999998</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2434,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2452,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9195</v>
+        <v>9165</v>
       </c>
       <c r="C51" t="n">
-        <v>9190</v>
+        <v>9170</v>
       </c>
       <c r="D51" t="n">
-        <v>9275</v>
+        <v>9170</v>
       </c>
       <c r="E51" t="n">
-        <v>9190</v>
+        <v>9165</v>
       </c>
       <c r="F51" t="n">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="G51" t="n">
-        <v>-431.3685832900001</v>
+        <v>895.3520999999998</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2476,14 +2226,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2494,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9180</v>
+        <v>9170</v>
       </c>
       <c r="C52" t="n">
-        <v>9205</v>
+        <v>9220</v>
       </c>
       <c r="D52" t="n">
-        <v>9205</v>
+        <v>9220</v>
       </c>
       <c r="E52" t="n">
-        <v>9180</v>
+        <v>9170</v>
       </c>
       <c r="F52" t="n">
-        <v>290</v>
+        <v>29.5</v>
       </c>
       <c r="G52" t="n">
-        <v>-141.3685832900001</v>
+        <v>924.8520999999998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2518,14 +2262,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2536,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9175</v>
+        <v>9220</v>
       </c>
       <c r="C53" t="n">
-        <v>9170</v>
+        <v>9220</v>
       </c>
       <c r="D53" t="n">
-        <v>9270</v>
+        <v>9220</v>
       </c>
       <c r="E53" t="n">
-        <v>9170</v>
+        <v>9220</v>
       </c>
       <c r="F53" t="n">
-        <v>260</v>
+        <v>30.8975</v>
       </c>
       <c r="G53" t="n">
-        <v>-401.3685832900001</v>
+        <v>924.8520999999998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2560,14 +2298,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2578,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9170</v>
+        <v>9270</v>
       </c>
       <c r="C54" t="n">
-        <v>9245</v>
+        <v>9270</v>
       </c>
       <c r="D54" t="n">
-        <v>9245</v>
+        <v>9270</v>
       </c>
       <c r="E54" t="n">
-        <v>9155</v>
+        <v>9270</v>
       </c>
       <c r="F54" t="n">
-        <v>286.3054</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>-115.06318329</v>
+        <v>926.8520999999998</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2602,14 +2334,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2620,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9230</v>
+        <v>9270</v>
       </c>
       <c r="C55" t="n">
-        <v>9260</v>
+        <v>9270</v>
       </c>
       <c r="D55" t="n">
-        <v>9260</v>
+        <v>9270</v>
       </c>
       <c r="E55" t="n">
-        <v>9220</v>
+        <v>9270</v>
       </c>
       <c r="F55" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G55" t="n">
-        <v>-63.06318329000004</v>
+        <v>926.8520999999998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2644,14 +2370,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2662,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9145</v>
+        <v>9270</v>
       </c>
       <c r="C56" t="n">
-        <v>9140</v>
+        <v>9300</v>
       </c>
       <c r="D56" t="n">
-        <v>9145</v>
+        <v>9315</v>
       </c>
       <c r="E56" t="n">
-        <v>9140</v>
+        <v>9270</v>
       </c>
       <c r="F56" t="n">
-        <v>230</v>
+        <v>84.40179999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>-293.06318329</v>
+        <v>1011.2539</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2686,14 +2406,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2704,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9145</v>
+        <v>9300</v>
       </c>
       <c r="C57" t="n">
-        <v>9145</v>
+        <v>9300</v>
       </c>
       <c r="D57" t="n">
-        <v>9145</v>
+        <v>9300</v>
       </c>
       <c r="E57" t="n">
-        <v>9140</v>
+        <v>9285</v>
       </c>
       <c r="F57" t="n">
-        <v>59.6</v>
+        <v>86.8801</v>
       </c>
       <c r="G57" t="n">
-        <v>-233.46318329</v>
+        <v>1011.2539</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2728,14 +2442,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2746,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9145</v>
+        <v>9300</v>
       </c>
       <c r="C58" t="n">
-        <v>9215</v>
+        <v>9300</v>
       </c>
       <c r="D58" t="n">
-        <v>9220</v>
+        <v>9300</v>
       </c>
       <c r="E58" t="n">
-        <v>9145</v>
+        <v>9300</v>
       </c>
       <c r="F58" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>-209.46318329</v>
+        <v>1011.2539</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2770,14 +2478,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2788,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9150</v>
+        <v>9285</v>
       </c>
       <c r="C59" t="n">
-        <v>9140</v>
+        <v>9285</v>
       </c>
       <c r="D59" t="n">
-        <v>9150</v>
+        <v>9295</v>
       </c>
       <c r="E59" t="n">
-        <v>9140</v>
+        <v>9285</v>
       </c>
       <c r="F59" t="n">
-        <v>60.569</v>
+        <v>14</v>
       </c>
       <c r="G59" t="n">
-        <v>-270.03218329</v>
+        <v>997.2538999999998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2812,14 +2514,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2830,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9140</v>
+        <v>9285</v>
       </c>
       <c r="C60" t="n">
-        <v>9210</v>
+        <v>9285</v>
       </c>
       <c r="D60" t="n">
-        <v>9210</v>
+        <v>9285</v>
       </c>
       <c r="E60" t="n">
-        <v>9140</v>
+        <v>9285</v>
       </c>
       <c r="F60" t="n">
-        <v>137.9897</v>
+        <v>24</v>
       </c>
       <c r="G60" t="n">
-        <v>-132.04248329</v>
+        <v>997.2538999999998</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2854,14 +2550,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2872,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9200</v>
+        <v>9285</v>
       </c>
       <c r="C61" t="n">
-        <v>9250</v>
+        <v>9285</v>
       </c>
       <c r="D61" t="n">
-        <v>9250</v>
+        <v>9285</v>
       </c>
       <c r="E61" t="n">
-        <v>9200</v>
+        <v>9285</v>
       </c>
       <c r="F61" t="n">
-        <v>58.5</v>
+        <v>16</v>
       </c>
       <c r="G61" t="n">
-        <v>-73.54248329000004</v>
+        <v>997.2538999999998</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2896,14 +2586,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2914,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9245</v>
+        <v>9285</v>
       </c>
       <c r="C62" t="n">
-        <v>9275</v>
+        <v>9310</v>
       </c>
       <c r="D62" t="n">
-        <v>9275</v>
+        <v>9310</v>
       </c>
       <c r="E62" t="n">
-        <v>9245</v>
+        <v>9235</v>
       </c>
       <c r="F62" t="n">
-        <v>255</v>
+        <v>12.3337</v>
       </c>
       <c r="G62" t="n">
-        <v>181.45751671</v>
+        <v>1009.5876</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2938,14 +2622,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2956,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9265</v>
+        <v>9300</v>
       </c>
       <c r="C63" t="n">
-        <v>9270</v>
+        <v>9310</v>
       </c>
       <c r="D63" t="n">
-        <v>9270</v>
+        <v>9310</v>
       </c>
       <c r="E63" t="n">
-        <v>9265</v>
+        <v>9300</v>
       </c>
       <c r="F63" t="n">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="G63" t="n">
-        <v>70.45751670999996</v>
+        <v>1009.5876</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2980,14 +2658,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2998,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9220</v>
+        <v>9310</v>
       </c>
       <c r="C64" t="n">
-        <v>9275</v>
+        <v>9310</v>
       </c>
       <c r="D64" t="n">
-        <v>9275</v>
+        <v>9310</v>
       </c>
       <c r="E64" t="n">
-        <v>9220</v>
+        <v>9310</v>
       </c>
       <c r="F64" t="n">
-        <v>194.4882</v>
+        <v>11.5</v>
       </c>
       <c r="G64" t="n">
-        <v>264.9457167099999</v>
+        <v>1009.5876</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3022,14 +2694,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3040,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9215</v>
+        <v>9310</v>
       </c>
       <c r="C65" t="n">
-        <v>9215</v>
+        <v>9310</v>
       </c>
       <c r="D65" t="n">
-        <v>9215</v>
+        <v>9310</v>
       </c>
       <c r="E65" t="n">
-        <v>9215</v>
+        <v>9310</v>
       </c>
       <c r="F65" t="n">
-        <v>53.0833</v>
+        <v>33</v>
       </c>
       <c r="G65" t="n">
-        <v>211.8624167099999</v>
+        <v>1009.5876</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3064,14 +2730,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3082,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9265</v>
+        <v>9230</v>
       </c>
       <c r="C66" t="n">
-        <v>9270</v>
+        <v>9230</v>
       </c>
       <c r="D66" t="n">
-        <v>9270</v>
+        <v>9230</v>
       </c>
       <c r="E66" t="n">
-        <v>9265</v>
+        <v>9230</v>
       </c>
       <c r="F66" t="n">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G66" t="n">
-        <v>244.8624167099999</v>
+        <v>907.5875999999998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3106,14 +2766,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3124,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9270</v>
+        <v>9235</v>
       </c>
       <c r="C67" t="n">
-        <v>9275</v>
+        <v>9200</v>
       </c>
       <c r="D67" t="n">
-        <v>9275</v>
+        <v>9235</v>
       </c>
       <c r="E67" t="n">
-        <v>9270</v>
+        <v>9145</v>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="G67" t="n">
-        <v>344.8624167099999</v>
+        <v>742.5875999999998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3148,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3166,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9275</v>
+        <v>9205</v>
       </c>
       <c r="C68" t="n">
-        <v>9280</v>
+        <v>9205</v>
       </c>
       <c r="D68" t="n">
-        <v>9280</v>
+        <v>9205</v>
       </c>
       <c r="E68" t="n">
-        <v>9275</v>
+        <v>9205</v>
       </c>
       <c r="F68" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="G68" t="n">
-        <v>372.8624167099999</v>
+        <v>797.5875999999998</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3190,14 +2838,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3208,38 +2850,36 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9275</v>
+        <v>9260</v>
       </c>
       <c r="C69" t="n">
-        <v>9275</v>
+        <v>9260</v>
       </c>
       <c r="D69" t="n">
-        <v>9275</v>
+        <v>9260</v>
       </c>
       <c r="E69" t="n">
-        <v>9275</v>
+        <v>9260</v>
       </c>
       <c r="F69" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="G69" t="n">
-        <v>319.8624167099999</v>
+        <v>803.5875999999998</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>9205</v>
+      </c>
       <c r="K69" t="n">
-        <v>9200</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>9205</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3250,22 +2890,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9275</v>
+        <v>9260</v>
       </c>
       <c r="C70" t="n">
-        <v>9275</v>
+        <v>9260</v>
       </c>
       <c r="D70" t="n">
-        <v>9275</v>
+        <v>9260</v>
       </c>
       <c r="E70" t="n">
-        <v>9275</v>
+        <v>9260</v>
       </c>
       <c r="F70" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G70" t="n">
-        <v>319.8624167099999</v>
+        <v>803.5875999999998</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3275,11 +2915,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -3292,22 +2932,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9275</v>
+        <v>9200</v>
       </c>
       <c r="C71" t="n">
-        <v>9275</v>
+        <v>9200</v>
       </c>
       <c r="D71" t="n">
-        <v>9275</v>
+        <v>9200</v>
       </c>
       <c r="E71" t="n">
-        <v>9275</v>
+        <v>9200</v>
       </c>
       <c r="F71" t="n">
-        <v>12</v>
+        <v>2.2925</v>
       </c>
       <c r="G71" t="n">
-        <v>319.8624167099999</v>
+        <v>801.2950999999998</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3317,11 +2957,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -3334,36 +2974,38 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9275</v>
+        <v>9190</v>
       </c>
       <c r="C72" t="n">
-        <v>9275</v>
+        <v>9185</v>
       </c>
       <c r="D72" t="n">
-        <v>9275</v>
+        <v>9190</v>
       </c>
       <c r="E72" t="n">
-        <v>9275</v>
+        <v>9185</v>
       </c>
       <c r="F72" t="n">
-        <v>26</v>
+        <v>222.1019</v>
       </c>
       <c r="G72" t="n">
-        <v>319.8624167099999</v>
+        <v>579.1931999999998</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>9200</v>
+      </c>
       <c r="K72" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M72" t="n">
@@ -3376,22 +3018,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9280</v>
+        <v>9160</v>
       </c>
       <c r="C73" t="n">
-        <v>9280</v>
+        <v>9145</v>
       </c>
       <c r="D73" t="n">
-        <v>9280</v>
+        <v>9160</v>
       </c>
       <c r="E73" t="n">
-        <v>9280</v>
+        <v>9145</v>
       </c>
       <c r="F73" t="n">
-        <v>4</v>
+        <v>666.3059</v>
       </c>
       <c r="G73" t="n">
-        <v>323.8624167099999</v>
+        <v>-87.11270000000013</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3401,7 +3043,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3418,32 +3060,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9280</v>
+        <v>9235</v>
       </c>
       <c r="C74" t="n">
-        <v>9280</v>
+        <v>9275</v>
       </c>
       <c r="D74" t="n">
-        <v>9280</v>
+        <v>9275</v>
       </c>
       <c r="E74" t="n">
-        <v>9280</v>
+        <v>9235</v>
       </c>
       <c r="F74" t="n">
-        <v>4</v>
+        <v>190.5</v>
       </c>
       <c r="G74" t="n">
-        <v>323.8624167099999</v>
+        <v>103.3872999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>9145</v>
+      </c>
       <c r="K74" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3460,22 +3104,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9280</v>
+        <v>9130</v>
       </c>
       <c r="C75" t="n">
-        <v>9280</v>
+        <v>9130</v>
       </c>
       <c r="D75" t="n">
-        <v>9280</v>
+        <v>9130</v>
       </c>
       <c r="E75" t="n">
-        <v>9280</v>
+        <v>9130</v>
       </c>
       <c r="F75" t="n">
-        <v>4</v>
+        <v>1.6966</v>
       </c>
       <c r="G75" t="n">
-        <v>323.8624167099999</v>
+        <v>101.6906999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3485,7 +3129,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3502,22 +3146,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9280</v>
+        <v>9220</v>
       </c>
       <c r="C76" t="n">
-        <v>9285</v>
+        <v>9210</v>
       </c>
       <c r="D76" t="n">
-        <v>9285</v>
+        <v>9225</v>
       </c>
       <c r="E76" t="n">
-        <v>9280</v>
+        <v>9205</v>
       </c>
       <c r="F76" t="n">
-        <v>8</v>
+        <v>40.367</v>
       </c>
       <c r="G76" t="n">
-        <v>331.8624167099999</v>
+        <v>142.0576999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3527,7 +3171,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3544,22 +3188,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9285</v>
+        <v>9135</v>
       </c>
       <c r="C77" t="n">
-        <v>9285</v>
+        <v>9205</v>
       </c>
       <c r="D77" t="n">
-        <v>9285</v>
+        <v>9215</v>
       </c>
       <c r="E77" t="n">
-        <v>9285</v>
+        <v>9075</v>
       </c>
       <c r="F77" t="n">
-        <v>14</v>
+        <v>196.3931</v>
       </c>
       <c r="G77" t="n">
-        <v>331.8624167099999</v>
+        <v>-54.33540000000013</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3569,7 +3213,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3586,22 +3230,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9285</v>
+        <v>9195</v>
       </c>
       <c r="C78" t="n">
-        <v>9285</v>
+        <v>9195</v>
       </c>
       <c r="D78" t="n">
-        <v>9285</v>
+        <v>9195</v>
       </c>
       <c r="E78" t="n">
-        <v>9285</v>
+        <v>9195</v>
       </c>
       <c r="F78" t="n">
-        <v>6</v>
+        <v>6.44</v>
       </c>
       <c r="G78" t="n">
-        <v>331.8624167099999</v>
+        <v>-60.77540000000013</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3611,7 +3255,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3628,22 +3272,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9280</v>
+        <v>9215</v>
       </c>
       <c r="C79" t="n">
-        <v>9280</v>
+        <v>9220</v>
       </c>
       <c r="D79" t="n">
-        <v>9280</v>
+        <v>9220</v>
       </c>
       <c r="E79" t="n">
-        <v>9280</v>
+        <v>9210</v>
       </c>
       <c r="F79" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>298.8624167099999</v>
+        <v>39.22459999999987</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3653,7 +3297,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3670,22 +3314,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9190</v>
+        <v>9210</v>
       </c>
       <c r="C80" t="n">
-        <v>9190</v>
+        <v>9215</v>
       </c>
       <c r="D80" t="n">
-        <v>9190</v>
+        <v>9220</v>
       </c>
       <c r="E80" t="n">
-        <v>9190</v>
+        <v>9210</v>
       </c>
       <c r="F80" t="n">
-        <v>15.9441</v>
+        <v>96</v>
       </c>
       <c r="G80" t="n">
-        <v>282.9183167099999</v>
+        <v>-56.77540000000013</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3695,7 +3339,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3712,22 +3356,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9215</v>
+        <v>9135</v>
       </c>
       <c r="C81" t="n">
-        <v>9215</v>
+        <v>9190</v>
       </c>
       <c r="D81" t="n">
-        <v>9215</v>
+        <v>9195</v>
       </c>
       <c r="E81" t="n">
-        <v>9215</v>
+        <v>9135</v>
       </c>
       <c r="F81" t="n">
-        <v>30.8975</v>
+        <v>174.2624</v>
       </c>
       <c r="G81" t="n">
-        <v>313.8158167099999</v>
+        <v>-231.0378000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3737,7 +3381,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3754,32 +3398,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9250</v>
+        <v>9200</v>
       </c>
       <c r="C82" t="n">
-        <v>9255</v>
+        <v>9200</v>
       </c>
       <c r="D82" t="n">
-        <v>9255</v>
+        <v>9200</v>
       </c>
       <c r="E82" t="n">
-        <v>9250</v>
+        <v>9200</v>
       </c>
       <c r="F82" t="n">
-        <v>60.5</v>
+        <v>30</v>
       </c>
       <c r="G82" t="n">
-        <v>374.3158167099999</v>
+        <v>-201.0378000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>9190</v>
+      </c>
       <c r="K82" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3796,32 +3442,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9220</v>
+        <v>9205</v>
       </c>
       <c r="C83" t="n">
-        <v>9220</v>
+        <v>9205</v>
       </c>
       <c r="D83" t="n">
-        <v>9220</v>
+        <v>9205</v>
       </c>
       <c r="E83" t="n">
-        <v>9220</v>
+        <v>9205</v>
       </c>
       <c r="F83" t="n">
-        <v>75.5</v>
+        <v>40.3357</v>
       </c>
       <c r="G83" t="n">
-        <v>298.8158167099999</v>
+        <v>-160.7021000000001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>9200</v>
+      </c>
       <c r="K83" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3838,32 +3486,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9220</v>
+        <v>9200</v>
       </c>
       <c r="C84" t="n">
-        <v>9220</v>
+        <v>9200</v>
       </c>
       <c r="D84" t="n">
-        <v>9220</v>
+        <v>9200</v>
       </c>
       <c r="E84" t="n">
-        <v>9220</v>
+        <v>9200</v>
       </c>
       <c r="F84" t="n">
-        <v>31.5</v>
+        <v>6.047</v>
       </c>
       <c r="G84" t="n">
-        <v>298.8158167099999</v>
+        <v>-166.7491000000001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>9205</v>
+      </c>
       <c r="K84" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3880,32 +3530,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9250</v>
+        <v>9200</v>
       </c>
       <c r="C85" t="n">
-        <v>9250</v>
+        <v>9200</v>
       </c>
       <c r="D85" t="n">
-        <v>9250</v>
+        <v>9200</v>
       </c>
       <c r="E85" t="n">
-        <v>9250</v>
+        <v>9200</v>
       </c>
       <c r="F85" t="n">
-        <v>29.5</v>
+        <v>4.7215</v>
       </c>
       <c r="G85" t="n">
-        <v>328.3158167099999</v>
+        <v>-166.7491000000001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>9200</v>
+      </c>
       <c r="K85" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3922,32 +3574,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9220</v>
+        <v>9200</v>
       </c>
       <c r="C86" t="n">
-        <v>9220</v>
+        <v>9200</v>
       </c>
       <c r="D86" t="n">
-        <v>9220</v>
+        <v>9200</v>
       </c>
       <c r="E86" t="n">
-        <v>9220</v>
+        <v>9195</v>
       </c>
       <c r="F86" t="n">
-        <v>4.4647</v>
+        <v>45.0517</v>
       </c>
       <c r="G86" t="n">
-        <v>323.8511167099999</v>
+        <v>-166.7491000000001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>9200</v>
+      </c>
       <c r="K86" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3964,32 +3618,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9245</v>
+        <v>9200</v>
       </c>
       <c r="C87" t="n">
-        <v>9245</v>
+        <v>9200</v>
       </c>
       <c r="D87" t="n">
-        <v>9245</v>
+        <v>9200</v>
       </c>
       <c r="E87" t="n">
-        <v>9235</v>
+        <v>9200</v>
       </c>
       <c r="F87" t="n">
-        <v>77.5</v>
+        <v>9.9</v>
       </c>
       <c r="G87" t="n">
-        <v>401.3511167099999</v>
+        <v>-166.7491000000001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>9200</v>
+      </c>
       <c r="K87" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4006,32 +3662,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9240</v>
+        <v>9200</v>
       </c>
       <c r="C88" t="n">
-        <v>9280</v>
+        <v>9200</v>
       </c>
       <c r="D88" t="n">
-        <v>9280</v>
+        <v>9200</v>
       </c>
       <c r="E88" t="n">
-        <v>9240</v>
+        <v>9195</v>
       </c>
       <c r="F88" t="n">
-        <v>235</v>
+        <v>47.974</v>
       </c>
       <c r="G88" t="n">
-        <v>636.3511167099999</v>
+        <v>-166.7491000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>9200</v>
+      </c>
       <c r="K88" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4048,32 +3706,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9260</v>
+        <v>9195</v>
       </c>
       <c r="C89" t="n">
-        <v>9255</v>
+        <v>9195</v>
       </c>
       <c r="D89" t="n">
-        <v>9260</v>
+        <v>9195</v>
       </c>
       <c r="E89" t="n">
-        <v>9255</v>
+        <v>9195</v>
       </c>
       <c r="F89" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="G89" t="n">
-        <v>593.3511167099999</v>
+        <v>-172.7491000000001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>9200</v>
+      </c>
       <c r="K89" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4090,32 +3750,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9250</v>
+        <v>9195</v>
       </c>
       <c r="C90" t="n">
-        <v>9245</v>
+        <v>9235</v>
       </c>
       <c r="D90" t="n">
-        <v>9250</v>
+        <v>9235</v>
       </c>
       <c r="E90" t="n">
-        <v>9245</v>
+        <v>9195</v>
       </c>
       <c r="F90" t="n">
-        <v>48</v>
+        <v>80.5</v>
       </c>
       <c r="G90" t="n">
-        <v>545.3511167099999</v>
+        <v>-92.24910000000014</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>9195</v>
+      </c>
       <c r="K90" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4132,32 +3794,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="C91" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="D91" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="E91" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="F91" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="G91" t="n">
-        <v>545.3511167099999</v>
+        <v>-28.24910000000014</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>9235</v>
+      </c>
       <c r="K91" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4174,22 +3838,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="C92" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="D92" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="E92" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="F92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>549.3511167099999</v>
+        <v>-26.24910000000014</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4199,7 +3863,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4216,32 +3880,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9270</v>
+        <v>9245</v>
       </c>
       <c r="C93" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="D93" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="E93" t="n">
-        <v>9270</v>
+        <v>9245</v>
       </c>
       <c r="F93" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G93" t="n">
-        <v>509.3511167099999</v>
+        <v>-16.24910000000014</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>9245</v>
+      </c>
       <c r="K93" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4258,22 +3924,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9280</v>
+        <v>9185</v>
       </c>
       <c r="C94" t="n">
-        <v>9280</v>
+        <v>9270</v>
       </c>
       <c r="D94" t="n">
         <v>9280</v>
       </c>
       <c r="E94" t="n">
-        <v>9280</v>
+        <v>9185</v>
       </c>
       <c r="F94" t="n">
-        <v>29</v>
+        <v>42.6163</v>
       </c>
       <c r="G94" t="n">
-        <v>538.3511167099999</v>
+        <v>-58.86540000000014</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4283,7 +3949,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4300,22 +3966,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9255</v>
+        <v>9270</v>
       </c>
       <c r="C95" t="n">
-        <v>9255</v>
+        <v>9270</v>
       </c>
       <c r="D95" t="n">
-        <v>9255</v>
+        <v>9270</v>
       </c>
       <c r="E95" t="n">
-        <v>9255</v>
+        <v>9270</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5402</v>
+        <v>30.5</v>
       </c>
       <c r="G95" t="n">
-        <v>537.8109167099999</v>
+        <v>-58.86540000000014</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4325,7 +3991,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4342,22 +4008,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="C96" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="D96" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="E96" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="F96" t="n">
-        <v>652.2395</v>
+        <v>53.8396</v>
       </c>
       <c r="G96" t="n">
-        <v>1190.05041671</v>
+        <v>-58.86540000000014</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4367,7 +4033,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4384,22 +4050,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9260</v>
+        <v>9205</v>
       </c>
       <c r="C97" t="n">
-        <v>9260</v>
+        <v>9205</v>
       </c>
       <c r="D97" t="n">
-        <v>9260</v>
+        <v>9205</v>
       </c>
       <c r="E97" t="n">
-        <v>9260</v>
+        <v>9205</v>
       </c>
       <c r="F97" t="n">
-        <v>1.8186</v>
+        <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>1188.23181671</v>
+        <v>-60.86540000000014</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4409,7 +4075,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4429,19 +4095,19 @@
         <v>9260</v>
       </c>
       <c r="C98" t="n">
-        <v>9260</v>
+        <v>9270</v>
       </c>
       <c r="D98" t="n">
-        <v>9260</v>
+        <v>9270</v>
       </c>
       <c r="E98" t="n">
         <v>9260</v>
       </c>
       <c r="F98" t="n">
-        <v>192.14</v>
+        <v>32.5</v>
       </c>
       <c r="G98" t="n">
-        <v>1188.23181671</v>
+        <v>-28.36540000000014</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4451,7 +4117,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4468,22 +4134,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9215</v>
+        <v>9270</v>
       </c>
       <c r="C99" t="n">
-        <v>9280</v>
+        <v>9270</v>
       </c>
       <c r="D99" t="n">
-        <v>9280</v>
+        <v>9270</v>
       </c>
       <c r="E99" t="n">
-        <v>9215</v>
+        <v>9270</v>
       </c>
       <c r="F99" t="n">
-        <v>49.303</v>
+        <v>39.5</v>
       </c>
       <c r="G99" t="n">
-        <v>1237.53481671</v>
+        <v>-28.36540000000014</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4493,7 +4159,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4510,22 +4176,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9265</v>
+        <v>9270</v>
       </c>
       <c r="C100" t="n">
-        <v>9265</v>
+        <v>9270</v>
       </c>
       <c r="D100" t="n">
-        <v>9265</v>
+        <v>9270</v>
       </c>
       <c r="E100" t="n">
-        <v>9265</v>
+        <v>9270</v>
       </c>
       <c r="F100" t="n">
-        <v>6.4176</v>
+        <v>71</v>
       </c>
       <c r="G100" t="n">
-        <v>1231.11721671</v>
+        <v>-28.36540000000014</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4535,7 +4201,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4552,22 +4218,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9250</v>
+        <v>9205</v>
       </c>
       <c r="C101" t="n">
-        <v>9255</v>
+        <v>9205</v>
       </c>
       <c r="D101" t="n">
-        <v>9255</v>
+        <v>9205</v>
       </c>
       <c r="E101" t="n">
-        <v>9250</v>
+        <v>9205</v>
       </c>
       <c r="F101" t="n">
-        <v>30.15526066</v>
+        <v>7.044</v>
       </c>
       <c r="G101" t="n">
-        <v>1200.96195605</v>
+        <v>-35.40940000000014</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4577,7 +4243,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4594,22 +4260,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9245</v>
+        <v>9280</v>
       </c>
       <c r="C102" t="n">
-        <v>9200</v>
+        <v>9290</v>
       </c>
       <c r="D102" t="n">
-        <v>9245</v>
+        <v>9290</v>
       </c>
       <c r="E102" t="n">
-        <v>9200</v>
+        <v>9280</v>
       </c>
       <c r="F102" t="n">
-        <v>80.992</v>
+        <v>44</v>
       </c>
       <c r="G102" t="n">
-        <v>1119.96995605</v>
+        <v>8.59059999999986</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4619,7 +4285,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4636,22 +4302,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9230</v>
+        <v>9205</v>
       </c>
       <c r="C103" t="n">
-        <v>9230</v>
+        <v>9200</v>
       </c>
       <c r="D103" t="n">
-        <v>9230</v>
+        <v>9205</v>
       </c>
       <c r="E103" t="n">
-        <v>9230</v>
+        <v>9200</v>
       </c>
       <c r="F103" t="n">
-        <v>9.3034</v>
+        <v>190</v>
       </c>
       <c r="G103" t="n">
-        <v>1129.27335605</v>
+        <v>-181.4094000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4661,7 +4327,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4678,22 +4344,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9240</v>
+        <v>9275</v>
       </c>
       <c r="C104" t="n">
-        <v>9240</v>
+        <v>9290</v>
       </c>
       <c r="D104" t="n">
-        <v>9240</v>
+        <v>9290</v>
       </c>
       <c r="E104" t="n">
-        <v>9240</v>
+        <v>9275</v>
       </c>
       <c r="F104" t="n">
-        <v>28.2298</v>
+        <v>8</v>
       </c>
       <c r="G104" t="n">
-        <v>1157.50315605</v>
+        <v>-173.4094000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4703,7 +4369,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4723,19 +4389,19 @@
         <v>9280</v>
       </c>
       <c r="C105" t="n">
-        <v>9270</v>
+        <v>9290</v>
       </c>
       <c r="D105" t="n">
+        <v>9290</v>
+      </c>
+      <c r="E105" t="n">
         <v>9280</v>
       </c>
-      <c r="E105" t="n">
-        <v>9270</v>
-      </c>
       <c r="F105" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="G105" t="n">
-        <v>1267.50315605</v>
+        <v>-173.4094000000001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4745,7 +4411,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4762,22 +4428,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9270</v>
+        <v>9290</v>
       </c>
       <c r="C106" t="n">
-        <v>9270</v>
+        <v>9190</v>
       </c>
       <c r="D106" t="n">
-        <v>9270</v>
+        <v>9295</v>
       </c>
       <c r="E106" t="n">
-        <v>9270</v>
+        <v>9190</v>
       </c>
       <c r="F106" t="n">
-        <v>98.5</v>
+        <v>153.7523</v>
       </c>
       <c r="G106" t="n">
-        <v>1267.50315605</v>
+        <v>-327.1617000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4787,7 +4453,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4804,22 +4470,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9270</v>
+        <v>9190</v>
       </c>
       <c r="C107" t="n">
-        <v>9275</v>
+        <v>9190</v>
       </c>
       <c r="D107" t="n">
-        <v>9275</v>
+        <v>9190</v>
       </c>
       <c r="E107" t="n">
-        <v>9270</v>
+        <v>9190</v>
       </c>
       <c r="F107" t="n">
-        <v>6</v>
+        <v>121.2524</v>
       </c>
       <c r="G107" t="n">
-        <v>1273.50315605</v>
+        <v>-327.1617000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4829,7 +4495,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4846,22 +4512,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9220</v>
+        <v>9275</v>
       </c>
       <c r="C108" t="n">
-        <v>9220</v>
+        <v>9270</v>
       </c>
       <c r="D108" t="n">
-        <v>9220</v>
+        <v>9275</v>
       </c>
       <c r="E108" t="n">
-        <v>9220</v>
+        <v>9270</v>
       </c>
       <c r="F108" t="n">
-        <v>5.8878</v>
+        <v>18</v>
       </c>
       <c r="G108" t="n">
-        <v>1267.61535605</v>
+        <v>-309.1617000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4871,7 +4537,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4888,22 +4554,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9210</v>
+        <v>9270</v>
       </c>
       <c r="C109" t="n">
-        <v>9210</v>
+        <v>9295</v>
       </c>
       <c r="D109" t="n">
-        <v>9210</v>
+        <v>9295</v>
       </c>
       <c r="E109" t="n">
-        <v>9210</v>
+        <v>9270</v>
       </c>
       <c r="F109" t="n">
-        <v>22.6889</v>
+        <v>8</v>
       </c>
       <c r="G109" t="n">
-        <v>1244.92645605</v>
+        <v>-301.1617000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4913,7 +4579,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4930,22 +4596,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9280</v>
+        <v>9290</v>
       </c>
       <c r="C110" t="n">
-        <v>9285</v>
+        <v>9290</v>
       </c>
       <c r="D110" t="n">
-        <v>9285</v>
+        <v>9290</v>
       </c>
       <c r="E110" t="n">
-        <v>9280</v>
+        <v>9290</v>
       </c>
       <c r="F110" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G110" t="n">
-        <v>1275.92645605</v>
+        <v>-334.1617000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4955,7 +4621,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4972,22 +4638,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9285</v>
+        <v>9290</v>
       </c>
       <c r="C111" t="n">
-        <v>9285</v>
+        <v>9290</v>
       </c>
       <c r="D111" t="n">
-        <v>9285</v>
+        <v>9290</v>
       </c>
       <c r="E111" t="n">
-        <v>9285</v>
+        <v>9290</v>
       </c>
       <c r="F111" t="n">
-        <v>32</v>
+        <v>29.5</v>
       </c>
       <c r="G111" t="n">
-        <v>1275.92645605</v>
+        <v>-334.1617000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4997,7 +4663,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5014,22 +4680,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9285</v>
+        <v>9190</v>
       </c>
       <c r="C112" t="n">
-        <v>9295</v>
+        <v>9190</v>
       </c>
       <c r="D112" t="n">
-        <v>9295</v>
+        <v>9190</v>
       </c>
       <c r="E112" t="n">
-        <v>9285</v>
+        <v>9190</v>
       </c>
       <c r="F112" t="n">
-        <v>44</v>
+        <v>2.0454</v>
       </c>
       <c r="G112" t="n">
-        <v>1319.92645605</v>
+        <v>-336.2071000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5039,7 +4705,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5056,22 +4722,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9295</v>
+        <v>9195</v>
       </c>
       <c r="C113" t="n">
-        <v>9295</v>
+        <v>9190</v>
       </c>
       <c r="D113" t="n">
-        <v>9295</v>
+        <v>9195</v>
       </c>
       <c r="E113" t="n">
-        <v>9295</v>
+        <v>9190</v>
       </c>
       <c r="F113" t="n">
-        <v>32</v>
+        <v>39.5706</v>
       </c>
       <c r="G113" t="n">
-        <v>1319.92645605</v>
+        <v>-336.2071000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5081,7 +4747,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5098,22 +4764,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9290</v>
+        <v>9270</v>
       </c>
       <c r="C114" t="n">
-        <v>9295</v>
+        <v>9275</v>
       </c>
       <c r="D114" t="n">
-        <v>9295</v>
+        <v>9275</v>
       </c>
       <c r="E114" t="n">
-        <v>9290</v>
+        <v>9270</v>
       </c>
       <c r="F114" t="n">
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="G114" t="n">
-        <v>1319.92645605</v>
+        <v>-301.2071000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5123,7 +4789,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5140,22 +4806,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9290</v>
+        <v>9270</v>
       </c>
       <c r="C115" t="n">
-        <v>9300</v>
+        <v>9270</v>
       </c>
       <c r="D115" t="n">
-        <v>9300</v>
+        <v>9270</v>
       </c>
       <c r="E115" t="n">
-        <v>9290</v>
+        <v>9270</v>
       </c>
       <c r="F115" t="n">
-        <v>73.5</v>
+        <v>6</v>
       </c>
       <c r="G115" t="n">
-        <v>1393.42645605</v>
+        <v>-307.2071000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5165,7 +4831,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5182,22 +4848,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9300</v>
+        <v>9275</v>
       </c>
       <c r="C116" t="n">
-        <v>9300</v>
+        <v>9275</v>
       </c>
       <c r="D116" t="n">
-        <v>9300</v>
+        <v>9275</v>
       </c>
       <c r="E116" t="n">
-        <v>9300</v>
+        <v>9275</v>
       </c>
       <c r="F116" t="n">
-        <v>31.5</v>
+        <v>6.38</v>
       </c>
       <c r="G116" t="n">
-        <v>1393.42645605</v>
+        <v>-300.8271000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5207,7 +4873,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5224,22 +4890,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9290</v>
+        <v>9270</v>
       </c>
       <c r="C117" t="n">
-        <v>9290</v>
+        <v>9270</v>
       </c>
       <c r="D117" t="n">
-        <v>9290</v>
+        <v>9270</v>
       </c>
       <c r="E117" t="n">
-        <v>9290</v>
+        <v>9270</v>
       </c>
       <c r="F117" t="n">
-        <v>19.04865446</v>
+        <v>16.6493</v>
       </c>
       <c r="G117" t="n">
-        <v>1374.37780159</v>
+        <v>-317.4764000000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5249,7 +4915,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5266,22 +4932,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9280</v>
+        <v>9275</v>
       </c>
       <c r="C118" t="n">
-        <v>9300</v>
+        <v>9270</v>
       </c>
       <c r="D118" t="n">
-        <v>9300</v>
+        <v>9275</v>
       </c>
       <c r="E118" t="n">
-        <v>9280</v>
+        <v>9270</v>
       </c>
       <c r="F118" t="n">
-        <v>48.5</v>
+        <v>60</v>
       </c>
       <c r="G118" t="n">
-        <v>1422.87780159</v>
+        <v>-317.4764000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5291,7 +4957,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5308,22 +4974,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9290</v>
+        <v>9275</v>
       </c>
       <c r="C119" t="n">
-        <v>9290</v>
+        <v>9275</v>
       </c>
       <c r="D119" t="n">
-        <v>9290</v>
+        <v>9275</v>
       </c>
       <c r="E119" t="n">
-        <v>9290</v>
+        <v>9275</v>
       </c>
       <c r="F119" t="n">
-        <v>104.2597</v>
+        <v>0.10781671</v>
       </c>
       <c r="G119" t="n">
-        <v>1318.618101589999</v>
+        <v>-317.3685832900001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5333,7 +4999,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5350,22 +5016,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9295</v>
+        <v>9275</v>
       </c>
       <c r="C120" t="n">
-        <v>9295</v>
+        <v>9275</v>
       </c>
       <c r="D120" t="n">
-        <v>9295</v>
+        <v>9275</v>
       </c>
       <c r="E120" t="n">
-        <v>9295</v>
+        <v>9275</v>
       </c>
       <c r="F120" t="n">
-        <v>32.5208</v>
+        <v>20.2156</v>
       </c>
       <c r="G120" t="n">
-        <v>1351.138901589999</v>
+        <v>-317.3685832900001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5375,7 +5041,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5392,22 +5058,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9195</v>
+        <v>9275</v>
       </c>
       <c r="C121" t="n">
-        <v>9285</v>
+        <v>9275</v>
       </c>
       <c r="D121" t="n">
-        <v>9285</v>
+        <v>9275</v>
       </c>
       <c r="E121" t="n">
-        <v>9195</v>
+        <v>9275</v>
       </c>
       <c r="F121" t="n">
-        <v>34.5208</v>
+        <v>45</v>
       </c>
       <c r="G121" t="n">
-        <v>1316.618101589999</v>
+        <v>-317.3685832900001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5417,7 +5083,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5434,22 +5100,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9285</v>
+        <v>9195</v>
       </c>
       <c r="C122" t="n">
-        <v>9285</v>
+        <v>9190</v>
       </c>
       <c r="D122" t="n">
-        <v>9285</v>
+        <v>9275</v>
       </c>
       <c r="E122" t="n">
-        <v>9285</v>
+        <v>9190</v>
       </c>
       <c r="F122" t="n">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="G122" t="n">
-        <v>1316.618101589999</v>
+        <v>-431.3685832900001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5459,7 +5125,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5476,22 +5142,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9285</v>
+        <v>9180</v>
       </c>
       <c r="C123" t="n">
-        <v>9140</v>
+        <v>9205</v>
       </c>
       <c r="D123" t="n">
-        <v>9290</v>
+        <v>9205</v>
       </c>
       <c r="E123" t="n">
-        <v>9140</v>
+        <v>9180</v>
       </c>
       <c r="F123" t="n">
-        <v>55.99947023</v>
+        <v>290</v>
       </c>
       <c r="G123" t="n">
-        <v>1260.618631359999</v>
+        <v>-141.3685832900001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5501,7 +5167,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5518,22 +5184,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9265</v>
+        <v>9175</v>
       </c>
       <c r="C124" t="n">
-        <v>9265</v>
+        <v>9170</v>
       </c>
       <c r="D124" t="n">
-        <v>9265</v>
+        <v>9270</v>
       </c>
       <c r="E124" t="n">
-        <v>9265</v>
+        <v>9170</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="G124" t="n">
-        <v>1261.618631359999</v>
+        <v>-401.3685832900001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5543,7 +5209,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5560,22 +5226,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9175</v>
+        <v>9170</v>
       </c>
       <c r="C125" t="n">
-        <v>9140</v>
+        <v>9245</v>
       </c>
       <c r="D125" t="n">
-        <v>9175</v>
+        <v>9245</v>
       </c>
       <c r="E125" t="n">
-        <v>9140</v>
+        <v>9155</v>
       </c>
       <c r="F125" t="n">
-        <v>35</v>
+        <v>286.3054</v>
       </c>
       <c r="G125" t="n">
-        <v>1226.618631359999</v>
+        <v>-115.06318329</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5585,7 +5251,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5602,7 +5268,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9260</v>
+        <v>9230</v>
       </c>
       <c r="C126" t="n">
         <v>9260</v>
@@ -5611,13 +5277,13 @@
         <v>9260</v>
       </c>
       <c r="E126" t="n">
-        <v>9260</v>
+        <v>9220</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="G126" t="n">
-        <v>1227.618631359999</v>
+        <v>-63.06318329000004</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5627,7 +5293,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5644,22 +5310,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9265</v>
+        <v>9145</v>
       </c>
       <c r="C127" t="n">
-        <v>9265</v>
+        <v>9140</v>
       </c>
       <c r="D127" t="n">
-        <v>9265</v>
+        <v>9145</v>
       </c>
       <c r="E127" t="n">
-        <v>9265</v>
+        <v>9140</v>
       </c>
       <c r="F127" t="n">
-        <v>16.44</v>
+        <v>230</v>
       </c>
       <c r="G127" t="n">
-        <v>1244.058631359999</v>
+        <v>-293.06318329</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5669,7 +5335,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5686,22 +5352,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9265</v>
+        <v>9145</v>
       </c>
       <c r="C128" t="n">
-        <v>9265</v>
+        <v>9145</v>
       </c>
       <c r="D128" t="n">
-        <v>9265</v>
+        <v>9145</v>
       </c>
       <c r="E128" t="n">
-        <v>9265</v>
+        <v>9140</v>
       </c>
       <c r="F128" t="n">
-        <v>21.3365</v>
+        <v>59.6</v>
       </c>
       <c r="G128" t="n">
-        <v>1244.058631359999</v>
+        <v>-233.46318329</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5711,7 +5377,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5728,22 +5394,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9250</v>
+        <v>9145</v>
       </c>
       <c r="C129" t="n">
-        <v>9255</v>
+        <v>9215</v>
       </c>
       <c r="D129" t="n">
-        <v>9255</v>
+        <v>9220</v>
       </c>
       <c r="E129" t="n">
-        <v>9250</v>
+        <v>9145</v>
       </c>
       <c r="F129" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G129" t="n">
-        <v>1228.058631359999</v>
+        <v>-209.46318329</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5753,7 +5419,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5770,22 +5436,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9250</v>
+        <v>9150</v>
       </c>
       <c r="C130" t="n">
-        <v>9250</v>
+        <v>9140</v>
       </c>
       <c r="D130" t="n">
-        <v>9250</v>
+        <v>9150</v>
       </c>
       <c r="E130" t="n">
-        <v>9250</v>
+        <v>9140</v>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>60.569</v>
       </c>
       <c r="G130" t="n">
-        <v>1226.058631359999</v>
+        <v>-270.03218329</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5795,7 +5461,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5812,22 +5478,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9250</v>
+        <v>9140</v>
       </c>
       <c r="C131" t="n">
-        <v>9255</v>
+        <v>9210</v>
       </c>
       <c r="D131" t="n">
-        <v>9255</v>
+        <v>9210</v>
       </c>
       <c r="E131" t="n">
-        <v>9250</v>
+        <v>9140</v>
       </c>
       <c r="F131" t="n">
-        <v>1.9997947</v>
+        <v>137.9897</v>
       </c>
       <c r="G131" t="n">
-        <v>1228.058426059999</v>
+        <v>-132.04248329</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5837,7 +5503,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5854,22 +5520,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9255</v>
+        <v>9200</v>
       </c>
       <c r="C132" t="n">
-        <v>9260</v>
+        <v>9250</v>
       </c>
       <c r="D132" t="n">
-        <v>9260</v>
+        <v>9250</v>
       </c>
       <c r="E132" t="n">
-        <v>9255</v>
+        <v>9200</v>
       </c>
       <c r="F132" t="n">
-        <v>6.99951782</v>
+        <v>58.5</v>
       </c>
       <c r="G132" t="n">
-        <v>1235.057943879999</v>
+        <v>-73.54248329000004</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5879,7 +5545,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5896,22 +5562,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9255</v>
+        <v>9245</v>
       </c>
       <c r="C133" t="n">
-        <v>9255</v>
+        <v>9275</v>
       </c>
       <c r="D133" t="n">
-        <v>9255</v>
+        <v>9275</v>
       </c>
       <c r="E133" t="n">
-        <v>9255</v>
+        <v>9245</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
-        <v>1234.057943879999</v>
+        <v>181.45751671</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5921,7 +5587,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5938,22 +5604,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9190</v>
+        <v>9265</v>
       </c>
       <c r="C134" t="n">
-        <v>9185</v>
+        <v>9270</v>
       </c>
       <c r="D134" t="n">
-        <v>9190</v>
+        <v>9270</v>
       </c>
       <c r="E134" t="n">
-        <v>9185</v>
+        <v>9265</v>
       </c>
       <c r="F134" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G134" t="n">
-        <v>1134.057943879999</v>
+        <v>70.45751670999996</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5963,7 +5629,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5980,22 +5646,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9250</v>
+        <v>9220</v>
       </c>
       <c r="C135" t="n">
-        <v>9250</v>
+        <v>9275</v>
       </c>
       <c r="D135" t="n">
-        <v>9250</v>
+        <v>9275</v>
       </c>
       <c r="E135" t="n">
-        <v>9250</v>
+        <v>9220</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5</v>
+        <v>194.4882</v>
       </c>
       <c r="G135" t="n">
-        <v>1134.557943879999</v>
+        <v>264.9457167099999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -6005,7 +5671,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -6022,22 +5688,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9245</v>
+        <v>9215</v>
       </c>
       <c r="C136" t="n">
-        <v>9250</v>
+        <v>9215</v>
       </c>
       <c r="D136" t="n">
-        <v>9250</v>
+        <v>9215</v>
       </c>
       <c r="E136" t="n">
-        <v>9245</v>
+        <v>9215</v>
       </c>
       <c r="F136" t="n">
-        <v>6</v>
+        <v>53.0833</v>
       </c>
       <c r="G136" t="n">
-        <v>1134.557943879999</v>
+        <v>211.8624167099999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -6047,7 +5713,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -6064,22 +5730,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9255</v>
+        <v>9265</v>
       </c>
       <c r="C137" t="n">
-        <v>9255</v>
+        <v>9270</v>
       </c>
       <c r="D137" t="n">
-        <v>9255</v>
+        <v>9270</v>
       </c>
       <c r="E137" t="n">
-        <v>9255</v>
+        <v>9265</v>
       </c>
       <c r="F137" t="n">
-        <v>37.7228</v>
+        <v>33</v>
       </c>
       <c r="G137" t="n">
-        <v>1172.280743879999</v>
+        <v>244.8624167099999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -6089,7 +5755,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -6106,22 +5772,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9250</v>
+        <v>9270</v>
       </c>
       <c r="C138" t="n">
-        <v>9250</v>
+        <v>9275</v>
       </c>
       <c r="D138" t="n">
-        <v>9250</v>
+        <v>9275</v>
       </c>
       <c r="E138" t="n">
-        <v>9250</v>
+        <v>9270</v>
       </c>
       <c r="F138" t="n">
-        <v>24.6299</v>
+        <v>100</v>
       </c>
       <c r="G138" t="n">
-        <v>1147.650843879999</v>
+        <v>344.8624167099999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -6131,7 +5797,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6148,22 +5814,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9260</v>
+        <v>9275</v>
       </c>
       <c r="C139" t="n">
-        <v>9265</v>
+        <v>9280</v>
       </c>
       <c r="D139" t="n">
-        <v>9265</v>
+        <v>9280</v>
       </c>
       <c r="E139" t="n">
-        <v>9260</v>
+        <v>9275</v>
       </c>
       <c r="F139" t="n">
-        <v>89.5</v>
+        <v>28</v>
       </c>
       <c r="G139" t="n">
-        <v>1237.150843879999</v>
+        <v>372.8624167099999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -6173,7 +5839,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6190,22 +5856,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>9265</v>
+        <v>9275</v>
       </c>
       <c r="C140" t="n">
-        <v>9265</v>
+        <v>9275</v>
       </c>
       <c r="D140" t="n">
-        <v>9265</v>
+        <v>9275</v>
       </c>
       <c r="E140" t="n">
-        <v>9265</v>
+        <v>9275</v>
       </c>
       <c r="F140" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="G140" t="n">
-        <v>1237.150843879999</v>
+        <v>319.8624167099999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6215,7 +5881,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6232,22 +5898,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9265</v>
+        <v>9275</v>
       </c>
       <c r="C141" t="n">
-        <v>9265</v>
+        <v>9275</v>
       </c>
       <c r="D141" t="n">
-        <v>9265</v>
+        <v>9275</v>
       </c>
       <c r="E141" t="n">
-        <v>9265</v>
+        <v>9275</v>
       </c>
       <c r="F141" t="n">
-        <v>60.5</v>
+        <v>14</v>
       </c>
       <c r="G141" t="n">
-        <v>1237.150843879999</v>
+        <v>319.8624167099999</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6257,7 +5923,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6274,22 +5940,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9195</v>
+        <v>9275</v>
       </c>
       <c r="C142" t="n">
-        <v>9195</v>
+        <v>9275</v>
       </c>
       <c r="D142" t="n">
-        <v>9195</v>
+        <v>9275</v>
       </c>
       <c r="E142" t="n">
-        <v>9195</v>
+        <v>9275</v>
       </c>
       <c r="F142" t="n">
-        <v>1.996</v>
+        <v>12</v>
       </c>
       <c r="G142" t="n">
-        <v>1235.154843879999</v>
+        <v>319.8624167099999</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6299,7 +5965,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6316,22 +5982,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>9260</v>
+        <v>9275</v>
       </c>
       <c r="C143" t="n">
-        <v>9265</v>
+        <v>9275</v>
       </c>
       <c r="D143" t="n">
-        <v>9265</v>
+        <v>9275</v>
       </c>
       <c r="E143" t="n">
-        <v>9260</v>
+        <v>9275</v>
       </c>
       <c r="F143" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G143" t="n">
-        <v>1237.154843879999</v>
+        <v>319.8624167099999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6341,7 +6007,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6358,22 +6024,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>9195</v>
+        <v>9280</v>
       </c>
       <c r="C144" t="n">
-        <v>9195</v>
+        <v>9280</v>
       </c>
       <c r="D144" t="n">
-        <v>9195</v>
+        <v>9280</v>
       </c>
       <c r="E144" t="n">
-        <v>9195</v>
+        <v>9280</v>
       </c>
       <c r="F144" t="n">
-        <v>10.3605</v>
+        <v>4</v>
       </c>
       <c r="G144" t="n">
-        <v>1226.794343879999</v>
+        <v>323.8624167099999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6383,7 +6049,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6400,22 +6066,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>9260</v>
+        <v>9280</v>
       </c>
       <c r="C145" t="n">
-        <v>9265</v>
+        <v>9280</v>
       </c>
       <c r="D145" t="n">
-        <v>9265</v>
+        <v>9280</v>
       </c>
       <c r="E145" t="n">
-        <v>9260</v>
+        <v>9280</v>
       </c>
       <c r="F145" t="n">
-        <v>10.99965488</v>
+        <v>4</v>
       </c>
       <c r="G145" t="n">
-        <v>1237.793998759999</v>
+        <v>323.8624167099999</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6425,7 +6091,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6442,22 +6108,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9185</v>
+        <v>9280</v>
       </c>
       <c r="C146" t="n">
-        <v>9185</v>
+        <v>9280</v>
       </c>
       <c r="D146" t="n">
-        <v>9185</v>
+        <v>9280</v>
       </c>
       <c r="E146" t="n">
-        <v>9185</v>
+        <v>9280</v>
       </c>
       <c r="F146" t="n">
-        <v>11.0324</v>
+        <v>4</v>
       </c>
       <c r="G146" t="n">
-        <v>1226.761598759999</v>
+        <v>323.8624167099999</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6467,7 +6133,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6484,22 +6150,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9185</v>
+        <v>9280</v>
       </c>
       <c r="C147" t="n">
-        <v>9185</v>
+        <v>9285</v>
       </c>
       <c r="D147" t="n">
-        <v>9185</v>
+        <v>9285</v>
       </c>
       <c r="E147" t="n">
-        <v>9185</v>
+        <v>9280</v>
       </c>
       <c r="F147" t="n">
-        <v>62.1968</v>
+        <v>8</v>
       </c>
       <c r="G147" t="n">
-        <v>1226.761598759999</v>
+        <v>331.8624167099999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6509,7 +6175,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6526,22 +6192,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9250</v>
+        <v>9285</v>
       </c>
       <c r="C148" t="n">
-        <v>9255</v>
+        <v>9285</v>
       </c>
       <c r="D148" t="n">
-        <v>9255</v>
+        <v>9285</v>
       </c>
       <c r="E148" t="n">
-        <v>9250</v>
+        <v>9285</v>
       </c>
       <c r="F148" t="n">
-        <v>29.5</v>
+        <v>14</v>
       </c>
       <c r="G148" t="n">
-        <v>1256.261598759999</v>
+        <v>331.8624167099999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6551,7 +6217,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6568,22 +6234,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9255</v>
+        <v>9285</v>
       </c>
       <c r="C149" t="n">
-        <v>9255</v>
+        <v>9285</v>
       </c>
       <c r="D149" t="n">
-        <v>9255</v>
+        <v>9285</v>
       </c>
       <c r="E149" t="n">
-        <v>9255</v>
+        <v>9285</v>
       </c>
       <c r="F149" t="n">
-        <v>31.5</v>
+        <v>6</v>
       </c>
       <c r="G149" t="n">
-        <v>1256.261598759999</v>
+        <v>331.8624167099999</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6593,7 +6259,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6610,22 +6276,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9255</v>
+        <v>9280</v>
       </c>
       <c r="C150" t="n">
-        <v>9265</v>
+        <v>9280</v>
       </c>
       <c r="D150" t="n">
-        <v>9265</v>
+        <v>9280</v>
       </c>
       <c r="E150" t="n">
-        <v>9255</v>
+        <v>9280</v>
       </c>
       <c r="F150" t="n">
-        <v>189.5</v>
+        <v>33</v>
       </c>
       <c r="G150" t="n">
-        <v>1445.761598759999</v>
+        <v>298.8624167099999</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6635,7 +6301,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6652,22 +6318,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9265</v>
+        <v>9190</v>
       </c>
       <c r="C151" t="n">
-        <v>9265</v>
+        <v>9190</v>
       </c>
       <c r="D151" t="n">
-        <v>9265</v>
+        <v>9190</v>
       </c>
       <c r="E151" t="n">
-        <v>9265</v>
+        <v>9190</v>
       </c>
       <c r="F151" t="n">
-        <v>10</v>
+        <v>15.9441</v>
       </c>
       <c r="G151" t="n">
-        <v>1445.761598759999</v>
+        <v>282.9183167099999</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6677,7 +6343,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6694,22 +6360,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9265</v>
+        <v>9215</v>
       </c>
       <c r="C152" t="n">
-        <v>9265</v>
+        <v>9215</v>
       </c>
       <c r="D152" t="n">
-        <v>9265</v>
+        <v>9215</v>
       </c>
       <c r="E152" t="n">
-        <v>9265</v>
+        <v>9215</v>
       </c>
       <c r="F152" t="n">
-        <v>10</v>
+        <v>30.8975</v>
       </c>
       <c r="G152" t="n">
-        <v>1445.761598759999</v>
+        <v>313.8158167099999</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6719,7 +6385,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6736,22 +6402,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>9265</v>
+        <v>9250</v>
       </c>
       <c r="C153" t="n">
-        <v>9265</v>
+        <v>9255</v>
       </c>
       <c r="D153" t="n">
-        <v>9265</v>
+        <v>9255</v>
       </c>
       <c r="E153" t="n">
-        <v>9265</v>
+        <v>9250</v>
       </c>
       <c r="F153" t="n">
-        <v>16</v>
+        <v>60.5</v>
       </c>
       <c r="G153" t="n">
-        <v>1445.761598759999</v>
+        <v>374.3158167099999</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6761,7 +6427,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6778,22 +6444,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>9265</v>
+        <v>9220</v>
       </c>
       <c r="C154" t="n">
-        <v>9265</v>
+        <v>9220</v>
       </c>
       <c r="D154" t="n">
-        <v>9265</v>
+        <v>9220</v>
       </c>
       <c r="E154" t="n">
-        <v>9265</v>
+        <v>9220</v>
       </c>
       <c r="F154" t="n">
-        <v>0.38804512</v>
+        <v>75.5</v>
       </c>
       <c r="G154" t="n">
-        <v>1445.761598759999</v>
+        <v>298.8158167099999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6803,7 +6469,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6820,22 +6486,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>9295</v>
+        <v>9220</v>
       </c>
       <c r="C155" t="n">
-        <v>9295</v>
+        <v>9220</v>
       </c>
       <c r="D155" t="n">
-        <v>9295</v>
+        <v>9220</v>
       </c>
       <c r="E155" t="n">
-        <v>9295</v>
+        <v>9220</v>
       </c>
       <c r="F155" t="n">
-        <v>5.7348</v>
+        <v>31.5</v>
       </c>
       <c r="G155" t="n">
-        <v>1451.496398759999</v>
+        <v>298.8158167099999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6845,7 +6511,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6862,22 +6528,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>9300</v>
+        <v>9250</v>
       </c>
       <c r="C156" t="n">
-        <v>9300</v>
+        <v>9250</v>
       </c>
       <c r="D156" t="n">
-        <v>9300</v>
+        <v>9250</v>
       </c>
       <c r="E156" t="n">
-        <v>9300</v>
+        <v>9250</v>
       </c>
       <c r="F156" t="n">
-        <v>75.5</v>
+        <v>29.5</v>
       </c>
       <c r="G156" t="n">
-        <v>1526.996398759999</v>
+        <v>328.3158167099999</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6887,7 +6553,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6904,22 +6570,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>9300</v>
+        <v>9220</v>
       </c>
       <c r="C157" t="n">
-        <v>9300</v>
+        <v>9220</v>
       </c>
       <c r="D157" t="n">
-        <v>9300</v>
+        <v>9220</v>
       </c>
       <c r="E157" t="n">
-        <v>9300</v>
+        <v>9220</v>
       </c>
       <c r="F157" t="n">
-        <v>31.5</v>
+        <v>4.4647</v>
       </c>
       <c r="G157" t="n">
-        <v>1526.996398759999</v>
+        <v>323.8511167099999</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6929,7 +6595,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6946,40 +6612,40 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>9300</v>
+        <v>9245</v>
       </c>
       <c r="C158" t="n">
-        <v>9300</v>
+        <v>9245</v>
       </c>
       <c r="D158" t="n">
-        <v>9300</v>
+        <v>9245</v>
       </c>
       <c r="E158" t="n">
-        <v>9300</v>
+        <v>9235</v>
       </c>
       <c r="F158" t="n">
-        <v>33</v>
+        <v>77.5</v>
       </c>
       <c r="G158" t="n">
-        <v>1526.996398759999</v>
+        <v>401.3511167099999</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>1.005869565217391</v>
+        <v>1</v>
       </c>
       <c r="N158" t="inlineStr"/>
     </row>
@@ -6988,32 +6654,38 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>9300</v>
+        <v>9240</v>
       </c>
       <c r="C159" t="n">
-        <v>9300</v>
+        <v>9280</v>
       </c>
       <c r="D159" t="n">
-        <v>9300</v>
+        <v>9280</v>
       </c>
       <c r="E159" t="n">
-        <v>9300</v>
+        <v>9240</v>
       </c>
       <c r="F159" t="n">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="G159" t="n">
-        <v>1526.996398759999</v>
+        <v>636.3511167099999</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -7024,32 +6696,38 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9300</v>
+        <v>9260</v>
       </c>
       <c r="C160" t="n">
-        <v>9300</v>
+        <v>9255</v>
       </c>
       <c r="D160" t="n">
-        <v>9300</v>
+        <v>9260</v>
       </c>
       <c r="E160" t="n">
-        <v>9300</v>
+        <v>9255</v>
       </c>
       <c r="F160" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G160" t="n">
-        <v>1526.996398759999</v>
+        <v>593.3511167099999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -7060,32 +6738,38 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>9300</v>
+        <v>9250</v>
       </c>
       <c r="C161" t="n">
-        <v>9320</v>
+        <v>9245</v>
       </c>
       <c r="D161" t="n">
-        <v>9320</v>
+        <v>9250</v>
       </c>
       <c r="E161" t="n">
-        <v>9300</v>
+        <v>9245</v>
       </c>
       <c r="F161" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G161" t="n">
-        <v>1559.996398759999</v>
+        <v>545.3511167099999</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -7096,32 +6780,38 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>9320</v>
+        <v>9245</v>
       </c>
       <c r="C162" t="n">
-        <v>9320</v>
+        <v>9245</v>
       </c>
       <c r="D162" t="n">
-        <v>9320</v>
+        <v>9245</v>
       </c>
       <c r="E162" t="n">
-        <v>9320</v>
+        <v>9245</v>
       </c>
       <c r="F162" t="n">
-        <v>18.7</v>
+        <v>30</v>
       </c>
       <c r="G162" t="n">
-        <v>1559.996398759999</v>
+        <v>545.3511167099999</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7132,32 +6822,38 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>9245</v>
+        <v>9280</v>
       </c>
       <c r="C163" t="n">
-        <v>9215</v>
+        <v>9280</v>
       </c>
       <c r="D163" t="n">
-        <v>9245</v>
+        <v>9280</v>
       </c>
       <c r="E163" t="n">
-        <v>9215</v>
+        <v>9280</v>
       </c>
       <c r="F163" t="n">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="G163" t="n">
-        <v>1259.996398759999</v>
+        <v>549.3511167099999</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7168,22 +6864,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>9300</v>
+        <v>9270</v>
       </c>
       <c r="C164" t="n">
-        <v>9330</v>
+        <v>9270</v>
       </c>
       <c r="D164" t="n">
-        <v>9330</v>
+        <v>9270</v>
       </c>
       <c r="E164" t="n">
-        <v>9300</v>
+        <v>9270</v>
       </c>
       <c r="F164" t="n">
-        <v>39.5</v>
+        <v>40</v>
       </c>
       <c r="G164" t="n">
-        <v>1299.496398759999</v>
+        <v>509.3511167099999</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -7192,8 +6888,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7204,32 +6906,38 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>9330</v>
+        <v>9280</v>
       </c>
       <c r="C165" t="n">
-        <v>9330</v>
+        <v>9280</v>
       </c>
       <c r="D165" t="n">
-        <v>9330</v>
+        <v>9280</v>
       </c>
       <c r="E165" t="n">
-        <v>9330</v>
+        <v>9280</v>
       </c>
       <c r="F165" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G165" t="n">
-        <v>1299.496398759999</v>
+        <v>538.3511167099999</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7240,32 +6948,38 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>9280</v>
+        <v>9255</v>
       </c>
       <c r="C166" t="n">
-        <v>9270</v>
+        <v>9255</v>
       </c>
       <c r="D166" t="n">
-        <v>9280</v>
+        <v>9255</v>
       </c>
       <c r="E166" t="n">
-        <v>9270</v>
+        <v>9255</v>
       </c>
       <c r="F166" t="n">
-        <v>116</v>
+        <v>0.5402</v>
       </c>
       <c r="G166" t="n">
-        <v>1183.496398759999</v>
+        <v>537.8109167099999</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7276,32 +6990,38 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>9330</v>
+        <v>9275</v>
       </c>
       <c r="C167" t="n">
-        <v>9345</v>
+        <v>9275</v>
       </c>
       <c r="D167" t="n">
-        <v>9345</v>
+        <v>9275</v>
       </c>
       <c r="E167" t="n">
-        <v>9330</v>
+        <v>9275</v>
       </c>
       <c r="F167" t="n">
-        <v>39</v>
+        <v>652.2395</v>
       </c>
       <c r="G167" t="n">
-        <v>1222.496398759999</v>
+        <v>1190.05041671</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7312,32 +7032,38 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>9280</v>
+        <v>9260</v>
       </c>
       <c r="C168" t="n">
-        <v>9345</v>
+        <v>9260</v>
       </c>
       <c r="D168" t="n">
-        <v>9345</v>
+        <v>9260</v>
       </c>
       <c r="E168" t="n">
-        <v>9280</v>
+        <v>9260</v>
       </c>
       <c r="F168" t="n">
-        <v>53.5</v>
+        <v>1.8186</v>
       </c>
       <c r="G168" t="n">
-        <v>1222.496398759999</v>
+        <v>1188.23181671</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7348,32 +7074,38 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>9345</v>
+        <v>9260</v>
       </c>
       <c r="C169" t="n">
-        <v>9345</v>
+        <v>9260</v>
       </c>
       <c r="D169" t="n">
-        <v>9345</v>
+        <v>9260</v>
       </c>
       <c r="E169" t="n">
-        <v>9345</v>
+        <v>9260</v>
       </c>
       <c r="F169" t="n">
-        <v>100</v>
+        <v>192.14</v>
       </c>
       <c r="G169" t="n">
-        <v>1222.496398759999</v>
+        <v>1188.23181671</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7384,7 +7116,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>9280</v>
+        <v>9215</v>
       </c>
       <c r="C170" t="n">
         <v>9280</v>
@@ -7393,23 +7125,29 @@
         <v>9280</v>
       </c>
       <c r="E170" t="n">
-        <v>9280</v>
+        <v>9215</v>
       </c>
       <c r="F170" t="n">
-        <v>82.4289</v>
+        <v>49.303</v>
       </c>
       <c r="G170" t="n">
-        <v>1140.067498759999</v>
+        <v>1237.53481671</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7420,32 +7158,38 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>9290</v>
+        <v>9265</v>
       </c>
       <c r="C171" t="n">
-        <v>9320</v>
+        <v>9265</v>
       </c>
       <c r="D171" t="n">
-        <v>9320</v>
+        <v>9265</v>
       </c>
       <c r="E171" t="n">
-        <v>9270</v>
+        <v>9265</v>
       </c>
       <c r="F171" t="n">
-        <v>280.2869</v>
+        <v>6.4176</v>
       </c>
       <c r="G171" t="n">
-        <v>1420.354398759999</v>
+        <v>1231.11721671</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7456,32 +7200,38 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>9310</v>
+        <v>9250</v>
       </c>
       <c r="C172" t="n">
-        <v>9310</v>
+        <v>9255</v>
       </c>
       <c r="D172" t="n">
-        <v>9310</v>
+        <v>9255</v>
       </c>
       <c r="E172" t="n">
-        <v>9310</v>
+        <v>9250</v>
       </c>
       <c r="F172" t="n">
-        <v>1.7348</v>
+        <v>30.15526066</v>
       </c>
       <c r="G172" t="n">
-        <v>1418.619598759999</v>
+        <v>1200.96195605</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7492,32 +7242,38 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>9265</v>
+        <v>9245</v>
       </c>
       <c r="C173" t="n">
-        <v>9265</v>
+        <v>9200</v>
       </c>
       <c r="D173" t="n">
-        <v>9265</v>
+        <v>9245</v>
       </c>
       <c r="E173" t="n">
-        <v>9265</v>
+        <v>9200</v>
       </c>
       <c r="F173" t="n">
-        <v>2</v>
+        <v>80.992</v>
       </c>
       <c r="G173" t="n">
-        <v>1416.619598759999</v>
+        <v>1119.96995605</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7528,32 +7284,38 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="C174" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="D174" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="E174" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>9.3034</v>
       </c>
       <c r="G174" t="n">
-        <v>1415.619598759999</v>
+        <v>1129.27335605</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7567,29 +7329,35 @@
         <v>9240</v>
       </c>
       <c r="C175" t="n">
-        <v>9295</v>
+        <v>9240</v>
       </c>
       <c r="D175" t="n">
-        <v>9295</v>
+        <v>9240</v>
       </c>
       <c r="E175" t="n">
-        <v>9215</v>
+        <v>9240</v>
       </c>
       <c r="F175" t="n">
-        <v>334.4722</v>
+        <v>28.2298</v>
       </c>
       <c r="G175" t="n">
-        <v>1750.091798759999</v>
+        <v>1157.50315605</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7600,36 +7368,2664 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
+        <v>9280</v>
+      </c>
+      <c r="C176" t="n">
+        <v>9270</v>
+      </c>
+      <c r="D176" t="n">
+        <v>9280</v>
+      </c>
+      <c r="E176" t="n">
+        <v>9270</v>
+      </c>
+      <c r="F176" t="n">
+        <v>110</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1267.50315605</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>9270</v>
+      </c>
+      <c r="C177" t="n">
+        <v>9270</v>
+      </c>
+      <c r="D177" t="n">
+        <v>9270</v>
+      </c>
+      <c r="E177" t="n">
+        <v>9270</v>
+      </c>
+      <c r="F177" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1267.50315605</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>9270</v>
+      </c>
+      <c r="C178" t="n">
+        <v>9275</v>
+      </c>
+      <c r="D178" t="n">
+        <v>9275</v>
+      </c>
+      <c r="E178" t="n">
+        <v>9270</v>
+      </c>
+      <c r="F178" t="n">
+        <v>6</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1273.50315605</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9220</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9220</v>
+      </c>
+      <c r="D179" t="n">
+        <v>9220</v>
+      </c>
+      <c r="E179" t="n">
+        <v>9220</v>
+      </c>
+      <c r="F179" t="n">
+        <v>5.8878</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1267.61535605</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9210</v>
+      </c>
+      <c r="C180" t="n">
+        <v>9210</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9210</v>
+      </c>
+      <c r="E180" t="n">
+        <v>9210</v>
+      </c>
+      <c r="F180" t="n">
+        <v>22.6889</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1244.92645605</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>9280</v>
+      </c>
+      <c r="C181" t="n">
+        <v>9285</v>
+      </c>
+      <c r="D181" t="n">
+        <v>9285</v>
+      </c>
+      <c r="E181" t="n">
+        <v>9280</v>
+      </c>
+      <c r="F181" t="n">
+        <v>31</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1275.92645605</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>9285</v>
+      </c>
+      <c r="C182" t="n">
+        <v>9285</v>
+      </c>
+      <c r="D182" t="n">
+        <v>9285</v>
+      </c>
+      <c r="E182" t="n">
+        <v>9285</v>
+      </c>
+      <c r="F182" t="n">
+        <v>32</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1275.92645605</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>9285</v>
+      </c>
+      <c r="C183" t="n">
+        <v>9295</v>
+      </c>
+      <c r="D183" t="n">
+        <v>9295</v>
+      </c>
+      <c r="E183" t="n">
+        <v>9285</v>
+      </c>
+      <c r="F183" t="n">
+        <v>44</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1319.92645605</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>9295</v>
+      </c>
+      <c r="C184" t="n">
+        <v>9295</v>
+      </c>
+      <c r="D184" t="n">
+        <v>9295</v>
+      </c>
+      <c r="E184" t="n">
+        <v>9295</v>
+      </c>
+      <c r="F184" t="n">
+        <v>32</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1319.92645605</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>9290</v>
+      </c>
+      <c r="C185" t="n">
+        <v>9295</v>
+      </c>
+      <c r="D185" t="n">
+        <v>9295</v>
+      </c>
+      <c r="E185" t="n">
+        <v>9290</v>
+      </c>
+      <c r="F185" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1319.92645605</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>9290</v>
+      </c>
+      <c r="C186" t="n">
+        <v>9300</v>
+      </c>
+      <c r="D186" t="n">
+        <v>9300</v>
+      </c>
+      <c r="E186" t="n">
+        <v>9290</v>
+      </c>
+      <c r="F186" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1393.42645605</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>9300</v>
+      </c>
+      <c r="C187" t="n">
+        <v>9300</v>
+      </c>
+      <c r="D187" t="n">
+        <v>9300</v>
+      </c>
+      <c r="E187" t="n">
+        <v>9300</v>
+      </c>
+      <c r="F187" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1393.42645605</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>9205</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1.005320478001086</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>9290</v>
+      </c>
+      <c r="C188" t="n">
+        <v>9290</v>
+      </c>
+      <c r="D188" t="n">
+        <v>9290</v>
+      </c>
+      <c r="E188" t="n">
+        <v>9290</v>
+      </c>
+      <c r="F188" t="n">
+        <v>19.04865446</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1374.37780159</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>9280</v>
+      </c>
+      <c r="C189" t="n">
+        <v>9300</v>
+      </c>
+      <c r="D189" t="n">
+        <v>9300</v>
+      </c>
+      <c r="E189" t="n">
+        <v>9280</v>
+      </c>
+      <c r="F189" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1422.87780159</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>9290</v>
+      </c>
+      <c r="C190" t="n">
+        <v>9290</v>
+      </c>
+      <c r="D190" t="n">
+        <v>9290</v>
+      </c>
+      <c r="E190" t="n">
+        <v>9290</v>
+      </c>
+      <c r="F190" t="n">
+        <v>104.2597</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1318.618101589999</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>9295</v>
+      </c>
+      <c r="C191" t="n">
+        <v>9295</v>
+      </c>
+      <c r="D191" t="n">
+        <v>9295</v>
+      </c>
+      <c r="E191" t="n">
+        <v>9295</v>
+      </c>
+      <c r="F191" t="n">
+        <v>32.5208</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1351.138901589999</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>9195</v>
+      </c>
+      <c r="C192" t="n">
+        <v>9285</v>
+      </c>
+      <c r="D192" t="n">
+        <v>9285</v>
+      </c>
+      <c r="E192" t="n">
+        <v>9195</v>
+      </c>
+      <c r="F192" t="n">
+        <v>34.5208</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1316.618101589999</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>9285</v>
+      </c>
+      <c r="C193" t="n">
+        <v>9285</v>
+      </c>
+      <c r="D193" t="n">
+        <v>9285</v>
+      </c>
+      <c r="E193" t="n">
+        <v>9285</v>
+      </c>
+      <c r="F193" t="n">
+        <v>12</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1316.618101589999</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>9285</v>
+      </c>
+      <c r="C194" t="n">
+        <v>9140</v>
+      </c>
+      <c r="D194" t="n">
+        <v>9290</v>
+      </c>
+      <c r="E194" t="n">
+        <v>9140</v>
+      </c>
+      <c r="F194" t="n">
+        <v>55.99947023</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1260.618631359999</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>9265</v>
+      </c>
+      <c r="C195" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D195" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E195" t="n">
+        <v>9265</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1261.618631359999</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>9175</v>
+      </c>
+      <c r="C196" t="n">
+        <v>9140</v>
+      </c>
+      <c r="D196" t="n">
+        <v>9175</v>
+      </c>
+      <c r="E196" t="n">
+        <v>9140</v>
+      </c>
+      <c r="F196" t="n">
+        <v>35</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1226.618631359999</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>9260</v>
+      </c>
+      <c r="C197" t="n">
+        <v>9260</v>
+      </c>
+      <c r="D197" t="n">
+        <v>9260</v>
+      </c>
+      <c r="E197" t="n">
+        <v>9260</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1227.618631359999</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>9265</v>
+      </c>
+      <c r="C198" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D198" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E198" t="n">
+        <v>9265</v>
+      </c>
+      <c r="F198" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1244.058631359999</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>9265</v>
+      </c>
+      <c r="C199" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D199" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E199" t="n">
+        <v>9265</v>
+      </c>
+      <c r="F199" t="n">
+        <v>21.3365</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1244.058631359999</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>9250</v>
+      </c>
+      <c r="C200" t="n">
+        <v>9255</v>
+      </c>
+      <c r="D200" t="n">
+        <v>9255</v>
+      </c>
+      <c r="E200" t="n">
+        <v>9250</v>
+      </c>
+      <c r="F200" t="n">
+        <v>16</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1228.058631359999</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>9250</v>
+      </c>
+      <c r="C201" t="n">
+        <v>9250</v>
+      </c>
+      <c r="D201" t="n">
+        <v>9250</v>
+      </c>
+      <c r="E201" t="n">
+        <v>9250</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1226.058631359999</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>9250</v>
+      </c>
+      <c r="C202" t="n">
+        <v>9255</v>
+      </c>
+      <c r="D202" t="n">
+        <v>9255</v>
+      </c>
+      <c r="E202" t="n">
+        <v>9250</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1.9997947</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1228.058426059999</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>9255</v>
+      </c>
+      <c r="C203" t="n">
+        <v>9260</v>
+      </c>
+      <c r="D203" t="n">
+        <v>9260</v>
+      </c>
+      <c r="E203" t="n">
+        <v>9255</v>
+      </c>
+      <c r="F203" t="n">
+        <v>6.99951782</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1235.057943879999</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>9255</v>
+      </c>
+      <c r="C204" t="n">
+        <v>9255</v>
+      </c>
+      <c r="D204" t="n">
+        <v>9255</v>
+      </c>
+      <c r="E204" t="n">
+        <v>9255</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1234.057943879999</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>9190</v>
+      </c>
+      <c r="C205" t="n">
+        <v>9185</v>
+      </c>
+      <c r="D205" t="n">
+        <v>9190</v>
+      </c>
+      <c r="E205" t="n">
+        <v>9185</v>
+      </c>
+      <c r="F205" t="n">
+        <v>100</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1134.057943879999</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>9250</v>
+      </c>
+      <c r="C206" t="n">
+        <v>9250</v>
+      </c>
+      <c r="D206" t="n">
+        <v>9250</v>
+      </c>
+      <c r="E206" t="n">
+        <v>9250</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1134.557943879999</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>9245</v>
+      </c>
+      <c r="C207" t="n">
+        <v>9250</v>
+      </c>
+      <c r="D207" t="n">
+        <v>9250</v>
+      </c>
+      <c r="E207" t="n">
+        <v>9245</v>
+      </c>
+      <c r="F207" t="n">
+        <v>6</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1134.557943879999</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>9255</v>
+      </c>
+      <c r="C208" t="n">
+        <v>9255</v>
+      </c>
+      <c r="D208" t="n">
+        <v>9255</v>
+      </c>
+      <c r="E208" t="n">
+        <v>9255</v>
+      </c>
+      <c r="F208" t="n">
+        <v>37.7228</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1172.280743879999</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>9250</v>
+      </c>
+      <c r="C209" t="n">
+        <v>9250</v>
+      </c>
+      <c r="D209" t="n">
+        <v>9250</v>
+      </c>
+      <c r="E209" t="n">
+        <v>9250</v>
+      </c>
+      <c r="F209" t="n">
+        <v>24.6299</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1147.650843879999</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>9260</v>
+      </c>
+      <c r="C210" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D210" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E210" t="n">
+        <v>9260</v>
+      </c>
+      <c r="F210" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1237.150843879999</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>9265</v>
+      </c>
+      <c r="C211" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D211" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E211" t="n">
+        <v>9265</v>
+      </c>
+      <c r="F211" t="n">
+        <v>69</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1237.150843879999</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>9265</v>
+      </c>
+      <c r="C212" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D212" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E212" t="n">
+        <v>9265</v>
+      </c>
+      <c r="F212" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1237.150843879999</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>9195</v>
+      </c>
+      <c r="C213" t="n">
+        <v>9195</v>
+      </c>
+      <c r="D213" t="n">
+        <v>9195</v>
+      </c>
+      <c r="E213" t="n">
+        <v>9195</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1.996</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1235.154843879999</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>9260</v>
+      </c>
+      <c r="C214" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D214" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E214" t="n">
+        <v>9260</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1237.154843879999</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>9195</v>
+      </c>
+      <c r="C215" t="n">
+        <v>9195</v>
+      </c>
+      <c r="D215" t="n">
+        <v>9195</v>
+      </c>
+      <c r="E215" t="n">
+        <v>9195</v>
+      </c>
+      <c r="F215" t="n">
+        <v>10.3605</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1226.794343879999</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>9260</v>
+      </c>
+      <c r="C216" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D216" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E216" t="n">
+        <v>9260</v>
+      </c>
+      <c r="F216" t="n">
+        <v>10.99965488</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1237.793998759999</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>9185</v>
+      </c>
+      <c r="C217" t="n">
+        <v>9185</v>
+      </c>
+      <c r="D217" t="n">
+        <v>9185</v>
+      </c>
+      <c r="E217" t="n">
+        <v>9185</v>
+      </c>
+      <c r="F217" t="n">
+        <v>11.0324</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1226.761598759999</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>9185</v>
+      </c>
+      <c r="C218" t="n">
+        <v>9185</v>
+      </c>
+      <c r="D218" t="n">
+        <v>9185</v>
+      </c>
+      <c r="E218" t="n">
+        <v>9185</v>
+      </c>
+      <c r="F218" t="n">
+        <v>62.1968</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1226.761598759999</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>9250</v>
+      </c>
+      <c r="C219" t="n">
+        <v>9255</v>
+      </c>
+      <c r="D219" t="n">
+        <v>9255</v>
+      </c>
+      <c r="E219" t="n">
+        <v>9250</v>
+      </c>
+      <c r="F219" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1256.261598759999</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>9255</v>
+      </c>
+      <c r="C220" t="n">
+        <v>9255</v>
+      </c>
+      <c r="D220" t="n">
+        <v>9255</v>
+      </c>
+      <c r="E220" t="n">
+        <v>9255</v>
+      </c>
+      <c r="F220" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1256.261598759999</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>9255</v>
+      </c>
+      <c r="C221" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D221" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E221" t="n">
+        <v>9255</v>
+      </c>
+      <c r="F221" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1445.761598759999</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>9265</v>
+      </c>
+      <c r="C222" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D222" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E222" t="n">
+        <v>9265</v>
+      </c>
+      <c r="F222" t="n">
+        <v>10</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1445.761598759999</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>9265</v>
+      </c>
+      <c r="C223" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D223" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E223" t="n">
+        <v>9265</v>
+      </c>
+      <c r="F223" t="n">
+        <v>10</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1445.761598759999</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>9265</v>
+      </c>
+      <c r="C224" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D224" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E224" t="n">
+        <v>9265</v>
+      </c>
+      <c r="F224" t="n">
+        <v>16</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1445.761598759999</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>9265</v>
+      </c>
+      <c r="C225" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D225" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E225" t="n">
+        <v>9265</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.38804512</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1445.761598759999</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>9295</v>
+      </c>
+      <c r="C226" t="n">
+        <v>9295</v>
+      </c>
+      <c r="D226" t="n">
+        <v>9295</v>
+      </c>
+      <c r="E226" t="n">
+        <v>9295</v>
+      </c>
+      <c r="F226" t="n">
+        <v>5.7348</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1451.496398759999</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>9300</v>
+      </c>
+      <c r="C227" t="n">
+        <v>9300</v>
+      </c>
+      <c r="D227" t="n">
+        <v>9300</v>
+      </c>
+      <c r="E227" t="n">
+        <v>9300</v>
+      </c>
+      <c r="F227" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1526.996398759999</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>9300</v>
+      </c>
+      <c r="C228" t="n">
+        <v>9300</v>
+      </c>
+      <c r="D228" t="n">
+        <v>9300</v>
+      </c>
+      <c r="E228" t="n">
+        <v>9300</v>
+      </c>
+      <c r="F228" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1526.996398759999</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>9300</v>
+      </c>
+      <c r="C229" t="n">
+        <v>9300</v>
+      </c>
+      <c r="D229" t="n">
+        <v>9300</v>
+      </c>
+      <c r="E229" t="n">
+        <v>9300</v>
+      </c>
+      <c r="F229" t="n">
+        <v>33</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1526.996398759999</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>9300</v>
+      </c>
+      <c r="C230" t="n">
+        <v>9300</v>
+      </c>
+      <c r="D230" t="n">
+        <v>9300</v>
+      </c>
+      <c r="E230" t="n">
+        <v>9300</v>
+      </c>
+      <c r="F230" t="n">
+        <v>29</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1526.996398759999</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>9300</v>
+      </c>
+      <c r="C231" t="n">
+        <v>9300</v>
+      </c>
+      <c r="D231" t="n">
+        <v>9300</v>
+      </c>
+      <c r="E231" t="n">
+        <v>9300</v>
+      </c>
+      <c r="F231" t="n">
+        <v>32</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1526.996398759999</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>9300</v>
+      </c>
+      <c r="C232" t="n">
+        <v>9320</v>
+      </c>
+      <c r="D232" t="n">
+        <v>9320</v>
+      </c>
+      <c r="E232" t="n">
+        <v>9300</v>
+      </c>
+      <c r="F232" t="n">
+        <v>33</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1559.996398759999</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>9320</v>
+      </c>
+      <c r="C233" t="n">
+        <v>9320</v>
+      </c>
+      <c r="D233" t="n">
+        <v>9320</v>
+      </c>
+      <c r="E233" t="n">
+        <v>9320</v>
+      </c>
+      <c r="F233" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="G233" t="n">
+        <v>1559.996398759999</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>9245</v>
+      </c>
+      <c r="C234" t="n">
         <v>9215</v>
       </c>
-      <c r="C176" t="n">
+      <c r="D234" t="n">
+        <v>9245</v>
+      </c>
+      <c r="E234" t="n">
+        <v>9215</v>
+      </c>
+      <c r="F234" t="n">
+        <v>300</v>
+      </c>
+      <c r="G234" t="n">
+        <v>1259.996398759999</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
         <v>9300</v>
       </c>
-      <c r="D176" t="n">
+      <c r="C235" t="n">
+        <v>9330</v>
+      </c>
+      <c r="D235" t="n">
+        <v>9330</v>
+      </c>
+      <c r="E235" t="n">
         <v>9300</v>
       </c>
-      <c r="E176" t="n">
+      <c r="F235" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1299.496398759999</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>9330</v>
+      </c>
+      <c r="C236" t="n">
+        <v>9330</v>
+      </c>
+      <c r="D236" t="n">
+        <v>9330</v>
+      </c>
+      <c r="E236" t="n">
+        <v>9330</v>
+      </c>
+      <c r="F236" t="n">
+        <v>23</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1299.496398759999</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>9280</v>
+      </c>
+      <c r="C237" t="n">
+        <v>9270</v>
+      </c>
+      <c r="D237" t="n">
+        <v>9280</v>
+      </c>
+      <c r="E237" t="n">
+        <v>9270</v>
+      </c>
+      <c r="F237" t="n">
+        <v>116</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1183.496398759999</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>9330</v>
+      </c>
+      <c r="C238" t="n">
+        <v>9345</v>
+      </c>
+      <c r="D238" t="n">
+        <v>9345</v>
+      </c>
+      <c r="E238" t="n">
+        <v>9330</v>
+      </c>
+      <c r="F238" t="n">
+        <v>39</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1222.496398759999</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>9280</v>
+      </c>
+      <c r="C239" t="n">
+        <v>9345</v>
+      </c>
+      <c r="D239" t="n">
+        <v>9345</v>
+      </c>
+      <c r="E239" t="n">
+        <v>9280</v>
+      </c>
+      <c r="F239" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1222.496398759999</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>9345</v>
+      </c>
+      <c r="C240" t="n">
+        <v>9345</v>
+      </c>
+      <c r="D240" t="n">
+        <v>9345</v>
+      </c>
+      <c r="E240" t="n">
+        <v>9345</v>
+      </c>
+      <c r="F240" t="n">
+        <v>100</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1222.496398759999</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>9280</v>
+      </c>
+      <c r="C241" t="n">
+        <v>9280</v>
+      </c>
+      <c r="D241" t="n">
+        <v>9280</v>
+      </c>
+      <c r="E241" t="n">
+        <v>9280</v>
+      </c>
+      <c r="F241" t="n">
+        <v>82.4289</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1140.067498759999</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>9290</v>
+      </c>
+      <c r="C242" t="n">
+        <v>9320</v>
+      </c>
+      <c r="D242" t="n">
+        <v>9320</v>
+      </c>
+      <c r="E242" t="n">
+        <v>9270</v>
+      </c>
+      <c r="F242" t="n">
+        <v>280.2869</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1420.354398759999</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>9310</v>
+      </c>
+      <c r="C243" t="n">
+        <v>9310</v>
+      </c>
+      <c r="D243" t="n">
+        <v>9310</v>
+      </c>
+      <c r="E243" t="n">
+        <v>9310</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1.7348</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1418.619598759999</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>9265</v>
+      </c>
+      <c r="C244" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D244" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E244" t="n">
+        <v>9265</v>
+      </c>
+      <c r="F244" t="n">
+        <v>2</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1416.619598759999</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>9240</v>
+      </c>
+      <c r="C245" t="n">
+        <v>9240</v>
+      </c>
+      <c r="D245" t="n">
+        <v>9240</v>
+      </c>
+      <c r="E245" t="n">
+        <v>9240</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1415.619598759999</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>9240</v>
+      </c>
+      <c r="C246" t="n">
+        <v>9295</v>
+      </c>
+      <c r="D246" t="n">
+        <v>9295</v>
+      </c>
+      <c r="E246" t="n">
+        <v>9215</v>
+      </c>
+      <c r="F246" t="n">
+        <v>334.4722</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1750.091798759999</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>9215</v>
+      </c>
+      <c r="C247" t="n">
+        <v>9300</v>
+      </c>
+      <c r="D247" t="n">
+        <v>9300</v>
+      </c>
+      <c r="E247" t="n">
         <v>9210</v>
       </c>
-      <c r="F176" t="n">
+      <c r="F247" t="n">
         <v>344.6333</v>
       </c>
-      <c r="G176" t="n">
+      <c r="G247" t="n">
         <v>2094.725098759999</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-14 BackTest BTG.xlsx
+++ b/BackTest/2019-10-14 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N247"/>
+  <dimension ref="A1:M247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,19 @@
         <v>917.3035</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>9145</v>
+      </c>
+      <c r="J34" t="n">
+        <v>9145</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1546,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1585,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1624,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1663,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1702,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1741,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1780,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1819,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1858,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1897,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1936,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1975,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +2014,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2053,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2092,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2131,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2170,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2207,23 @@
         <v>924.8520999999998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>9170</v>
+      </c>
+      <c r="J52" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2250,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2289,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2328,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2367,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2406,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2445,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2482,21 @@
         <v>997.2538999999998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2523,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2562,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2601,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2638,21 @@
         <v>1009.5876</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2677,21 @@
         <v>1009.5876</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2716,21 @@
         <v>1009.5876</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2757,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2796,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2835,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,22 +2872,21 @@
         <v>803.5875999999998</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K69" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>9145</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2910,22 +2913,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2952,22 +2952,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2994,24 +2991,19 @@
       <c r="H72" t="n">
         <v>1</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>9200</v>
-      </c>
-      <c r="K72" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>9145</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3038,22 +3030,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3078,26 +3067,21 @@
         <v>103.3872999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>9145</v>
       </c>
-      <c r="K74" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3124,22 +3108,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3166,22 +3147,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3208,22 +3186,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3250,22 +3225,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3290,24 +3262,23 @@
         <v>39.22459999999987</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>9195</v>
+      </c>
+      <c r="J79" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3334,22 +3305,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3376,22 +3344,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3416,26 +3381,23 @@
         <v>-201.0378000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>9190</v>
       </c>
       <c r="J82" t="n">
-        <v>9190</v>
-      </c>
-      <c r="K82" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>9145</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3460,26 +3422,23 @@
         <v>-160.7021000000001</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="J83" t="n">
-        <v>9200</v>
-      </c>
-      <c r="K83" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>9145</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3504,26 +3463,21 @@
         <v>-166.7491000000001</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K84" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>9145</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3548,26 +3502,21 @@
         <v>-166.7491000000001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>9200</v>
-      </c>
-      <c r="K85" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>9145</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3592,26 +3541,23 @@
         <v>-166.7491000000001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="J86" t="n">
-        <v>9200</v>
-      </c>
-      <c r="K86" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>9145</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3636,26 +3582,21 @@
         <v>-166.7491000000001</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>9200</v>
-      </c>
-      <c r="K87" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>9145</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3680,26 +3621,21 @@
         <v>-166.7491000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>9200</v>
-      </c>
-      <c r="K88" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>9145</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3724,26 +3660,23 @@
         <v>-172.7491000000001</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="J89" t="n">
-        <v>9200</v>
-      </c>
-      <c r="K89" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>9145</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3768,26 +3701,23 @@
         <v>-92.24910000000014</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>9195</v>
       </c>
       <c r="J90" t="n">
-        <v>9195</v>
-      </c>
-      <c r="K90" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>9145</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3812,26 +3742,23 @@
         <v>-28.24910000000014</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>9235</v>
       </c>
       <c r="J91" t="n">
-        <v>9235</v>
-      </c>
-      <c r="K91" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>9145</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3856,24 +3783,23 @@
         <v>-26.24910000000014</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>9240</v>
+      </c>
+      <c r="J92" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3898,26 +3824,21 @@
         <v>-16.24910000000014</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>9245</v>
-      </c>
-      <c r="K93" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>9145</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3944,22 +3865,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3986,22 +3904,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4028,22 +3943,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4070,22 +3982,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4112,22 +4021,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4154,22 +4060,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4196,22 +4099,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4238,22 +4138,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4280,22 +4177,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4322,22 +4216,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4364,22 +4255,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4406,22 +4294,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4448,22 +4333,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4490,22 +4372,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4532,22 +4411,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4574,22 +4450,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4616,22 +4489,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4658,22 +4528,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4700,22 +4567,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4742,22 +4606,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4784,22 +4645,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4826,22 +4684,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4868,22 +4723,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4910,22 +4762,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4952,22 +4801,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4994,22 +4840,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5036,22 +4879,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5078,22 +4918,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5120,22 +4957,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5162,22 +4996,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5204,22 +5035,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5246,22 +5074,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5288,22 +5113,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5330,22 +5152,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5372,22 +5191,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5414,22 +5230,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5456,22 +5269,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5498,22 +5308,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5540,22 +5347,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5582,22 +5386,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5624,22 +5425,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5666,22 +5464,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5708,22 +5503,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5750,22 +5542,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5792,22 +5581,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5834,22 +5620,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5876,22 +5659,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5918,22 +5698,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5960,22 +5737,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6002,22 +5776,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6044,22 +5815,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6086,22 +5854,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6128,22 +5893,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6170,22 +5932,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6212,22 +5971,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6254,22 +6010,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6296,22 +6049,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6338,22 +6088,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6380,22 +6127,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6422,22 +6166,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6464,22 +6205,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6506,22 +6244,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6548,22 +6283,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6590,22 +6322,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6632,22 +6361,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6674,22 +6400,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6716,22 +6439,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6758,22 +6478,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6800,22 +6517,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6842,22 +6556,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6884,22 +6595,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6926,22 +6634,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6968,22 +6673,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7010,22 +6712,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7052,22 +6751,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7094,22 +6790,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7136,22 +6829,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7178,22 +6868,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7220,22 +6907,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7262,22 +6946,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7304,22 +6985,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7346,22 +7024,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7388,22 +7063,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7430,22 +7102,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7472,22 +7141,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7514,22 +7180,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7556,22 +7219,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7598,22 +7258,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7640,22 +7297,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7682,22 +7336,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7724,22 +7375,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7766,22 +7414,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7806,24 +7451,21 @@
         <v>1393.42645605</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>9145</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1.011949152542373</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7850,22 +7492,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>9205</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1.005320478001086</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7892,16 +7525,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7928,16 +7558,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7964,16 +7591,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8000,16 +7624,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8036,16 +7657,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8072,16 +7690,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8108,16 +7723,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8144,16 +7756,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8180,16 +7789,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8216,16 +7822,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8252,16 +7855,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8288,16 +7888,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8324,16 +7921,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8360,16 +7954,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8396,16 +7987,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8432,16 +8020,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8468,16 +8053,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8504,16 +8086,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8540,16 +8119,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8576,16 +8152,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8612,16 +8185,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8648,16 +8218,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8684,16 +8251,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8720,16 +8284,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8756,16 +8317,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8792,16 +8350,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8828,16 +8383,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8864,16 +8416,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8900,16 +8449,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8936,16 +8482,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8972,16 +8515,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9008,16 +8548,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9044,16 +8581,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9080,16 +8614,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9116,16 +8647,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9152,16 +8680,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9188,16 +8713,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9224,16 +8746,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9260,16 +8779,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9296,16 +8812,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9330,18 +8843,15 @@
         <v>1526.996398759999</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9366,18 +8876,15 @@
         <v>1526.996398759999</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9402,18 +8909,15 @@
         <v>1526.996398759999</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9440,16 +8944,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9474,18 +8975,15 @@
         <v>1559.996398759999</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9510,18 +9008,15 @@
         <v>1559.996398759999</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9546,18 +9041,15 @@
         <v>1259.996398759999</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9584,16 +9076,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9618,18 +9107,15 @@
         <v>1299.496398759999</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9656,16 +9142,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9690,18 +9173,15 @@
         <v>1222.496398759999</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9728,16 +9208,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>1</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9762,18 +9239,15 @@
         <v>1222.496398759999</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9798,18 +9272,15 @@
         <v>1140.067498759999</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9834,18 +9305,15 @@
         <v>1420.354398759999</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9870,18 +9338,15 @@
         <v>1418.619598759999</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9906,18 +9371,15 @@
         <v>1416.619598759999</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9944,16 +9406,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9980,16 +9439,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10016,18 +9472,15 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest BTG.xlsx
+++ b/BackTest/2019-10-14 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,7 +682,7 @@
         <v>1017.387</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1017.387</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1046.887</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1044.887</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1040.767</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1031.767</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1025.1987</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1025.1987</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1025.1987</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1003.922</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1038.922</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>978.922</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1001.2735</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1507,14 +1507,10 @@
         <v>917.3035</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>9145</v>
-      </c>
-      <c r="J34" t="n">
-        <v>9145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
@@ -1547,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1586,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1625,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1664,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1703,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1742,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1781,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1820,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1859,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1898,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1937,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1976,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2015,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2054,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2093,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2132,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2171,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2207,19 +2101,11 @@
         <v>924.8520999999998</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>9170</v>
-      </c>
-      <c r="J52" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2251,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2290,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2329,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2368,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2407,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2446,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2482,17 +2332,11 @@
         <v>997.2538999999998</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2524,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2563,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2602,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2638,17 +2464,11 @@
         <v>1009.5876</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2677,17 +2497,11 @@
         <v>1009.5876</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2716,17 +2530,11 @@
         <v>1009.5876</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2758,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2797,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2836,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2875,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2914,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2953,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2989,17 +2761,11 @@
         <v>579.1931999999998</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3031,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3070,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3109,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3148,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3187,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3226,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3262,19 +2992,11 @@
         <v>39.22459999999987</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>9195</v>
-      </c>
-      <c r="J79" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3306,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>9145</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3342,15 +3058,15 @@
         <v>-231.0378000000001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>9145</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>9215</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3381,14 +3097,12 @@
         <v>-201.0378000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>9190</v>
       </c>
-      <c r="J82" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3422,14 +3136,12 @@
         <v>-160.7021000000001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>9200</v>
       </c>
-      <c r="J83" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3463,12 +3175,12 @@
         <v>-166.7491000000001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>9145</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>9205</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3502,12 +3214,12 @@
         <v>-166.7491000000001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>9145</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>9200</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3541,14 +3253,12 @@
         <v>-166.7491000000001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>9200</v>
       </c>
-      <c r="J86" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3585,9 +3295,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3624,9 +3332,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3660,14 +3366,10 @@
         <v>-172.7491000000001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>9200</v>
-      </c>
-      <c r="J89" t="n">
-        <v>9145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3701,14 +3403,10 @@
         <v>-92.24910000000014</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>9195</v>
-      </c>
-      <c r="J90" t="n">
-        <v>9145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3742,14 +3440,10 @@
         <v>-28.24910000000014</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>9235</v>
-      </c>
-      <c r="J91" t="n">
-        <v>9145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3783,14 +3477,10 @@
         <v>-26.24910000000014</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>9240</v>
-      </c>
-      <c r="J92" t="n">
-        <v>9145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3827,9 +3517,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3866,9 +3554,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3905,9 +3591,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3944,9 +3628,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3983,9 +3665,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4022,9 +3702,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4061,9 +3739,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4100,9 +3776,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4139,9 +3813,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4178,9 +3850,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4217,9 +3887,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4256,9 +3924,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4295,9 +3961,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4334,9 +3998,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4373,9 +4035,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4412,9 +4072,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4451,9 +4109,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4490,9 +4146,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4529,9 +4183,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4568,9 +4220,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4607,9 +4257,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4646,9 +4294,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4685,9 +4331,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4724,9 +4368,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4763,9 +4405,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4802,9 +4442,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4841,9 +4479,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4880,9 +4516,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4919,9 +4553,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4958,9 +4590,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4997,9 +4627,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5036,9 +4664,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5075,9 +4701,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5114,9 +4738,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5153,9 +4775,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5192,9 +4812,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5228,12 +4846,12 @@
         <v>-209.46318329</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
         <v>9145</v>
       </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5267,12 +4885,12 @@
         <v>-270.03218329</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>9145</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>9215</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5306,12 +4924,12 @@
         <v>-132.04248329</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>9145</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>9140</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5345,12 +4963,12 @@
         <v>-73.54248329000004</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>9145</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>9210</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5384,12 +5002,12 @@
         <v>181.45751671</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>9145</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>9250</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5426,9 +5044,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5465,9 +5081,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5504,9 +5118,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5540,12 +5152,12 @@
         <v>244.8624167099999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>9145</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>9215</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5582,9 +5194,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5621,9 +5231,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5660,9 +5268,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5699,9 +5305,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5738,9 +5342,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5777,9 +5379,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5816,9 +5416,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5855,9 +5453,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5894,9 +5490,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5933,9 +5527,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5972,9 +5564,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6011,9 +5601,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6050,9 +5638,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6089,9 +5675,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6128,9 +5712,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6167,9 +5749,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6206,9 +5786,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6245,9 +5823,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6284,9 +5860,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6320,12 +5894,12 @@
         <v>323.8511167099999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>9145</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>9250</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6362,9 +5936,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6401,9 +5973,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6440,9 +6010,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6479,9 +6047,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6518,9 +6084,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6557,9 +6121,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6596,9 +6158,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6635,9 +6195,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6674,9 +6232,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6713,9 +6269,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6752,9 +6306,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6791,9 +6343,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6830,9 +6380,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6869,9 +6417,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6908,9 +6454,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6947,9 +6491,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6986,9 +6528,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7025,9 +6565,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7064,9 +6602,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7103,9 +6639,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7142,9 +6676,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7181,9 +6713,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7220,9 +6750,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7259,9 +6787,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7298,9 +6824,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7337,9 +6861,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7376,9 +6898,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7415,9 +6935,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7451,19 +6969,17 @@
         <v>1393.42645605</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>9145</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L186" t="n">
-        <v>1.011949152542373</v>
+        <v>1</v>
       </c>
       <c r="M186" t="inlineStr"/>
     </row>
@@ -7494,7 +7010,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7527,7 +7047,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7560,7 +7084,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7593,7 +7121,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7626,7 +7158,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7659,7 +7195,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7692,7 +7232,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7725,7 +7269,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7758,7 +7306,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7787,14 +7339,16 @@
         <v>1226.618631359999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
@@ -7853,7 +7407,7 @@
         <v>1244.058631359999</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8051,7 +7605,7 @@
         <v>1234.057943879999</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8084,7 +7638,7 @@
         <v>1134.057943879999</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8117,7 +7671,7 @@
         <v>1134.557943879999</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8150,7 +7704,7 @@
         <v>1134.557943879999</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8183,7 +7737,7 @@
         <v>1172.280743879999</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8216,7 +7770,7 @@
         <v>1147.650843879999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8249,7 +7803,7 @@
         <v>1237.150843879999</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8282,7 +7836,7 @@
         <v>1237.150843879999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8315,7 +7869,7 @@
         <v>1237.150843879999</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8348,7 +7902,7 @@
         <v>1235.154843879999</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8381,7 +7935,7 @@
         <v>1237.154843879999</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8414,7 +7968,7 @@
         <v>1226.794343879999</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8447,7 +8001,7 @@
         <v>1237.793998759999</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8480,7 +8034,7 @@
         <v>1226.761598759999</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8546,7 +8100,7 @@
         <v>1256.261598759999</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8579,7 +8133,7 @@
         <v>1256.261598759999</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8612,7 +8166,7 @@
         <v>1445.761598759999</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8645,7 +8199,7 @@
         <v>1445.761598759999</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8678,7 +8232,7 @@
         <v>1445.761598759999</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8711,7 +8265,7 @@
         <v>1445.761598759999</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8744,7 +8298,7 @@
         <v>1445.761598759999</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8777,7 +8331,7 @@
         <v>1451.496398759999</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8810,7 +8364,7 @@
         <v>1526.996398759999</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8843,7 +8397,7 @@
         <v>1526.996398759999</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8876,7 +8430,7 @@
         <v>1526.996398759999</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8909,7 +8463,7 @@
         <v>1526.996398759999</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8942,7 +8496,7 @@
         <v>1526.996398759999</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8975,7 +8529,7 @@
         <v>1559.996398759999</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9008,7 +8562,7 @@
         <v>1559.996398759999</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9041,7 +8595,7 @@
         <v>1259.996398759999</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9074,7 +8628,7 @@
         <v>1299.496398759999</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9107,7 +8661,7 @@
         <v>1299.496398759999</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9140,7 +8694,7 @@
         <v>1183.496398759999</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9173,7 +8727,7 @@
         <v>1222.496398759999</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9206,7 +8760,7 @@
         <v>1222.496398759999</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9239,7 +8793,7 @@
         <v>1222.496398759999</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9272,7 +8826,7 @@
         <v>1140.067498759999</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9305,7 +8859,7 @@
         <v>1420.354398759999</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9338,7 +8892,7 @@
         <v>1418.619598759999</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9371,7 +8925,7 @@
         <v>1416.619598759999</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9404,7 +8958,7 @@
         <v>1415.619598759999</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9437,7 +8991,7 @@
         <v>1750.091798759999</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9470,7 +9024,7 @@
         <v>2094.725098759999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9481,6 +9035,6 @@
       <c r="M247" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest BTG.xlsx
+++ b/BackTest/2019-10-14 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>1191.7388</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1174.8487</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1174.8487</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1158.3668</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1017.387</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1017.387</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1046.887</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1044.887</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1040.767</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1031.767</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1025.1987</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1025.1987</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1025.1987</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1003.922</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1038.922</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>978.922</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1001.2735</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1936,11 +1936,17 @@
         <v>869.2920999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9165</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +1975,17 @@
         <v>887.2920999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9105</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2014,17 @@
         <v>887.2920999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>9165</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2057,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2090,17 @@
         <v>895.3520999999998</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>9130</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2133,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2170,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2207,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2244,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2281,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2318,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2355,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2392,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2429,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2466,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2503,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2540,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2577,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2614,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2651,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2688,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2725,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2762,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2799,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +2836,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +2873,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +2910,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +2947,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +2984,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3021,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3058,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3095,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3132,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3169,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,15 +3202,13 @@
         <v>-231.0378000000001</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>9215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3097,11 +3239,9 @@
         <v>-201.0378000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>9190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3136,11 +3276,9 @@
         <v>-160.7021000000001</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>9200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3175,11 +3313,9 @@
         <v>-166.7491000000001</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>9205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3214,11 +3350,9 @@
         <v>-166.7491000000001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>9200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3253,11 +3387,9 @@
         <v>-166.7491000000001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>9200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3551,18 +3683,16 @@
         <v>-58.86540000000014</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3592,11 +3722,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3625,15 +3751,11 @@
         <v>-58.86540000000014</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3662,15 +3784,11 @@
         <v>-60.86540000000014</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3703,11 +3821,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3736,15 +3850,11 @@
         <v>-28.36540000000014</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3773,15 +3883,11 @@
         <v>-28.36540000000014</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3810,15 +3916,11 @@
         <v>-35.40940000000014</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3851,11 +3953,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3888,11 +3986,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3925,11 +4019,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3962,11 +4052,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3999,11 +4085,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4036,11 +4118,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4073,11 +4151,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4110,11 +4184,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4217,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4184,11 +4250,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4221,11 +4283,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4258,11 +4316,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4295,11 +4349,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4332,11 +4382,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4369,11 +4415,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4406,11 +4448,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4443,11 +4481,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4480,11 +4514,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4517,11 +4547,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4554,11 +4580,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4591,11 +4613,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4628,11 +4646,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4665,11 +4679,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4702,11 +4712,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4739,11 +4745,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4776,11 +4778,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4813,11 +4811,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4846,17 +4840,11 @@
         <v>-209.46318329</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>9145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4885,17 +4873,11 @@
         <v>-270.03218329</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>9215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4924,17 +4906,11 @@
         <v>-132.04248329</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>9140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4963,17 +4939,11 @@
         <v>-73.54248329000004</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>9210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5002,17 +4972,11 @@
         <v>181.45751671</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>9250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5045,11 +5009,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5078,15 +5038,11 @@
         <v>264.9457167099999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5115,15 +5071,11 @@
         <v>211.8624167099999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5152,17 +5104,11 @@
         <v>244.8624167099999</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>9215</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5191,15 +5137,11 @@
         <v>344.8624167099999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5228,15 +5170,11 @@
         <v>372.8624167099999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5265,15 +5203,11 @@
         <v>319.8624167099999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5306,11 +5240,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5339,15 +5269,11 @@
         <v>319.8624167099999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5380,11 +5306,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5417,11 +5339,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5454,11 +5372,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5491,11 +5405,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5528,11 +5438,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5565,11 +5471,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5602,11 +5504,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5639,11 +5537,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5676,11 +5570,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5713,11 +5603,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5750,11 +5636,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5787,11 +5669,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5824,11 +5702,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5861,11 +5735,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5894,17 +5764,11 @@
         <v>323.8511167099999</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>9250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5937,11 +5801,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5974,11 +5834,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6011,11 +5867,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6048,11 +5900,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6085,11 +5933,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6122,11 +5966,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6159,11 +5999,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6196,11 +6032,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6233,11 +6065,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6270,11 +6098,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6307,11 +6131,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6344,11 +6164,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6381,11 +6197,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6418,11 +6230,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6455,11 +6263,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6492,11 +6296,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6529,11 +6329,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6566,11 +6362,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6603,11 +6395,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6640,11 +6428,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6677,11 +6461,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6714,11 +6494,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6751,11 +6527,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6788,11 +6560,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6825,11 +6593,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6862,11 +6626,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6899,11 +6659,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6936,11 +6692,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6973,11 +6725,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7010,11 +6758,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7047,11 +6791,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +6824,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7121,11 +6857,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7158,11 +6890,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7195,11 +6923,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7232,11 +6956,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7269,11 +6989,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7306,11 +7022,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7339,16 +7051,14 @@
         <v>1226.618631359999</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
       <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
@@ -7407,7 +7117,7 @@
         <v>1244.058631359999</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7605,7 +7315,7 @@
         <v>1234.057943879999</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7638,7 +7348,7 @@
         <v>1134.057943879999</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7671,7 +7381,7 @@
         <v>1134.557943879999</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7704,7 +7414,7 @@
         <v>1134.557943879999</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7737,7 +7447,7 @@
         <v>1172.280743879999</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7770,7 +7480,7 @@
         <v>1147.650843879999</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7803,7 +7513,7 @@
         <v>1237.150843879999</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7836,7 +7546,7 @@
         <v>1237.150843879999</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7869,7 +7579,7 @@
         <v>1237.150843879999</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7902,7 +7612,7 @@
         <v>1235.154843879999</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7935,7 +7645,7 @@
         <v>1237.154843879999</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7968,7 +7678,7 @@
         <v>1226.794343879999</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8001,7 +7711,7 @@
         <v>1237.793998759999</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8034,7 +7744,7 @@
         <v>1226.761598759999</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8100,7 +7810,7 @@
         <v>1256.261598759999</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8133,7 +7843,7 @@
         <v>1256.261598759999</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8166,7 +7876,7 @@
         <v>1445.761598759999</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8199,7 +7909,7 @@
         <v>1445.761598759999</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8232,7 +7942,7 @@
         <v>1445.761598759999</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8265,7 +7975,7 @@
         <v>1445.761598759999</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8298,7 +8008,7 @@
         <v>1445.761598759999</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8331,7 +8041,7 @@
         <v>1451.496398759999</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8364,7 +8074,7 @@
         <v>1526.996398759999</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8397,7 +8107,7 @@
         <v>1526.996398759999</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8430,7 +8140,7 @@
         <v>1526.996398759999</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8463,7 +8173,7 @@
         <v>1526.996398759999</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8496,7 +8206,7 @@
         <v>1526.996398759999</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8529,7 +8239,7 @@
         <v>1559.996398759999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8562,7 +8272,7 @@
         <v>1559.996398759999</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8595,7 +8305,7 @@
         <v>1259.996398759999</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8628,7 +8338,7 @@
         <v>1299.496398759999</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8661,7 +8371,7 @@
         <v>1299.496398759999</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8694,7 +8404,7 @@
         <v>1183.496398759999</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8727,7 +8437,7 @@
         <v>1222.496398759999</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8760,7 +8470,7 @@
         <v>1222.496398759999</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8793,7 +8503,7 @@
         <v>1222.496398759999</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8826,7 +8536,7 @@
         <v>1140.067498759999</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8859,7 +8569,7 @@
         <v>1420.354398759999</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8892,7 +8602,7 @@
         <v>1418.619598759999</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8925,7 +8635,7 @@
         <v>1416.619598759999</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8958,7 +8668,7 @@
         <v>1415.619598759999</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8991,7 +8701,7 @@
         <v>1750.091798759999</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9024,7 +8734,7 @@
         <v>2094.725098759999</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9035,6 +8745,6 @@
       <c r="M247" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest BTG.xlsx
+++ b/BackTest/2019-10-14 BackTest BTG.xlsx
@@ -484,7 +484,7 @@
         <v>1191.7388</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1174.8487</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1174.8487</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1158.3668</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1017.387</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1040.767</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1936,17 +1936,11 @@
         <v>869.2920999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>9165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1975,17 +1969,11 @@
         <v>887.2920999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2014,17 +2002,11 @@
         <v>887.2920999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>9165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2057,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2090,17 +2068,11 @@
         <v>895.3520999999998</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>9130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2133,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2170,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2207,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2244,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2281,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2318,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2355,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2392,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2429,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2466,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2503,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2540,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2577,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2614,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2647,15 +2563,11 @@
         <v>907.5875999999998</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2688,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2725,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2762,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2799,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2836,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2873,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2910,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2947,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2984,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3021,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3095,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3132,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3169,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3206,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3243,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3280,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3317,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3354,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3391,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3428,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3465,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3502,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3539,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3576,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3613,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3650,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3683,16 +3487,14 @@
         <v>-58.86540000000014</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
       <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3751,7 +3553,7 @@
         <v>-58.86540000000014</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3784,7 +3586,7 @@
         <v>-60.86540000000014</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3850,7 +3652,7 @@
         <v>-28.36540000000014</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3883,7 +3685,7 @@
         <v>-28.36540000000014</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3916,7 +3718,7 @@
         <v>-35.40940000000014</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3949,10 +3751,14 @@
         <v>8.59059999999986</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>9205</v>
+      </c>
+      <c r="J102" t="n">
+        <v>9205</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
@@ -3985,8 +3791,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +3830,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +3869,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +3908,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +3947,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +3986,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4025,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4064,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4103,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4142,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4181,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4220,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4259,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4298,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4337,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4376,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4415,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4454,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4493,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4532,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4571,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +4610,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +4649,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4688,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +4727,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +4766,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +4802,19 @@
         <v>-209.46318329</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>9145</v>
+      </c>
+      <c r="J129" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +4843,19 @@
         <v>-270.03218329</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>9215</v>
+      </c>
+      <c r="J130" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +4884,19 @@
         <v>-132.04248329</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>9140</v>
+      </c>
+      <c r="J131" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +4925,19 @@
         <v>-73.54248329000004</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>9210</v>
+      </c>
+      <c r="J132" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +4966,19 @@
         <v>181.45751671</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>9250</v>
+      </c>
+      <c r="J133" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5007,19 @@
         <v>70.45751670999996</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>9275</v>
+      </c>
+      <c r="J134" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5048,19 @@
         <v>264.9457167099999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>9270</v>
+      </c>
+      <c r="J135" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5089,19 @@
         <v>211.8624167099999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>9275</v>
+      </c>
+      <c r="J136" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5130,19 @@
         <v>244.8624167099999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>9215</v>
+      </c>
+      <c r="J137" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5171,19 @@
         <v>344.8624167099999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>9270</v>
+      </c>
+      <c r="J138" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5212,17 @@
         <v>372.8624167099999</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5251,19 @@
         <v>319.8624167099999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>9280</v>
+      </c>
+      <c r="J140" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5295,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5331,17 @@
         <v>319.8624167099999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5373,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5412,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5451,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5490,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5529,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +5568,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5607,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +5646,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5682,19 @@
         <v>282.9183167099999</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>9280</v>
+      </c>
+      <c r="J151" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5723,19 @@
         <v>313.8158167099999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>9190</v>
+      </c>
+      <c r="J152" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5764,19 @@
         <v>374.3158167099999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>9215</v>
+      </c>
+      <c r="J153" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5805,19 @@
         <v>298.8158167099999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>9255</v>
+      </c>
+      <c r="J154" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5846,19 @@
         <v>298.8158167099999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>9220</v>
+      </c>
+      <c r="J155" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5887,19 @@
         <v>328.3158167099999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>9220</v>
+      </c>
+      <c r="J156" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5928,19 @@
         <v>323.8511167099999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>9250</v>
+      </c>
+      <c r="J157" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +5969,19 @@
         <v>401.3511167099999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>9220</v>
+      </c>
+      <c r="J158" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6010,19 @@
         <v>636.3511167099999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>9245</v>
+      </c>
+      <c r="J159" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6051,19 @@
         <v>593.3511167099999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>9280</v>
+      </c>
+      <c r="J160" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6092,19 @@
         <v>545.3511167099999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>9255</v>
+      </c>
+      <c r="J161" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6136,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6175,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6214,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6253,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6292,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6331,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6370,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6409,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +6448,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +6487,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +6526,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +6565,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +6604,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +6643,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +6682,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +6721,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +6760,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +6799,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +6838,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +6877,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +6916,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +6955,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +6994,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +7033,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7072,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7111,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6787,13 +7147,19 @@
         <v>1374.37780159</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>9205</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L188" t="n">
-        <v>1</v>
+        <v>1.004234111895709</v>
       </c>
       <c r="M188" t="inlineStr"/>
     </row>
@@ -6820,7 +7186,7 @@
         <v>1422.87780159</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6853,7 +7219,7 @@
         <v>1318.618101589999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6886,7 +7252,7 @@
         <v>1351.138901589999</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6919,7 +7285,7 @@
         <v>1316.618101589999</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6952,7 +7318,7 @@
         <v>1316.618101589999</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -8239,7 +8605,7 @@
         <v>1559.996398759999</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8272,7 +8638,7 @@
         <v>1559.996398759999</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8305,7 +8671,7 @@
         <v>1259.996398759999</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8338,7 +8704,7 @@
         <v>1299.496398759999</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8371,7 +8737,7 @@
         <v>1299.496398759999</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8404,7 +8770,7 @@
         <v>1183.496398759999</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8437,7 +8803,7 @@
         <v>1222.496398759999</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8470,7 +8836,7 @@
         <v>1222.496398759999</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8503,7 +8869,7 @@
         <v>1222.496398759999</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8536,7 +8902,7 @@
         <v>1140.067498759999</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8569,7 +8935,7 @@
         <v>1420.354398759999</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8602,7 +8968,7 @@
         <v>1418.619598759999</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8635,7 +9001,7 @@
         <v>1416.619598759999</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8734,7 +9100,7 @@
         <v>2094.725098759999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>

--- a/BackTest/2019-10-14 BackTest BTG.xlsx
+++ b/BackTest/2019-10-14 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M247"/>
+  <dimension ref="A1:L247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>1191.7388</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1.187</v>
       </c>
       <c r="G3" t="n">
-        <v>1191.7388</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>21.371</v>
       </c>
       <c r="G4" t="n">
-        <v>1170.3678</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>4.4809</v>
       </c>
       <c r="G5" t="n">
-        <v>1174.8487</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>50</v>
       </c>
       <c r="G6" t="n">
-        <v>1174.8487</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>16.4819</v>
       </c>
       <c r="G7" t="n">
-        <v>1158.3668</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>7.9072</v>
       </c>
       <c r="G8" t="n">
-        <v>1166.274</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>148.887</v>
       </c>
       <c r="G9" t="n">
-        <v>1017.387</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>20.472</v>
       </c>
       <c r="G10" t="n">
-        <v>1017.387</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>29.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1046.887</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>1044.887</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>4.12</v>
       </c>
       <c r="G13" t="n">
-        <v>1040.767</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>1031.767</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>6.5683</v>
       </c>
       <c r="G15" t="n">
-        <v>1025.1987</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>4.3187</v>
       </c>
       <c r="G16" t="n">
-        <v>1025.1987</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>1025.1987</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>21.2767</v>
       </c>
       <c r="G18" t="n">
-        <v>1003.922</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>35</v>
       </c>
       <c r="G19" t="n">
-        <v>1038.922</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>60</v>
       </c>
       <c r="G20" t="n">
-        <v>978.922</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>22.3515</v>
       </c>
       <c r="G21" t="n">
-        <v>1001.2735</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>40</v>
       </c>
       <c r="G22" t="n">
-        <v>961.2735</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>26</v>
       </c>
       <c r="G23" t="n">
-        <v>961.2735</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>39</v>
       </c>
       <c r="G24" t="n">
-        <v>961.2735</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>961.2735</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>961.2735</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>961.2735</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>7.4</v>
       </c>
       <c r="G28" t="n">
-        <v>961.2735</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>21.97</v>
       </c>
       <c r="G29" t="n">
-        <v>939.3035</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>6.55</v>
       </c>
       <c r="G30" t="n">
-        <v>939.3035</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>22</v>
       </c>
       <c r="G31" t="n">
-        <v>917.3035</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>917.3035</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>917.3035</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>6</v>
       </c>
       <c r="G34" t="n">
-        <v>917.3035</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>45.4446</v>
       </c>
       <c r="G35" t="n">
-        <v>962.7481</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>23.6943</v>
       </c>
       <c r="G36" t="n">
-        <v>939.0538</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>73.99250000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>1013.0463</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>31</v>
       </c>
       <c r="G38" t="n">
-        <v>1044.0463</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>65</v>
       </c>
       <c r="G39" t="n">
-        <v>1044.0463</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>65.5</v>
       </c>
       <c r="G40" t="n">
-        <v>978.5463</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>119</v>
       </c>
       <c r="G41" t="n">
-        <v>978.5463</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>116.5</v>
       </c>
       <c r="G42" t="n">
-        <v>1095.0463</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>27.7913</v>
       </c>
       <c r="G43" t="n">
-        <v>1095.0463</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>39</v>
       </c>
       <c r="G44" t="n">
-        <v>1134.0463</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>27.0884</v>
       </c>
       <c r="G45" t="n">
-        <v>1134.0463</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>68.9486</v>
       </c>
       <c r="G46" t="n">
-        <v>1134.0463</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>264.7542</v>
       </c>
       <c r="G47" t="n">
-        <v>869.2920999999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,19 @@
         <v>18</v>
       </c>
       <c r="G48" t="n">
-        <v>887.2920999999999</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>9105</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9105</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1857,21 @@
         <v>10.4072</v>
       </c>
       <c r="G49" t="n">
-        <v>887.2920999999999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>9105</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1893,23 @@
         <v>23.94</v>
       </c>
       <c r="G50" t="n">
-        <v>863.3520999999998</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>9165</v>
+      </c>
+      <c r="I50" t="n">
+        <v>9105</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1931,19 @@
         <v>32</v>
       </c>
       <c r="G51" t="n">
-        <v>895.3520999999998</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>9130</v>
+      </c>
+      <c r="I51" t="n">
+        <v>9130</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1965,23 @@
         <v>29.5</v>
       </c>
       <c r="G52" t="n">
-        <v>924.8520999999998</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>9170</v>
+      </c>
+      <c r="I52" t="n">
+        <v>9130</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2003,21 @@
         <v>30.8975</v>
       </c>
       <c r="G53" t="n">
-        <v>924.8520999999998</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>9130</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2039,15 @@
         <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>926.8520999999998</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2069,15 @@
         <v>33</v>
       </c>
       <c r="G55" t="n">
-        <v>926.8520999999998</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2099,15 @@
         <v>84.40179999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>1011.2539</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2129,15 @@
         <v>86.8801</v>
       </c>
       <c r="G57" t="n">
-        <v>1011.2539</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2159,15 @@
         <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>1011.2539</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2189,15 @@
         <v>14</v>
       </c>
       <c r="G59" t="n">
-        <v>997.2538999999998</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2219,15 @@
         <v>24</v>
       </c>
       <c r="G60" t="n">
-        <v>997.2538999999998</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2249,15 @@
         <v>16</v>
       </c>
       <c r="G61" t="n">
-        <v>997.2538999999998</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2279,15 @@
         <v>12.3337</v>
       </c>
       <c r="G62" t="n">
-        <v>1009.5876</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2309,15 @@
         <v>70</v>
       </c>
       <c r="G63" t="n">
-        <v>1009.5876</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2339,15 @@
         <v>11.5</v>
       </c>
       <c r="G64" t="n">
-        <v>1009.5876</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2369,15 @@
         <v>33</v>
       </c>
       <c r="G65" t="n">
-        <v>1009.5876</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2399,15 @@
         <v>102</v>
       </c>
       <c r="G66" t="n">
-        <v>907.5875999999998</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2429,15 @@
         <v>165</v>
       </c>
       <c r="G67" t="n">
-        <v>742.5875999999998</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2459,15 @@
         <v>55</v>
       </c>
       <c r="G68" t="n">
-        <v>797.5875999999998</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2489,15 @@
         <v>6</v>
       </c>
       <c r="G69" t="n">
-        <v>803.5875999999998</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2519,15 @@
         <v>22</v>
       </c>
       <c r="G70" t="n">
-        <v>803.5875999999998</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2549,15 @@
         <v>2.2925</v>
       </c>
       <c r="G71" t="n">
-        <v>801.2950999999998</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2579,15 @@
         <v>222.1019</v>
       </c>
       <c r="G72" t="n">
-        <v>579.1931999999998</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2609,15 @@
         <v>666.3059</v>
       </c>
       <c r="G73" t="n">
-        <v>-87.11270000000013</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2639,15 @@
         <v>190.5</v>
       </c>
       <c r="G74" t="n">
-        <v>103.3872999999999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2669,15 @@
         <v>1.6966</v>
       </c>
       <c r="G75" t="n">
-        <v>101.6906999999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2699,15 @@
         <v>40.367</v>
       </c>
       <c r="G76" t="n">
-        <v>142.0576999999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2729,15 @@
         <v>196.3931</v>
       </c>
       <c r="G77" t="n">
-        <v>-54.33540000000013</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2759,15 @@
         <v>6.44</v>
       </c>
       <c r="G78" t="n">
-        <v>-60.77540000000013</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2789,15 @@
         <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>39.22459999999987</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2819,15 @@
         <v>96</v>
       </c>
       <c r="G80" t="n">
-        <v>-56.77540000000013</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2849,15 @@
         <v>174.2624</v>
       </c>
       <c r="G81" t="n">
-        <v>-231.0378000000001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2879,15 @@
         <v>30</v>
       </c>
       <c r="G82" t="n">
-        <v>-201.0378000000001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2909,15 @@
         <v>40.3357</v>
       </c>
       <c r="G83" t="n">
-        <v>-160.7021000000001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2939,15 @@
         <v>6.047</v>
       </c>
       <c r="G84" t="n">
-        <v>-166.7491000000001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2969,15 @@
         <v>4.7215</v>
       </c>
       <c r="G85" t="n">
-        <v>-166.7491000000001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2999,15 @@
         <v>45.0517</v>
       </c>
       <c r="G86" t="n">
-        <v>-166.7491000000001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3029,15 @@
         <v>9.9</v>
       </c>
       <c r="G87" t="n">
-        <v>-166.7491000000001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3059,15 @@
         <v>47.974</v>
       </c>
       <c r="G88" t="n">
-        <v>-166.7491000000001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3089,15 @@
         <v>6</v>
       </c>
       <c r="G89" t="n">
-        <v>-172.7491000000001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3119,15 @@
         <v>80.5</v>
       </c>
       <c r="G90" t="n">
-        <v>-92.24910000000014</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3149,15 @@
         <v>64</v>
       </c>
       <c r="G91" t="n">
-        <v>-28.24910000000014</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3179,15 @@
         <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>-26.24910000000014</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3209,15 @@
         <v>10</v>
       </c>
       <c r="G93" t="n">
-        <v>-16.24910000000014</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3239,15 @@
         <v>42.6163</v>
       </c>
       <c r="G94" t="n">
-        <v>-58.86540000000014</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3269,15 @@
         <v>30.5</v>
       </c>
       <c r="G95" t="n">
-        <v>-58.86540000000014</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3299,15 @@
         <v>53.8396</v>
       </c>
       <c r="G96" t="n">
-        <v>-58.86540000000014</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3329,15 @@
         <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>-60.86540000000014</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3359,15 @@
         <v>32.5</v>
       </c>
       <c r="G98" t="n">
-        <v>-28.36540000000014</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3389,15 @@
         <v>39.5</v>
       </c>
       <c r="G99" t="n">
-        <v>-28.36540000000014</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3419,15 @@
         <v>71</v>
       </c>
       <c r="G100" t="n">
-        <v>-28.36540000000014</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3449,15 @@
         <v>7.044</v>
       </c>
       <c r="G101" t="n">
-        <v>-35.40940000000014</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,22 +3479,15 @@
         <v>44</v>
       </c>
       <c r="G102" t="n">
-        <v>8.59059999999986</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>9205</v>
-      </c>
-      <c r="J102" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3785,24 +3509,15 @@
         <v>190</v>
       </c>
       <c r="G103" t="n">
-        <v>-181.4094000000001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3824,24 +3539,15 @@
         <v>8</v>
       </c>
       <c r="G104" t="n">
-        <v>-173.4094000000001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3863,24 +3569,15 @@
         <v>45</v>
       </c>
       <c r="G105" t="n">
-        <v>-173.4094000000001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3902,24 +3599,15 @@
         <v>153.7523</v>
       </c>
       <c r="G106" t="n">
-        <v>-327.1617000000001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3941,24 +3629,15 @@
         <v>121.2524</v>
       </c>
       <c r="G107" t="n">
-        <v>-327.1617000000001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3980,24 +3659,15 @@
         <v>18</v>
       </c>
       <c r="G108" t="n">
-        <v>-309.1617000000001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4019,24 +3689,15 @@
         <v>8</v>
       </c>
       <c r="G109" t="n">
-        <v>-301.1617000000001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4058,24 +3719,15 @@
         <v>33</v>
       </c>
       <c r="G110" t="n">
-        <v>-334.1617000000001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4097,24 +3749,15 @@
         <v>29.5</v>
       </c>
       <c r="G111" t="n">
-        <v>-334.1617000000001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4136,24 +3779,15 @@
         <v>2.0454</v>
       </c>
       <c r="G112" t="n">
-        <v>-336.2071000000001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4175,24 +3809,15 @@
         <v>39.5706</v>
       </c>
       <c r="G113" t="n">
-        <v>-336.2071000000001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4214,24 +3839,15 @@
         <v>35</v>
       </c>
       <c r="G114" t="n">
-        <v>-301.2071000000001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4253,24 +3869,15 @@
         <v>6</v>
       </c>
       <c r="G115" t="n">
-        <v>-307.2071000000001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4292,24 +3899,15 @@
         <v>6.38</v>
       </c>
       <c r="G116" t="n">
-        <v>-300.8271000000001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4331,24 +3929,15 @@
         <v>16.6493</v>
       </c>
       <c r="G117" t="n">
-        <v>-317.4764000000001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4370,24 +3959,15 @@
         <v>60</v>
       </c>
       <c r="G118" t="n">
-        <v>-317.4764000000001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4409,24 +3989,15 @@
         <v>0.10781671</v>
       </c>
       <c r="G119" t="n">
-        <v>-317.3685832900001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4448,24 +4019,15 @@
         <v>20.2156</v>
       </c>
       <c r="G120" t="n">
-        <v>-317.3685832900001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4487,24 +4049,15 @@
         <v>45</v>
       </c>
       <c r="G121" t="n">
-        <v>-317.3685832900001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4526,24 +4079,15 @@
         <v>114</v>
       </c>
       <c r="G122" t="n">
-        <v>-431.3685832900001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4565,24 +4109,15 @@
         <v>290</v>
       </c>
       <c r="G123" t="n">
-        <v>-141.3685832900001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4604,24 +4139,15 @@
         <v>260</v>
       </c>
       <c r="G124" t="n">
-        <v>-401.3685832900001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4643,24 +4169,15 @@
         <v>286.3054</v>
       </c>
       <c r="G125" t="n">
-        <v>-115.06318329</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4682,24 +4199,15 @@
         <v>52</v>
       </c>
       <c r="G126" t="n">
-        <v>-63.06318329000004</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4721,24 +4229,15 @@
         <v>230</v>
       </c>
       <c r="G127" t="n">
-        <v>-293.06318329</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4760,24 +4259,15 @@
         <v>59.6</v>
       </c>
       <c r="G128" t="n">
-        <v>-233.46318329</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4799,26 +4289,15 @@
         <v>24</v>
       </c>
       <c r="G129" t="n">
-        <v>-209.46318329</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>9145</v>
-      </c>
-      <c r="J129" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4840,26 +4319,15 @@
         <v>60.569</v>
       </c>
       <c r="G130" t="n">
-        <v>-270.03218329</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>9215</v>
-      </c>
-      <c r="J130" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4881,26 +4349,15 @@
         <v>137.9897</v>
       </c>
       <c r="G131" t="n">
-        <v>-132.04248329</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>9140</v>
-      </c>
-      <c r="J131" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4922,26 +4379,15 @@
         <v>58.5</v>
       </c>
       <c r="G132" t="n">
-        <v>-73.54248329000004</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>9210</v>
-      </c>
-      <c r="J132" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4963,26 +4409,15 @@
         <v>255</v>
       </c>
       <c r="G133" t="n">
-        <v>181.45751671</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>9250</v>
-      </c>
-      <c r="J133" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5004,26 +4439,15 @@
         <v>111</v>
       </c>
       <c r="G134" t="n">
-        <v>70.45751670999996</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>9275</v>
-      </c>
-      <c r="J134" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5045,26 +4469,15 @@
         <v>194.4882</v>
       </c>
       <c r="G135" t="n">
-        <v>264.9457167099999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>9270</v>
-      </c>
-      <c r="J135" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5086,26 +4499,15 @@
         <v>53.0833</v>
       </c>
       <c r="G136" t="n">
-        <v>211.8624167099999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>9275</v>
-      </c>
-      <c r="J136" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5127,26 +4529,15 @@
         <v>33</v>
       </c>
       <c r="G137" t="n">
-        <v>244.8624167099999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>9215</v>
-      </c>
-      <c r="J137" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5168,26 +4559,15 @@
         <v>100</v>
       </c>
       <c r="G138" t="n">
-        <v>344.8624167099999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>9270</v>
-      </c>
-      <c r="J138" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5209,24 +4589,15 @@
         <v>28</v>
       </c>
       <c r="G139" t="n">
-        <v>372.8624167099999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5248,26 +4619,15 @@
         <v>53</v>
       </c>
       <c r="G140" t="n">
-        <v>319.8624167099999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>9280</v>
-      </c>
-      <c r="J140" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5289,24 +4649,15 @@
         <v>14</v>
       </c>
       <c r="G141" t="n">
-        <v>319.8624167099999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5328,24 +4679,15 @@
         <v>12</v>
       </c>
       <c r="G142" t="n">
-        <v>319.8624167099999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5367,24 +4709,15 @@
         <v>26</v>
       </c>
       <c r="G143" t="n">
-        <v>319.8624167099999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5406,24 +4739,15 @@
         <v>4</v>
       </c>
       <c r="G144" t="n">
-        <v>323.8624167099999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5445,24 +4769,15 @@
         <v>4</v>
       </c>
       <c r="G145" t="n">
-        <v>323.8624167099999</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5484,24 +4799,15 @@
         <v>4</v>
       </c>
       <c r="G146" t="n">
-        <v>323.8624167099999</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5523,24 +4829,15 @@
         <v>8</v>
       </c>
       <c r="G147" t="n">
-        <v>331.8624167099999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5562,24 +4859,15 @@
         <v>14</v>
       </c>
       <c r="G148" t="n">
-        <v>331.8624167099999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5601,24 +4889,15 @@
         <v>6</v>
       </c>
       <c r="G149" t="n">
-        <v>331.8624167099999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5640,24 +4919,15 @@
         <v>33</v>
       </c>
       <c r="G150" t="n">
-        <v>298.8624167099999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5679,26 +4949,15 @@
         <v>15.9441</v>
       </c>
       <c r="G151" t="n">
-        <v>282.9183167099999</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>9280</v>
-      </c>
-      <c r="J151" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5720,26 +4979,15 @@
         <v>30.8975</v>
       </c>
       <c r="G152" t="n">
-        <v>313.8158167099999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>9190</v>
-      </c>
-      <c r="J152" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5761,26 +5009,15 @@
         <v>60.5</v>
       </c>
       <c r="G153" t="n">
-        <v>374.3158167099999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>9215</v>
-      </c>
-      <c r="J153" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5802,26 +5039,15 @@
         <v>75.5</v>
       </c>
       <c r="G154" t="n">
-        <v>298.8158167099999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>9255</v>
-      </c>
-      <c r="J154" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5843,26 +5069,15 @@
         <v>31.5</v>
       </c>
       <c r="G155" t="n">
-        <v>298.8158167099999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>9220</v>
-      </c>
-      <c r="J155" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5884,26 +5099,15 @@
         <v>29.5</v>
       </c>
       <c r="G156" t="n">
-        <v>328.3158167099999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>9220</v>
-      </c>
-      <c r="J156" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5925,26 +5129,15 @@
         <v>4.4647</v>
       </c>
       <c r="G157" t="n">
-        <v>323.8511167099999</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>9250</v>
-      </c>
-      <c r="J157" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5966,26 +5159,15 @@
         <v>77.5</v>
       </c>
       <c r="G158" t="n">
-        <v>401.3511167099999</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>9220</v>
-      </c>
-      <c r="J158" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6007,26 +5189,15 @@
         <v>235</v>
       </c>
       <c r="G159" t="n">
-        <v>636.3511167099999</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>9245</v>
-      </c>
-      <c r="J159" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6048,26 +5219,15 @@
         <v>43</v>
       </c>
       <c r="G160" t="n">
-        <v>593.3511167099999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>9280</v>
-      </c>
-      <c r="J160" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6089,26 +5249,15 @@
         <v>48</v>
       </c>
       <c r="G161" t="n">
-        <v>545.3511167099999</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>9255</v>
-      </c>
-      <c r="J161" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6130,24 +5279,15 @@
         <v>30</v>
       </c>
       <c r="G162" t="n">
-        <v>545.3511167099999</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6169,24 +5309,15 @@
         <v>4</v>
       </c>
       <c r="G163" t="n">
-        <v>549.3511167099999</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6208,24 +5339,15 @@
         <v>40</v>
       </c>
       <c r="G164" t="n">
-        <v>509.3511167099999</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6247,24 +5369,15 @@
         <v>29</v>
       </c>
       <c r="G165" t="n">
-        <v>538.3511167099999</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6286,24 +5399,15 @@
         <v>0.5402</v>
       </c>
       <c r="G166" t="n">
-        <v>537.8109167099999</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6325,24 +5429,15 @@
         <v>652.2395</v>
       </c>
       <c r="G167" t="n">
-        <v>1190.05041671</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6364,24 +5459,15 @@
         <v>1.8186</v>
       </c>
       <c r="G168" t="n">
-        <v>1188.23181671</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6403,24 +5489,15 @@
         <v>192.14</v>
       </c>
       <c r="G169" t="n">
-        <v>1188.23181671</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6442,24 +5519,15 @@
         <v>49.303</v>
       </c>
       <c r="G170" t="n">
-        <v>1237.53481671</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6481,24 +5549,15 @@
         <v>6.4176</v>
       </c>
       <c r="G171" t="n">
-        <v>1231.11721671</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6520,24 +5579,15 @@
         <v>30.15526066</v>
       </c>
       <c r="G172" t="n">
-        <v>1200.96195605</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6559,24 +5609,15 @@
         <v>80.992</v>
       </c>
       <c r="G173" t="n">
-        <v>1119.96995605</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6598,24 +5639,15 @@
         <v>9.3034</v>
       </c>
       <c r="G174" t="n">
-        <v>1129.27335605</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6637,24 +5669,15 @@
         <v>28.2298</v>
       </c>
       <c r="G175" t="n">
-        <v>1157.50315605</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6676,24 +5699,15 @@
         <v>110</v>
       </c>
       <c r="G176" t="n">
-        <v>1267.50315605</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6715,24 +5729,15 @@
         <v>98.5</v>
       </c>
       <c r="G177" t="n">
-        <v>1267.50315605</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6754,24 +5759,15 @@
         <v>6</v>
       </c>
       <c r="G178" t="n">
-        <v>1273.50315605</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6793,24 +5789,15 @@
         <v>5.8878</v>
       </c>
       <c r="G179" t="n">
-        <v>1267.61535605</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6832,24 +5819,15 @@
         <v>22.6889</v>
       </c>
       <c r="G180" t="n">
-        <v>1244.92645605</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6871,24 +5849,15 @@
         <v>31</v>
       </c>
       <c r="G181" t="n">
-        <v>1275.92645605</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6910,24 +5879,15 @@
         <v>32</v>
       </c>
       <c r="G182" t="n">
-        <v>1275.92645605</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6949,24 +5909,15 @@
         <v>44</v>
       </c>
       <c r="G183" t="n">
-        <v>1319.92645605</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6988,24 +5939,15 @@
         <v>32</v>
       </c>
       <c r="G184" t="n">
-        <v>1319.92645605</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7027,24 +5969,15 @@
         <v>32.5</v>
       </c>
       <c r="G185" t="n">
-        <v>1319.92645605</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7066,24 +5999,15 @@
         <v>73.5</v>
       </c>
       <c r="G186" t="n">
-        <v>1393.42645605</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7105,24 +6029,15 @@
         <v>31.5</v>
       </c>
       <c r="G187" t="n">
-        <v>1393.42645605</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7144,24 +6059,15 @@
         <v>19.04865446</v>
       </c>
       <c r="G188" t="n">
-        <v>1374.37780159</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1.004234111895709</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7183,18 +6089,15 @@
         <v>48.5</v>
       </c>
       <c r="G189" t="n">
-        <v>1422.87780159</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7216,18 +6119,15 @@
         <v>104.2597</v>
       </c>
       <c r="G190" t="n">
-        <v>1318.618101589999</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7249,18 +6149,15 @@
         <v>32.5208</v>
       </c>
       <c r="G191" t="n">
-        <v>1351.138901589999</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7282,18 +6179,15 @@
         <v>34.5208</v>
       </c>
       <c r="G192" t="n">
-        <v>1316.618101589999</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7315,18 +6209,15 @@
         <v>12</v>
       </c>
       <c r="G193" t="n">
-        <v>1316.618101589999</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7348,18 +6239,15 @@
         <v>55.99947023</v>
       </c>
       <c r="G194" t="n">
-        <v>1260.618631359999</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7381,18 +6269,15 @@
         <v>1</v>
       </c>
       <c r="G195" t="n">
-        <v>1261.618631359999</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7414,18 +6299,15 @@
         <v>35</v>
       </c>
       <c r="G196" t="n">
-        <v>1226.618631359999</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7447,18 +6329,15 @@
         <v>1</v>
       </c>
       <c r="G197" t="n">
-        <v>1227.618631359999</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7480,18 +6359,15 @@
         <v>16.44</v>
       </c>
       <c r="G198" t="n">
-        <v>1244.058631359999</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7513,18 +6389,15 @@
         <v>21.3365</v>
       </c>
       <c r="G199" t="n">
-        <v>1244.058631359999</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7546,18 +6419,15 @@
         <v>16</v>
       </c>
       <c r="G200" t="n">
-        <v>1228.058631359999</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7579,18 +6449,15 @@
         <v>2</v>
       </c>
       <c r="G201" t="n">
-        <v>1226.058631359999</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7612,18 +6479,15 @@
         <v>1.9997947</v>
       </c>
       <c r="G202" t="n">
-        <v>1228.058426059999</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7645,18 +6509,15 @@
         <v>6.99951782</v>
       </c>
       <c r="G203" t="n">
-        <v>1235.057943879999</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7678,18 +6539,15 @@
         <v>1</v>
       </c>
       <c r="G204" t="n">
-        <v>1234.057943879999</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7711,18 +6569,15 @@
         <v>100</v>
       </c>
       <c r="G205" t="n">
-        <v>1134.057943879999</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7744,18 +6599,15 @@
         <v>0.5</v>
       </c>
       <c r="G206" t="n">
-        <v>1134.557943879999</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7777,18 +6629,15 @@
         <v>6</v>
       </c>
       <c r="G207" t="n">
-        <v>1134.557943879999</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7810,18 +6659,15 @@
         <v>37.7228</v>
       </c>
       <c r="G208" t="n">
-        <v>1172.280743879999</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7843,18 +6689,15 @@
         <v>24.6299</v>
       </c>
       <c r="G209" t="n">
-        <v>1147.650843879999</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7876,18 +6719,15 @@
         <v>89.5</v>
       </c>
       <c r="G210" t="n">
-        <v>1237.150843879999</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7909,18 +6749,15 @@
         <v>69</v>
       </c>
       <c r="G211" t="n">
-        <v>1237.150843879999</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7942,18 +6779,15 @@
         <v>60.5</v>
       </c>
       <c r="G212" t="n">
-        <v>1237.150843879999</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7975,18 +6809,15 @@
         <v>1.996</v>
       </c>
       <c r="G213" t="n">
-        <v>1235.154843879999</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8008,18 +6839,15 @@
         <v>2</v>
       </c>
       <c r="G214" t="n">
-        <v>1237.154843879999</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8041,18 +6869,15 @@
         <v>10.3605</v>
       </c>
       <c r="G215" t="n">
-        <v>1226.794343879999</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8074,18 +6899,15 @@
         <v>10.99965488</v>
       </c>
       <c r="G216" t="n">
-        <v>1237.793998759999</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8107,18 +6929,15 @@
         <v>11.0324</v>
       </c>
       <c r="G217" t="n">
-        <v>1226.761598759999</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8140,18 +6959,15 @@
         <v>62.1968</v>
       </c>
       <c r="G218" t="n">
-        <v>1226.761598759999</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8173,18 +6989,15 @@
         <v>29.5</v>
       </c>
       <c r="G219" t="n">
-        <v>1256.261598759999</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8206,18 +7019,15 @@
         <v>31.5</v>
       </c>
       <c r="G220" t="n">
-        <v>1256.261598759999</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8239,18 +7049,15 @@
         <v>189.5</v>
       </c>
       <c r="G221" t="n">
-        <v>1445.761598759999</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8272,18 +7079,15 @@
         <v>10</v>
       </c>
       <c r="G222" t="n">
-        <v>1445.761598759999</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8305,18 +7109,15 @@
         <v>10</v>
       </c>
       <c r="G223" t="n">
-        <v>1445.761598759999</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8338,18 +7139,15 @@
         <v>16</v>
       </c>
       <c r="G224" t="n">
-        <v>1445.761598759999</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8371,18 +7169,15 @@
         <v>0.38804512</v>
       </c>
       <c r="G225" t="n">
-        <v>1445.761598759999</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8404,18 +7199,15 @@
         <v>5.7348</v>
       </c>
       <c r="G226" t="n">
-        <v>1451.496398759999</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8437,18 +7229,15 @@
         <v>75.5</v>
       </c>
       <c r="G227" t="n">
-        <v>1526.996398759999</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8470,18 +7259,15 @@
         <v>31.5</v>
       </c>
       <c r="G228" t="n">
-        <v>1526.996398759999</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8503,18 +7289,15 @@
         <v>33</v>
       </c>
       <c r="G229" t="n">
-        <v>1526.996398759999</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8536,18 +7319,15 @@
         <v>29</v>
       </c>
       <c r="G230" t="n">
-        <v>1526.996398759999</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8569,18 +7349,15 @@
         <v>32</v>
       </c>
       <c r="G231" t="n">
-        <v>1526.996398759999</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8602,18 +7379,15 @@
         <v>33</v>
       </c>
       <c r="G232" t="n">
-        <v>1559.996398759999</v>
-      </c>
-      <c r="H232" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8635,18 +7409,15 @@
         <v>18.7</v>
       </c>
       <c r="G233" t="n">
-        <v>1559.996398759999</v>
-      </c>
-      <c r="H233" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8668,18 +7439,15 @@
         <v>300</v>
       </c>
       <c r="G234" t="n">
-        <v>1259.996398759999</v>
-      </c>
-      <c r="H234" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8701,18 +7469,15 @@
         <v>39.5</v>
       </c>
       <c r="G235" t="n">
-        <v>1299.496398759999</v>
-      </c>
-      <c r="H235" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8734,18 +7499,15 @@
         <v>23</v>
       </c>
       <c r="G236" t="n">
-        <v>1299.496398759999</v>
-      </c>
-      <c r="H236" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8767,18 +7529,15 @@
         <v>116</v>
       </c>
       <c r="G237" t="n">
-        <v>1183.496398759999</v>
-      </c>
-      <c r="H237" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8800,18 +7559,15 @@
         <v>39</v>
       </c>
       <c r="G238" t="n">
-        <v>1222.496398759999</v>
-      </c>
-      <c r="H238" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8833,18 +7589,15 @@
         <v>53.5</v>
       </c>
       <c r="G239" t="n">
-        <v>1222.496398759999</v>
-      </c>
-      <c r="H239" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8866,18 +7619,15 @@
         <v>100</v>
       </c>
       <c r="G240" t="n">
-        <v>1222.496398759999</v>
-      </c>
-      <c r="H240" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8899,18 +7649,15 @@
         <v>82.4289</v>
       </c>
       <c r="G241" t="n">
-        <v>1140.067498759999</v>
-      </c>
-      <c r="H241" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8932,18 +7679,15 @@
         <v>280.2869</v>
       </c>
       <c r="G242" t="n">
-        <v>1420.354398759999</v>
-      </c>
-      <c r="H242" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8965,18 +7709,15 @@
         <v>1.7348</v>
       </c>
       <c r="G243" t="n">
-        <v>1418.619598759999</v>
-      </c>
-      <c r="H243" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8998,18 +7739,15 @@
         <v>2</v>
       </c>
       <c r="G244" t="n">
-        <v>1416.619598759999</v>
-      </c>
-      <c r="H244" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9031,18 +7769,15 @@
         <v>1</v>
       </c>
       <c r="G245" t="n">
-        <v>1415.619598759999</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9064,18 +7799,15 @@
         <v>334.4722</v>
       </c>
       <c r="G246" t="n">
-        <v>1750.091798759999</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9097,18 +7829,15 @@
         <v>344.6333</v>
       </c>
       <c r="G247" t="n">
-        <v>2094.725098759999</v>
-      </c>
-      <c r="H247" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
